--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\wzmnz_game_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D83B298-B1CE-44F6-B18C-A89001FD7FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A44F6D-3CD4-4D0E-BFED-C3716CF06788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB48B202-EBC4-4DF3-96AB-433FACB95B1A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="179">
   <si>
     <t>阵容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +698,35 @@
   </si>
   <si>
     <t>质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶桑群雄刺</t>
+  </si>
+  <si>
+    <t>弟弟蜀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>RW侠</t>
+  </si>
+  <si>
+    <t>次手手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶桑刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2E6C9-7049-424A-A14B-939D1CD70783}">
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:M321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="H299" sqref="H299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10968,6 +10997,3286 @@
         <v>5</v>
       </c>
       <c r="M241" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D242" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" t="s">
+        <v>27</v>
+      </c>
+      <c r="F242" s="2">
+        <v>85</v>
+      </c>
+      <c r="G242" s="3">
+        <v>197</v>
+      </c>
+      <c r="H242" s="3">
+        <v>22</v>
+      </c>
+      <c r="I242" s="3">
+        <v>4</v>
+      </c>
+      <c r="J242">
+        <v>5</v>
+      </c>
+      <c r="K242" t="s">
+        <v>38</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>2</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D243" t="s">
+        <v>41</v>
+      </c>
+      <c r="E243" t="s">
+        <v>62</v>
+      </c>
+      <c r="F243" s="2">
+        <v>76</v>
+      </c>
+      <c r="G243" s="3">
+        <v>69</v>
+      </c>
+      <c r="H243" s="3">
+        <v>17</v>
+      </c>
+      <c r="I243" s="3">
+        <v>9</v>
+      </c>
+      <c r="J243">
+        <v>5</v>
+      </c>
+      <c r="K243" t="s">
+        <v>39</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D244" t="s">
+        <v>11</v>
+      </c>
+      <c r="E244" t="s">
+        <v>24</v>
+      </c>
+      <c r="F244" s="2">
+        <v>90</v>
+      </c>
+      <c r="G244" s="3">
+        <v>113</v>
+      </c>
+      <c r="H244" s="3">
+        <v>14</v>
+      </c>
+      <c r="I244" s="3">
+        <v>12</v>
+      </c>
+      <c r="J244">
+        <v>5</v>
+      </c>
+      <c r="K244" t="s">
+        <v>39</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>4</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D245" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245" t="s">
+        <v>21</v>
+      </c>
+      <c r="F245" s="2">
+        <v>69</v>
+      </c>
+      <c r="G245" s="3">
+        <v>98</v>
+      </c>
+      <c r="H245" s="3">
+        <v>15</v>
+      </c>
+      <c r="I245" s="3">
+        <v>9</v>
+      </c>
+      <c r="J245">
+        <v>5</v>
+      </c>
+      <c r="K245" t="s">
+        <v>39</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>5</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" t="s">
+        <v>148</v>
+      </c>
+      <c r="F246" s="2">
+        <v>60</v>
+      </c>
+      <c r="G246" s="3">
+        <v>89</v>
+      </c>
+      <c r="H246" s="3">
+        <v>14</v>
+      </c>
+      <c r="I246" s="3">
+        <v>9</v>
+      </c>
+      <c r="J246">
+        <v>5</v>
+      </c>
+      <c r="K246" t="s">
+        <v>39</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>6</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D247" t="s">
+        <v>11</v>
+      </c>
+      <c r="E247" t="s">
+        <v>24</v>
+      </c>
+      <c r="F247" s="2">
+        <v>63</v>
+      </c>
+      <c r="G247" s="3">
+        <v>101</v>
+      </c>
+      <c r="H247" s="3">
+        <v>12</v>
+      </c>
+      <c r="I247" s="3">
+        <v>10</v>
+      </c>
+      <c r="J247">
+        <v>5</v>
+      </c>
+      <c r="K247" t="s">
+        <v>39</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>7</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C248" s="1">
+        <v>52</v>
+      </c>
+      <c r="D248" t="s">
+        <v>11</v>
+      </c>
+      <c r="E248" t="s">
+        <v>21</v>
+      </c>
+      <c r="F248" s="2">
+        <v>72</v>
+      </c>
+      <c r="G248" s="3">
+        <v>52</v>
+      </c>
+      <c r="H248" s="3">
+        <v>11</v>
+      </c>
+      <c r="I248" s="3">
+        <v>10</v>
+      </c>
+      <c r="J248">
+        <v>5</v>
+      </c>
+      <c r="K248" t="s">
+        <v>39</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>8</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249" s="2">
+        <v>58</v>
+      </c>
+      <c r="G249" s="3">
+        <v>28</v>
+      </c>
+      <c r="H249" s="3">
+        <v>9</v>
+      </c>
+      <c r="I249" s="3">
+        <v>9</v>
+      </c>
+      <c r="J249">
+        <v>5</v>
+      </c>
+      <c r="K249" t="s">
+        <v>39</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" t="s">
+        <v>148</v>
+      </c>
+      <c r="F250" s="2">
+        <v>120</v>
+      </c>
+      <c r="G250" s="3">
+        <v>223</v>
+      </c>
+      <c r="H250" s="3">
+        <v>26</v>
+      </c>
+      <c r="I250" s="3">
+        <v>5</v>
+      </c>
+      <c r="J250">
+        <v>5</v>
+      </c>
+      <c r="K250" t="s">
+        <v>39</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>2</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D251" t="s">
+        <v>41</v>
+      </c>
+      <c r="E251" t="s">
+        <v>62</v>
+      </c>
+      <c r="F251" s="2">
+        <v>93</v>
+      </c>
+      <c r="G251" s="3">
+        <v>111</v>
+      </c>
+      <c r="H251" s="3">
+        <v>20</v>
+      </c>
+      <c r="I251" s="3">
+        <v>11</v>
+      </c>
+      <c r="J251">
+        <v>5</v>
+      </c>
+      <c r="K251" t="s">
+        <v>39</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>3</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C252" s="1">
+        <v>52</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" t="s">
+        <v>18</v>
+      </c>
+      <c r="F252" s="2">
+        <v>81</v>
+      </c>
+      <c r="G252" s="3">
+        <v>100</v>
+      </c>
+      <c r="H252" s="3">
+        <v>16</v>
+      </c>
+      <c r="I252" s="3">
+        <v>12</v>
+      </c>
+      <c r="J252">
+        <v>5</v>
+      </c>
+      <c r="K252" t="s">
+        <v>39</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>4</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D253" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" t="s">
+        <v>27</v>
+      </c>
+      <c r="F253" s="2">
+        <v>69</v>
+      </c>
+      <c r="G253" s="3">
+        <v>69</v>
+      </c>
+      <c r="H253" s="3">
+        <v>14</v>
+      </c>
+      <c r="I253" s="3">
+        <v>12</v>
+      </c>
+      <c r="J253">
+        <v>5</v>
+      </c>
+      <c r="K253" t="s">
+        <v>39</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>5</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D254" t="s">
+        <v>41</v>
+      </c>
+      <c r="E254" t="s">
+        <v>34</v>
+      </c>
+      <c r="F254" s="2">
+        <v>80</v>
+      </c>
+      <c r="G254" s="3">
+        <v>85</v>
+      </c>
+      <c r="H254" s="3">
+        <v>14</v>
+      </c>
+      <c r="I254" s="3">
+        <v>12</v>
+      </c>
+      <c r="J254">
+        <v>5</v>
+      </c>
+      <c r="K254" t="s">
+        <v>39</v>
+      </c>
+      <c r="L254">
+        <v>2</v>
+      </c>
+      <c r="M254" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>6</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D255" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" t="s">
+        <v>21</v>
+      </c>
+      <c r="F255" s="2">
+        <v>73</v>
+      </c>
+      <c r="G255" s="3">
+        <v>62</v>
+      </c>
+      <c r="H255" s="3">
+        <v>13</v>
+      </c>
+      <c r="I255" s="3">
+        <v>11</v>
+      </c>
+      <c r="J255">
+        <v>5</v>
+      </c>
+      <c r="K255" t="s">
+        <v>39</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>7</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" t="s">
+        <v>58</v>
+      </c>
+      <c r="F256" s="2">
+        <v>58</v>
+      </c>
+      <c r="G256" s="3">
+        <v>115</v>
+      </c>
+      <c r="H256" s="3">
+        <v>15</v>
+      </c>
+      <c r="I256" s="3">
+        <v>8</v>
+      </c>
+      <c r="J256">
+        <v>5</v>
+      </c>
+      <c r="K256" t="s">
+        <v>39</v>
+      </c>
+      <c r="L256">
+        <v>2</v>
+      </c>
+      <c r="M256" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>8</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" t="s">
+        <v>13</v>
+      </c>
+      <c r="F257" s="2">
+        <v>41</v>
+      </c>
+      <c r="G257" s="3">
+        <v>24</v>
+      </c>
+      <c r="H257" s="3">
+        <v>8</v>
+      </c>
+      <c r="I257" s="3">
+        <v>10</v>
+      </c>
+      <c r="J257">
+        <v>5</v>
+      </c>
+      <c r="K257" t="s">
+        <v>39</v>
+      </c>
+      <c r="L257">
+        <v>2</v>
+      </c>
+      <c r="M257" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" s="2">
+        <v>67</v>
+      </c>
+      <c r="G258" s="3">
+        <v>261</v>
+      </c>
+      <c r="H258" s="3">
+        <v>22</v>
+      </c>
+      <c r="I258" s="3">
+        <v>4</v>
+      </c>
+      <c r="J258">
+        <v>5</v>
+      </c>
+      <c r="K258" t="s">
+        <v>39</v>
+      </c>
+      <c r="L258">
+        <v>3</v>
+      </c>
+      <c r="M258" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>2</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D259" t="s">
+        <v>11</v>
+      </c>
+      <c r="E259" t="s">
+        <v>151</v>
+      </c>
+      <c r="F259" s="2">
+        <v>92</v>
+      </c>
+      <c r="G259" s="3">
+        <v>99</v>
+      </c>
+      <c r="H259" s="3">
+        <v>18</v>
+      </c>
+      <c r="I259" s="3">
+        <v>8</v>
+      </c>
+      <c r="J259">
+        <v>5</v>
+      </c>
+      <c r="K259" t="s">
+        <v>39</v>
+      </c>
+      <c r="L259">
+        <v>3</v>
+      </c>
+      <c r="M259" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>3</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D260" t="s">
+        <v>41</v>
+      </c>
+      <c r="E260" t="s">
+        <v>62</v>
+      </c>
+      <c r="F260" s="2">
+        <v>55</v>
+      </c>
+      <c r="G260" s="3">
+        <v>59</v>
+      </c>
+      <c r="H260" s="3">
+        <v>14</v>
+      </c>
+      <c r="I260" s="3">
+        <v>10</v>
+      </c>
+      <c r="J260">
+        <v>5</v>
+      </c>
+      <c r="K260" t="s">
+        <v>39</v>
+      </c>
+      <c r="L260">
+        <v>3</v>
+      </c>
+      <c r="M260" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>4</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" t="s">
+        <v>21</v>
+      </c>
+      <c r="F261" s="2">
+        <v>83</v>
+      </c>
+      <c r="G261" s="3">
+        <v>80</v>
+      </c>
+      <c r="H261" s="3">
+        <v>12</v>
+      </c>
+      <c r="I261" s="3">
+        <v>12</v>
+      </c>
+      <c r="J261">
+        <v>5</v>
+      </c>
+      <c r="K261" t="s">
+        <v>39</v>
+      </c>
+      <c r="L261">
+        <v>3</v>
+      </c>
+      <c r="M261" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>5</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D262" t="s">
+        <v>59</v>
+      </c>
+      <c r="E262" t="s">
+        <v>27</v>
+      </c>
+      <c r="F262" s="2">
+        <v>72</v>
+      </c>
+      <c r="G262" s="3">
+        <v>65</v>
+      </c>
+      <c r="H262" s="3">
+        <v>13</v>
+      </c>
+      <c r="I262" s="3">
+        <v>10</v>
+      </c>
+      <c r="J262">
+        <v>5</v>
+      </c>
+      <c r="K262" t="s">
+        <v>39</v>
+      </c>
+      <c r="L262">
+        <v>3</v>
+      </c>
+      <c r="M262" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>6</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D263" t="s">
+        <v>59</v>
+      </c>
+      <c r="E263" t="s">
+        <v>27</v>
+      </c>
+      <c r="F263" s="2">
+        <v>59</v>
+      </c>
+      <c r="G263" s="3">
+        <v>62</v>
+      </c>
+      <c r="H263" s="3">
+        <v>12</v>
+      </c>
+      <c r="I263" s="3">
+        <v>10</v>
+      </c>
+      <c r="J263">
+        <v>5</v>
+      </c>
+      <c r="K263" t="s">
+        <v>39</v>
+      </c>
+      <c r="L263">
+        <v>3</v>
+      </c>
+      <c r="M263" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>7</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D264" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" t="s">
+        <v>58</v>
+      </c>
+      <c r="F264" s="2">
+        <v>49</v>
+      </c>
+      <c r="G264" s="3">
+        <v>56</v>
+      </c>
+      <c r="H264" s="3">
+        <v>12</v>
+      </c>
+      <c r="I264" s="3">
+        <v>9</v>
+      </c>
+      <c r="J264">
+        <v>5</v>
+      </c>
+      <c r="K264" t="s">
+        <v>39</v>
+      </c>
+      <c r="L264">
+        <v>3</v>
+      </c>
+      <c r="M264" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>8</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D265" t="s">
+        <v>41</v>
+      </c>
+      <c r="E265" t="s">
+        <v>62</v>
+      </c>
+      <c r="F265" s="2">
+        <v>40</v>
+      </c>
+      <c r="G265" s="3">
+        <v>39</v>
+      </c>
+      <c r="H265" s="3">
+        <v>11</v>
+      </c>
+      <c r="I265" s="3">
+        <v>8</v>
+      </c>
+      <c r="J265">
+        <v>5</v>
+      </c>
+      <c r="K265" t="s">
+        <v>39</v>
+      </c>
+      <c r="L265">
+        <v>3</v>
+      </c>
+      <c r="M265" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D266" t="s">
+        <v>41</v>
+      </c>
+      <c r="E266" t="s">
+        <v>62</v>
+      </c>
+      <c r="F266" s="2">
+        <v>78</v>
+      </c>
+      <c r="G266" s="3">
+        <v>138</v>
+      </c>
+      <c r="H266" s="3">
+        <v>27</v>
+      </c>
+      <c r="I266" s="3">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>5</v>
+      </c>
+      <c r="K266" t="s">
+        <v>39</v>
+      </c>
+      <c r="L266">
+        <v>4</v>
+      </c>
+      <c r="M266" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>2</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D267" t="s">
+        <v>59</v>
+      </c>
+      <c r="E267" t="s">
+        <v>148</v>
+      </c>
+      <c r="F267" s="2">
+        <v>95</v>
+      </c>
+      <c r="G267" s="3">
+        <v>88</v>
+      </c>
+      <c r="H267" s="3">
+        <v>15</v>
+      </c>
+      <c r="I267" s="3">
+        <v>13</v>
+      </c>
+      <c r="J267">
+        <v>5</v>
+      </c>
+      <c r="K267" t="s">
+        <v>39</v>
+      </c>
+      <c r="L267">
+        <v>4</v>
+      </c>
+      <c r="M267" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>3</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D268" t="s">
+        <v>52</v>
+      </c>
+      <c r="E268" t="s">
+        <v>24</v>
+      </c>
+      <c r="F268" s="2">
+        <v>86</v>
+      </c>
+      <c r="G268" s="3">
+        <v>140</v>
+      </c>
+      <c r="H268" s="3">
+        <v>12</v>
+      </c>
+      <c r="I268" s="3">
+        <v>15</v>
+      </c>
+      <c r="J268">
+        <v>5</v>
+      </c>
+      <c r="K268" t="s">
+        <v>39</v>
+      </c>
+      <c r="L268">
+        <v>4</v>
+      </c>
+      <c r="M268" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>4</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D269" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" s="2">
+        <v>79</v>
+      </c>
+      <c r="G269" s="3">
+        <v>95</v>
+      </c>
+      <c r="H269" s="3">
+        <v>12</v>
+      </c>
+      <c r="I269" s="3">
+        <v>12</v>
+      </c>
+      <c r="J269">
+        <v>5</v>
+      </c>
+      <c r="K269" t="s">
+        <v>39</v>
+      </c>
+      <c r="L269">
+        <v>4</v>
+      </c>
+      <c r="M269" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>5</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270" t="s">
+        <v>52</v>
+      </c>
+      <c r="E270" t="s">
+        <v>24</v>
+      </c>
+      <c r="F270" s="2">
+        <v>73</v>
+      </c>
+      <c r="G270" s="3">
+        <v>85</v>
+      </c>
+      <c r="H270" s="3">
+        <v>12</v>
+      </c>
+      <c r="I270" s="3">
+        <v>10</v>
+      </c>
+      <c r="J270">
+        <v>5</v>
+      </c>
+      <c r="K270" t="s">
+        <v>39</v>
+      </c>
+      <c r="L270">
+        <v>4</v>
+      </c>
+      <c r="M270" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>6</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D271" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271" t="s">
+        <v>34</v>
+      </c>
+      <c r="F271" s="2">
+        <v>69</v>
+      </c>
+      <c r="G271" s="3">
+        <v>72</v>
+      </c>
+      <c r="H271" s="3">
+        <v>14</v>
+      </c>
+      <c r="I271" s="3">
+        <v>8</v>
+      </c>
+      <c r="J271">
+        <v>5</v>
+      </c>
+      <c r="K271" t="s">
+        <v>39</v>
+      </c>
+      <c r="L271">
+        <v>4</v>
+      </c>
+      <c r="M271" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>7</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D272" t="s">
+        <v>9</v>
+      </c>
+      <c r="E272" t="s">
+        <v>172</v>
+      </c>
+      <c r="F272" s="2">
+        <v>62</v>
+      </c>
+      <c r="G272" s="3">
+        <v>72</v>
+      </c>
+      <c r="H272" s="3">
+        <v>14</v>
+      </c>
+      <c r="I272" s="3">
+        <v>7</v>
+      </c>
+      <c r="J272">
+        <v>5</v>
+      </c>
+      <c r="K272" t="s">
+        <v>39</v>
+      </c>
+      <c r="L272">
+        <v>4</v>
+      </c>
+      <c r="M272" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>8</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D273" t="s">
+        <v>9</v>
+      </c>
+      <c r="E273" t="s">
+        <v>34</v>
+      </c>
+      <c r="F273" s="2">
+        <v>47</v>
+      </c>
+      <c r="G273" s="3">
+        <v>44</v>
+      </c>
+      <c r="H273" s="3">
+        <v>10</v>
+      </c>
+      <c r="I273" s="3">
+        <v>8</v>
+      </c>
+      <c r="J273">
+        <v>5</v>
+      </c>
+      <c r="K273" t="s">
+        <v>39</v>
+      </c>
+      <c r="L273">
+        <v>4</v>
+      </c>
+      <c r="M273" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D274" t="s">
+        <v>41</v>
+      </c>
+      <c r="E274" t="s">
+        <v>149</v>
+      </c>
+      <c r="F274" s="2">
+        <v>115</v>
+      </c>
+      <c r="G274" s="3">
+        <v>218</v>
+      </c>
+      <c r="H274" s="3">
+        <v>24</v>
+      </c>
+      <c r="I274" s="3">
+        <v>10</v>
+      </c>
+      <c r="J274">
+        <v>5</v>
+      </c>
+      <c r="K274" t="s">
+        <v>39</v>
+      </c>
+      <c r="L274">
+        <v>5</v>
+      </c>
+      <c r="M274" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D275" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" t="s">
+        <v>27</v>
+      </c>
+      <c r="F275" s="2">
+        <v>112</v>
+      </c>
+      <c r="G275" s="3">
+        <v>179</v>
+      </c>
+      <c r="H275" s="3">
+        <v>24</v>
+      </c>
+      <c r="I275" s="3">
+        <v>10</v>
+      </c>
+      <c r="J275">
+        <v>5</v>
+      </c>
+      <c r="K275" t="s">
+        <v>39</v>
+      </c>
+      <c r="L275">
+        <v>5</v>
+      </c>
+      <c r="M275" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>3</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D276" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276" t="s">
+        <v>148</v>
+      </c>
+      <c r="F276" s="2">
+        <v>99</v>
+      </c>
+      <c r="G276" s="3">
+        <v>111</v>
+      </c>
+      <c r="H276" s="3">
+        <v>21</v>
+      </c>
+      <c r="I276" s="3">
+        <v>10</v>
+      </c>
+      <c r="J276">
+        <v>5</v>
+      </c>
+      <c r="K276" t="s">
+        <v>39</v>
+      </c>
+      <c r="L276">
+        <v>5</v>
+      </c>
+      <c r="M276" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>4</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D277" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277" t="s">
+        <v>21</v>
+      </c>
+      <c r="F277" s="2">
+        <v>79</v>
+      </c>
+      <c r="G277" s="3">
+        <v>83</v>
+      </c>
+      <c r="H277" s="3">
+        <v>17</v>
+      </c>
+      <c r="I277" s="3">
+        <v>12</v>
+      </c>
+      <c r="J277">
+        <v>5</v>
+      </c>
+      <c r="K277" t="s">
+        <v>39</v>
+      </c>
+      <c r="L277">
+        <v>5</v>
+      </c>
+      <c r="M277" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>5</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D278" t="s">
+        <v>9</v>
+      </c>
+      <c r="E278" t="s">
+        <v>34</v>
+      </c>
+      <c r="F278" s="2">
+        <v>70</v>
+      </c>
+      <c r="G278" s="3">
+        <v>107</v>
+      </c>
+      <c r="H278" s="3">
+        <v>14</v>
+      </c>
+      <c r="I278" s="3">
+        <v>10</v>
+      </c>
+      <c r="J278">
+        <v>5</v>
+      </c>
+      <c r="K278" t="s">
+        <v>39</v>
+      </c>
+      <c r="L278">
+        <v>5</v>
+      </c>
+      <c r="M278" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>6</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D279" t="s">
+        <v>41</v>
+      </c>
+      <c r="E279" t="s">
+        <v>62</v>
+      </c>
+      <c r="F279" s="2">
+        <v>45</v>
+      </c>
+      <c r="G279" s="3">
+        <v>46</v>
+      </c>
+      <c r="H279" s="3">
+        <v>14</v>
+      </c>
+      <c r="I279" s="3">
+        <v>8</v>
+      </c>
+      <c r="J279">
+        <v>5</v>
+      </c>
+      <c r="K279" t="s">
+        <v>39</v>
+      </c>
+      <c r="L279">
+        <v>5</v>
+      </c>
+      <c r="M279" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>7</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D280" t="s">
+        <v>52</v>
+      </c>
+      <c r="E280" t="s">
+        <v>24</v>
+      </c>
+      <c r="F280" s="2">
+        <v>57</v>
+      </c>
+      <c r="G280" s="3">
+        <v>38</v>
+      </c>
+      <c r="H280" s="3">
+        <v>8</v>
+      </c>
+      <c r="I280" s="3">
+        <v>11</v>
+      </c>
+      <c r="J280">
+        <v>5</v>
+      </c>
+      <c r="K280" t="s">
+        <v>39</v>
+      </c>
+      <c r="L280">
+        <v>5</v>
+      </c>
+      <c r="M280" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>8</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D281" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281" t="s">
+        <v>58</v>
+      </c>
+      <c r="F281" s="2">
+        <v>41</v>
+      </c>
+      <c r="G281" s="3">
+        <v>51</v>
+      </c>
+      <c r="H281" s="3">
+        <v>9</v>
+      </c>
+      <c r="I281" s="3">
+        <v>9</v>
+      </c>
+      <c r="J281">
+        <v>5</v>
+      </c>
+      <c r="K281" t="s">
+        <v>39</v>
+      </c>
+      <c r="L281">
+        <v>5</v>
+      </c>
+      <c r="M281" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D282" t="s">
+        <v>11</v>
+      </c>
+      <c r="E282" t="s">
+        <v>148</v>
+      </c>
+      <c r="F282" s="2">
+        <v>97</v>
+      </c>
+      <c r="G282" s="3">
+        <v>194</v>
+      </c>
+      <c r="H282" s="3">
+        <v>23</v>
+      </c>
+      <c r="I282" s="3">
+        <v>5</v>
+      </c>
+      <c r="J282">
+        <v>5</v>
+      </c>
+      <c r="K282" t="s">
+        <v>65</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>2</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D283" t="s">
+        <v>41</v>
+      </c>
+      <c r="E283" t="s">
+        <v>149</v>
+      </c>
+      <c r="F283" s="2">
+        <v>92</v>
+      </c>
+      <c r="G283" s="3">
+        <v>140</v>
+      </c>
+      <c r="H283" s="3">
+        <v>21</v>
+      </c>
+      <c r="I283" s="3">
+        <v>7</v>
+      </c>
+      <c r="J283">
+        <v>5</v>
+      </c>
+      <c r="K283" t="s">
+        <v>65</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>3</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" t="s">
+        <v>13</v>
+      </c>
+      <c r="F284" s="2">
+        <v>96</v>
+      </c>
+      <c r="G284" s="3">
+        <v>100</v>
+      </c>
+      <c r="H284" s="3">
+        <v>14</v>
+      </c>
+      <c r="I284" s="3">
+        <v>12</v>
+      </c>
+      <c r="J284">
+        <v>5</v>
+      </c>
+      <c r="K284" t="s">
+        <v>65</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>4</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D285" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285" t="s">
+        <v>27</v>
+      </c>
+      <c r="F285" s="2">
+        <v>73</v>
+      </c>
+      <c r="G285" s="3">
+        <v>119</v>
+      </c>
+      <c r="H285" s="3">
+        <v>17</v>
+      </c>
+      <c r="I285" s="3">
+        <v>9</v>
+      </c>
+      <c r="J285">
+        <v>5</v>
+      </c>
+      <c r="K285" t="s">
+        <v>65</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>5</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D286" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" t="s">
+        <v>18</v>
+      </c>
+      <c r="F286" s="2">
+        <v>85</v>
+      </c>
+      <c r="G286" s="3">
+        <v>68</v>
+      </c>
+      <c r="H286" s="3">
+        <v>12</v>
+      </c>
+      <c r="I286" s="3">
+        <v>11</v>
+      </c>
+      <c r="J286">
+        <v>5</v>
+      </c>
+      <c r="K286" t="s">
+        <v>65</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>6</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287" t="s">
+        <v>156</v>
+      </c>
+      <c r="F287" s="2">
+        <v>68</v>
+      </c>
+      <c r="G287" s="3">
+        <v>51</v>
+      </c>
+      <c r="H287" s="3">
+        <v>13</v>
+      </c>
+      <c r="I287" s="3">
+        <v>10</v>
+      </c>
+      <c r="J287">
+        <v>5</v>
+      </c>
+      <c r="K287" t="s">
+        <v>65</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>7</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D288" t="s">
+        <v>41</v>
+      </c>
+      <c r="E288" t="s">
+        <v>62</v>
+      </c>
+      <c r="F288" s="2">
+        <v>51</v>
+      </c>
+      <c r="G288" s="3">
+        <v>54</v>
+      </c>
+      <c r="H288" s="3">
+        <v>12</v>
+      </c>
+      <c r="I288" s="3">
+        <v>10</v>
+      </c>
+      <c r="J288">
+        <v>5</v>
+      </c>
+      <c r="K288" t="s">
+        <v>65</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>8</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D289" t="s">
+        <v>41</v>
+      </c>
+      <c r="E289" t="s">
+        <v>62</v>
+      </c>
+      <c r="F289" s="2">
+        <v>61</v>
+      </c>
+      <c r="G289" s="3">
+        <v>48</v>
+      </c>
+      <c r="H289" s="3">
+        <v>9</v>
+      </c>
+      <c r="I289" s="3">
+        <v>12</v>
+      </c>
+      <c r="J289">
+        <v>5</v>
+      </c>
+      <c r="K289" t="s">
+        <v>65</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D290" t="s">
+        <v>6</v>
+      </c>
+      <c r="E290" t="s">
+        <v>18</v>
+      </c>
+      <c r="F290" s="2">
+        <v>147</v>
+      </c>
+      <c r="G290" s="3">
+        <v>194</v>
+      </c>
+      <c r="H290" s="3">
+        <v>25</v>
+      </c>
+      <c r="I290" s="3">
+        <v>7</v>
+      </c>
+      <c r="J290">
+        <v>5</v>
+      </c>
+      <c r="K290" t="s">
+        <v>65</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>2</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D291" t="s">
+        <v>52</v>
+      </c>
+      <c r="E291" t="s">
+        <v>24</v>
+      </c>
+      <c r="F291" s="2">
+        <v>116</v>
+      </c>
+      <c r="G291" s="3">
+        <v>220</v>
+      </c>
+      <c r="H291" s="3">
+        <v>23</v>
+      </c>
+      <c r="I291" s="3">
+        <v>9</v>
+      </c>
+      <c r="J291">
+        <v>5</v>
+      </c>
+      <c r="K291" t="s">
+        <v>65</v>
+      </c>
+      <c r="L291">
+        <v>2</v>
+      </c>
+      <c r="M291" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>3</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D292" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" t="s">
+        <v>172</v>
+      </c>
+      <c r="F292" s="2">
+        <v>98</v>
+      </c>
+      <c r="G292" s="3">
+        <v>127</v>
+      </c>
+      <c r="H292" s="3">
+        <v>21</v>
+      </c>
+      <c r="I292" s="3">
+        <v>10</v>
+      </c>
+      <c r="J292">
+        <v>5</v>
+      </c>
+      <c r="K292" t="s">
+        <v>65</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>4</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D293" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" t="s">
+        <v>21</v>
+      </c>
+      <c r="F293" s="2">
+        <v>98</v>
+      </c>
+      <c r="G293" s="3">
+        <v>127</v>
+      </c>
+      <c r="H293" s="3">
+        <v>21</v>
+      </c>
+      <c r="I293" s="3">
+        <v>10</v>
+      </c>
+      <c r="J293">
+        <v>5</v>
+      </c>
+      <c r="K293" t="s">
+        <v>65</v>
+      </c>
+      <c r="L293">
+        <v>2</v>
+      </c>
+      <c r="M293" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>5</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D294" t="s">
+        <v>41</v>
+      </c>
+      <c r="E294" t="s">
+        <v>62</v>
+      </c>
+      <c r="F294" s="2">
+        <v>69</v>
+      </c>
+      <c r="G294" s="3">
+        <v>90</v>
+      </c>
+      <c r="H294" s="3">
+        <v>16</v>
+      </c>
+      <c r="I294" s="3">
+        <v>10</v>
+      </c>
+      <c r="J294">
+        <v>5</v>
+      </c>
+      <c r="K294" t="s">
+        <v>65</v>
+      </c>
+      <c r="L294">
+        <v>2</v>
+      </c>
+      <c r="M294" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>6</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D295" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" t="s">
+        <v>94</v>
+      </c>
+      <c r="F295" s="2">
+        <v>67</v>
+      </c>
+      <c r="G295" s="3">
+        <v>34</v>
+      </c>
+      <c r="H295" s="3">
+        <v>11</v>
+      </c>
+      <c r="I295" s="3">
+        <v>11</v>
+      </c>
+      <c r="J295">
+        <v>5</v>
+      </c>
+      <c r="K295" t="s">
+        <v>65</v>
+      </c>
+      <c r="L295">
+        <v>2</v>
+      </c>
+      <c r="M295" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>7</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D296" t="s">
+        <v>59</v>
+      </c>
+      <c r="E296" t="s">
+        <v>21</v>
+      </c>
+      <c r="F296" s="2">
+        <v>64</v>
+      </c>
+      <c r="G296" s="3">
+        <v>43</v>
+      </c>
+      <c r="H296" s="3">
+        <v>9</v>
+      </c>
+      <c r="I296" s="3">
+        <v>13</v>
+      </c>
+      <c r="J296">
+        <v>5</v>
+      </c>
+      <c r="K296" t="s">
+        <v>65</v>
+      </c>
+      <c r="L296">
+        <v>2</v>
+      </c>
+      <c r="M296" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>8</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D297" t="s">
+        <v>11</v>
+      </c>
+      <c r="E297" t="s">
+        <v>176</v>
+      </c>
+      <c r="F297" s="2">
+        <v>52</v>
+      </c>
+      <c r="G297" s="3">
+        <v>11</v>
+      </c>
+      <c r="H297" s="3">
+        <v>6</v>
+      </c>
+      <c r="I297" s="3">
+        <v>11</v>
+      </c>
+      <c r="J297">
+        <v>5</v>
+      </c>
+      <c r="K297" t="s">
+        <v>65</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+      <c r="M297" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D298" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>18</v>
+      </c>
+      <c r="F298" s="2">
+        <v>141</v>
+      </c>
+      <c r="G298" s="3">
+        <v>124</v>
+      </c>
+      <c r="H298" s="3">
+        <v>25</v>
+      </c>
+      <c r="I298" s="3">
+        <v>11</v>
+      </c>
+      <c r="J298">
+        <v>5</v>
+      </c>
+      <c r="K298" t="s">
+        <v>65</v>
+      </c>
+      <c r="L298">
+        <v>3</v>
+      </c>
+      <c r="M298" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>2</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D299" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299" t="s">
+        <v>151</v>
+      </c>
+      <c r="F299" s="2">
+        <v>123</v>
+      </c>
+      <c r="G299" s="3">
+        <v>216</v>
+      </c>
+      <c r="H299" s="3">
+        <v>24</v>
+      </c>
+      <c r="I299" s="3">
+        <v>12</v>
+      </c>
+      <c r="J299">
+        <v>5</v>
+      </c>
+      <c r="K299" t="s">
+        <v>65</v>
+      </c>
+      <c r="L299">
+        <v>3</v>
+      </c>
+      <c r="M299" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>3</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D300" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" t="s">
+        <v>58</v>
+      </c>
+      <c r="F300" s="2">
+        <v>126</v>
+      </c>
+      <c r="G300" s="3">
+        <v>180</v>
+      </c>
+      <c r="H300" s="3">
+        <v>23</v>
+      </c>
+      <c r="I300" s="3">
+        <v>8</v>
+      </c>
+      <c r="J300">
+        <v>5</v>
+      </c>
+      <c r="K300" t="s">
+        <v>65</v>
+      </c>
+      <c r="L300">
+        <v>3</v>
+      </c>
+      <c r="M300" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>4</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D301" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301" t="s">
+        <v>27</v>
+      </c>
+      <c r="F301" s="2">
+        <v>77</v>
+      </c>
+      <c r="G301" s="3">
+        <v>149</v>
+      </c>
+      <c r="H301" s="3">
+        <v>18</v>
+      </c>
+      <c r="I301" s="3">
+        <v>8</v>
+      </c>
+      <c r="J301">
+        <v>5</v>
+      </c>
+      <c r="K301" t="s">
+        <v>65</v>
+      </c>
+      <c r="L301">
+        <v>3</v>
+      </c>
+      <c r="M301" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>5</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D302" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" t="s">
+        <v>13</v>
+      </c>
+      <c r="F302" s="2">
+        <v>72</v>
+      </c>
+      <c r="G302" s="3">
+        <v>93</v>
+      </c>
+      <c r="H302" s="3">
+        <v>15</v>
+      </c>
+      <c r="I302" s="3">
+        <v>9</v>
+      </c>
+      <c r="J302">
+        <v>5</v>
+      </c>
+      <c r="K302" t="s">
+        <v>65</v>
+      </c>
+      <c r="L302">
+        <v>3</v>
+      </c>
+      <c r="M302" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>6</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D303" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" t="s">
+        <v>171</v>
+      </c>
+      <c r="F303" s="2">
+        <v>66</v>
+      </c>
+      <c r="G303" s="3">
+        <v>75</v>
+      </c>
+      <c r="H303" s="3">
+        <v>15</v>
+      </c>
+      <c r="I303" s="3">
+        <v>8</v>
+      </c>
+      <c r="J303">
+        <v>5</v>
+      </c>
+      <c r="K303" t="s">
+        <v>65</v>
+      </c>
+      <c r="L303">
+        <v>3</v>
+      </c>
+      <c r="M303" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>7</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D304" t="s">
+        <v>41</v>
+      </c>
+      <c r="E304" t="s">
+        <v>62</v>
+      </c>
+      <c r="F304" s="2">
+        <v>46</v>
+      </c>
+      <c r="G304" s="3">
+        <v>21</v>
+      </c>
+      <c r="H304" s="3">
+        <v>7</v>
+      </c>
+      <c r="I304" s="3">
+        <v>11</v>
+      </c>
+      <c r="J304">
+        <v>5</v>
+      </c>
+      <c r="K304" t="s">
+        <v>65</v>
+      </c>
+      <c r="L304">
+        <v>3</v>
+      </c>
+      <c r="M304" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>8</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D305" t="s">
+        <v>12</v>
+      </c>
+      <c r="E305" t="s">
+        <v>42</v>
+      </c>
+      <c r="F305" s="2">
+        <v>39</v>
+      </c>
+      <c r="G305" s="3">
+        <v>15</v>
+      </c>
+      <c r="H305" s="3">
+        <v>7</v>
+      </c>
+      <c r="I305" s="3">
+        <v>10</v>
+      </c>
+      <c r="J305">
+        <v>5</v>
+      </c>
+      <c r="K305" t="s">
+        <v>65</v>
+      </c>
+      <c r="L305">
+        <v>3</v>
+      </c>
+      <c r="M305" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>1</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D306" t="s">
+        <v>12</v>
+      </c>
+      <c r="E306" t="s">
+        <v>27</v>
+      </c>
+      <c r="F306" s="2">
+        <v>102</v>
+      </c>
+      <c r="G306" s="3">
+        <v>231</v>
+      </c>
+      <c r="H306" s="3">
+        <v>22</v>
+      </c>
+      <c r="I306" s="3">
+        <v>7</v>
+      </c>
+      <c r="J306">
+        <v>5</v>
+      </c>
+      <c r="K306" t="s">
+        <v>65</v>
+      </c>
+      <c r="L306">
+        <v>4</v>
+      </c>
+      <c r="M306" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>2</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D307" t="s">
+        <v>12</v>
+      </c>
+      <c r="E307" t="s">
+        <v>27</v>
+      </c>
+      <c r="F307" s="2">
+        <v>88</v>
+      </c>
+      <c r="G307" s="3">
+        <v>149</v>
+      </c>
+      <c r="H307" s="3">
+        <v>20</v>
+      </c>
+      <c r="I307" s="3">
+        <v>9</v>
+      </c>
+      <c r="J307">
+        <v>5</v>
+      </c>
+      <c r="K307" t="s">
+        <v>65</v>
+      </c>
+      <c r="L307">
+        <v>4</v>
+      </c>
+      <c r="M307" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>3</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D308" t="s">
+        <v>41</v>
+      </c>
+      <c r="E308" t="s">
+        <v>21</v>
+      </c>
+      <c r="F308" s="2">
+        <v>94</v>
+      </c>
+      <c r="G308" s="3">
+        <v>125</v>
+      </c>
+      <c r="H308" s="3">
+        <v>15</v>
+      </c>
+      <c r="I308" s="3">
+        <v>14</v>
+      </c>
+      <c r="J308">
+        <v>5</v>
+      </c>
+      <c r="K308" t="s">
+        <v>65</v>
+      </c>
+      <c r="L308">
+        <v>4</v>
+      </c>
+      <c r="M308" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>4</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D309" t="s">
+        <v>41</v>
+      </c>
+      <c r="E309" t="s">
+        <v>62</v>
+      </c>
+      <c r="F309" s="2">
+        <v>82</v>
+      </c>
+      <c r="G309" s="3">
+        <v>75</v>
+      </c>
+      <c r="H309" s="3">
+        <v>17</v>
+      </c>
+      <c r="I309" s="3">
+        <v>11</v>
+      </c>
+      <c r="J309">
+        <v>5</v>
+      </c>
+      <c r="K309" t="s">
+        <v>65</v>
+      </c>
+      <c r="L309">
+        <v>4</v>
+      </c>
+      <c r="M309" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>5</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D310" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" t="s">
+        <v>18</v>
+      </c>
+      <c r="F310" s="2">
+        <v>86</v>
+      </c>
+      <c r="G310" s="3">
+        <v>94</v>
+      </c>
+      <c r="H310" s="3">
+        <v>15</v>
+      </c>
+      <c r="I310" s="3">
+        <v>12</v>
+      </c>
+      <c r="J310">
+        <v>5</v>
+      </c>
+      <c r="K310" t="s">
+        <v>65</v>
+      </c>
+      <c r="L310">
+        <v>4</v>
+      </c>
+      <c r="M310" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>6</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D311" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" t="s">
+        <v>149</v>
+      </c>
+      <c r="F311" s="2">
+        <v>79</v>
+      </c>
+      <c r="G311" s="3">
+        <v>49</v>
+      </c>
+      <c r="H311" s="3">
+        <v>15</v>
+      </c>
+      <c r="I311" s="3">
+        <v>11</v>
+      </c>
+      <c r="J311">
+        <v>5</v>
+      </c>
+      <c r="K311" t="s">
+        <v>65</v>
+      </c>
+      <c r="L311">
+        <v>4</v>
+      </c>
+      <c r="M311" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>7</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D312" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" t="s">
+        <v>27</v>
+      </c>
+      <c r="F312" s="2">
+        <v>65</v>
+      </c>
+      <c r="G312" s="3">
+        <v>90</v>
+      </c>
+      <c r="H312" s="3">
+        <v>14</v>
+      </c>
+      <c r="I312" s="3">
+        <v>10</v>
+      </c>
+      <c r="J312">
+        <v>5</v>
+      </c>
+      <c r="K312" t="s">
+        <v>65</v>
+      </c>
+      <c r="L312">
+        <v>4</v>
+      </c>
+      <c r="M312" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>8</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D313" t="s">
+        <v>7</v>
+      </c>
+      <c r="E313" t="s">
+        <v>18</v>
+      </c>
+      <c r="F313" s="2">
+        <v>41</v>
+      </c>
+      <c r="G313" s="3">
+        <v>16</v>
+      </c>
+      <c r="H313" s="3">
+        <v>7</v>
+      </c>
+      <c r="I313" s="3">
+        <v>9</v>
+      </c>
+      <c r="J313">
+        <v>5</v>
+      </c>
+      <c r="K313" t="s">
+        <v>65</v>
+      </c>
+      <c r="L313">
+        <v>4</v>
+      </c>
+      <c r="M313" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>1</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D314" t="s">
+        <v>59</v>
+      </c>
+      <c r="E314" t="s">
+        <v>94</v>
+      </c>
+      <c r="F314" s="2">
+        <v>123</v>
+      </c>
+      <c r="G314" s="3">
+        <v>120</v>
+      </c>
+      <c r="H314" s="3">
+        <v>21</v>
+      </c>
+      <c r="I314" s="3">
+        <v>10</v>
+      </c>
+      <c r="J314">
+        <v>5</v>
+      </c>
+      <c r="K314" t="s">
+        <v>65</v>
+      </c>
+      <c r="L314">
+        <v>5</v>
+      </c>
+      <c r="M314" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>2</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D315" t="s">
+        <v>11</v>
+      </c>
+      <c r="E315" t="s">
+        <v>27</v>
+      </c>
+      <c r="F315" s="2">
+        <v>96</v>
+      </c>
+      <c r="G315" s="3">
+        <v>125</v>
+      </c>
+      <c r="H315" s="3">
+        <v>22</v>
+      </c>
+      <c r="I315" s="3">
+        <v>9</v>
+      </c>
+      <c r="J315">
+        <v>5</v>
+      </c>
+      <c r="K315" t="s">
+        <v>65</v>
+      </c>
+      <c r="L315">
+        <v>5</v>
+      </c>
+      <c r="M315" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>3</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D316" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" t="s">
+        <v>21</v>
+      </c>
+      <c r="F316" s="2">
+        <v>99</v>
+      </c>
+      <c r="G316" s="3">
+        <v>151</v>
+      </c>
+      <c r="H316" s="3">
+        <v>20</v>
+      </c>
+      <c r="I316" s="3">
+        <v>11</v>
+      </c>
+      <c r="J316">
+        <v>5</v>
+      </c>
+      <c r="K316" t="s">
+        <v>65</v>
+      </c>
+      <c r="L316">
+        <v>5</v>
+      </c>
+      <c r="M316" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>4</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D317" t="s">
+        <v>12</v>
+      </c>
+      <c r="E317" t="s">
+        <v>178</v>
+      </c>
+      <c r="F317" s="2">
+        <v>102</v>
+      </c>
+      <c r="G317" s="3">
+        <v>141</v>
+      </c>
+      <c r="H317" s="3">
+        <v>19</v>
+      </c>
+      <c r="I317" s="3">
+        <v>9</v>
+      </c>
+      <c r="J317">
+        <v>5</v>
+      </c>
+      <c r="K317" t="s">
+        <v>65</v>
+      </c>
+      <c r="L317">
+        <v>5</v>
+      </c>
+      <c r="M317" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>5</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D318" t="s">
+        <v>12</v>
+      </c>
+      <c r="E318" t="s">
+        <v>58</v>
+      </c>
+      <c r="F318" s="2">
+        <v>63</v>
+      </c>
+      <c r="G318" s="3">
+        <v>124</v>
+      </c>
+      <c r="H318" s="3">
+        <v>15</v>
+      </c>
+      <c r="I318" s="3">
+        <v>8</v>
+      </c>
+      <c r="J318">
+        <v>5</v>
+      </c>
+      <c r="K318" t="s">
+        <v>65</v>
+      </c>
+      <c r="L318">
+        <v>5</v>
+      </c>
+      <c r="M318" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>6</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D319" t="s">
+        <v>9</v>
+      </c>
+      <c r="E319" t="s">
+        <v>176</v>
+      </c>
+      <c r="F319" s="2">
+        <v>75</v>
+      </c>
+      <c r="G319" s="3">
+        <v>78</v>
+      </c>
+      <c r="H319" s="3">
+        <v>12</v>
+      </c>
+      <c r="I319" s="3">
+        <v>10</v>
+      </c>
+      <c r="J319">
+        <v>5</v>
+      </c>
+      <c r="K319" t="s">
+        <v>65</v>
+      </c>
+      <c r="L319">
+        <v>5</v>
+      </c>
+      <c r="M319" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>7</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D320" t="s">
+        <v>41</v>
+      </c>
+      <c r="E320" t="s">
+        <v>156</v>
+      </c>
+      <c r="F320" s="2">
+        <v>46</v>
+      </c>
+      <c r="G320" s="3">
+        <v>42</v>
+      </c>
+      <c r="H320" s="3">
+        <v>10</v>
+      </c>
+      <c r="I320" s="3">
+        <v>9</v>
+      </c>
+      <c r="J320">
+        <v>5</v>
+      </c>
+      <c r="K320" t="s">
+        <v>65</v>
+      </c>
+      <c r="L320">
+        <v>5</v>
+      </c>
+      <c r="M320" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>8</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D321" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321" t="s">
+        <v>21</v>
+      </c>
+      <c r="F321" s="2">
+        <v>48</v>
+      </c>
+      <c r="G321" s="3">
+        <v>12</v>
+      </c>
+      <c r="H321" s="3">
+        <v>6</v>
+      </c>
+      <c r="I321" s="3">
+        <v>11</v>
+      </c>
+      <c r="J321">
+        <v>5</v>
+      </c>
+      <c r="K321" t="s">
+        <v>65</v>
+      </c>
+      <c r="L321">
+        <v>5</v>
+      </c>
+      <c r="M321" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10993,8 +14302,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{C4A33699-B861-4CDE-859A-34709F1ACEE7}">
       <formula1>"魔坦刺,扶桑法刺,扶桑群雄刺,七射,稷下战,法奶,轻战守约,魔种(有天赋),攻辅射,蜀国,弟弟射,魔种(无天赋),九战,攻辅蛋"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{285C689A-B700-4D5B-9BA9-A6E5ACD32491}">
-      <formula1>"魔坦刺,扶桑法刺,扶桑群雄刺,七射,稷下战,法奶,轻战守约,魔种(有天赋),攻辅射,蜀国,弟弟射,魔种(无天赋),九战,攻辅蛋,扶桑法,魏战,扶桑群雄法刺,吴国攻辅射,稷下攻辅射,封神攻辅射,坦法,弟妹法,尧天攻辅射,长城攻辅射"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{E38A29DF-2802-4753-B902-8CC4AF0BB8DA}">
+      <formula1>"魔坦刺,长城战,扶桑刺,扶桑法刺,扶桑群雄刺,弟弟蜀,七射,稷下战,法奶,轻战守约,魔种(有天赋),攻辅射,蜀国,弟弟射,魔种(无天赋),九战,攻辅蛋,扶桑法,魏战,扶桑群雄法刺,吴国攻辅射,稷下攻辅射,封神攻辅射,坦法,弟妹法,尧天攻辅射,长城攻辅射"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\wzmnz_game_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\python\wzmnz_game_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A44F6D-3CD4-4D0E-BFED-C3716CF06788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570A6F69-7CCD-45ED-8CCD-3A9008874000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB48B202-EBC4-4DF3-96AB-433FACB95B1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB48B202-EBC4-4DF3-96AB-433FACB95B1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="188">
   <si>
     <t>阵容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,6 +727,39 @@
   </si>
   <si>
     <t>长城战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稷下战</t>
+  </si>
+  <si>
+    <t>坦刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惜木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尧</t>
+  </si>
+  <si>
+    <t>大肥羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦刺</t>
+  </si>
+  <si>
+    <t>易老湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青争</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,22 +1137,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2E6C9-7049-424A-A14B-939D1CD70783}">
-  <dimension ref="A1:M321"/>
+  <dimension ref="A1:M401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="H299" sqref="H299"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="F392" sqref="F392"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="2"/>
-    <col min="7" max="9" width="8.875" style="3"/>
+    <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="9" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1160,7 +1193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1201,7 +1234,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1242,7 +1275,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1283,7 +1316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1324,7 +1357,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1365,7 +1398,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1406,7 +1439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1447,7 +1480,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1488,7 +1521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1529,7 +1562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1570,7 +1603,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1611,7 +1644,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1652,7 +1685,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1693,7 +1726,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1734,7 +1767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1775,7 +1808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1816,7 +1849,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1857,7 +1890,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1898,7 +1931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1939,7 +1972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1980,7 +2013,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2021,7 +2054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -2062,7 +2095,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -2103,7 +2136,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -2144,7 +2177,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2185,7 +2218,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2226,7 +2259,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2267,7 +2300,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2308,7 +2341,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2349,7 +2382,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2390,7 +2423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2431,7 +2464,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -2472,7 +2505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2513,7 +2546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2554,7 +2587,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2595,7 +2628,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2636,7 +2669,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2677,7 +2710,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -2718,7 +2751,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -2759,7 +2792,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2800,7 +2833,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2841,7 +2874,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2882,7 +2915,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2923,7 +2956,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2964,7 +2997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3005,7 +3038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -3046,7 +3079,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -3087,7 +3120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -3128,7 +3161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3169,7 +3202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -3210,7 +3243,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3251,7 +3284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -3292,7 +3325,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -3333,7 +3366,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -3374,7 +3407,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -3415,7 +3448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>8</v>
       </c>
@@ -3456,7 +3489,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3497,7 +3530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3538,7 +3571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3579,7 +3612,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -3620,7 +3653,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -3661,7 +3694,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -3702,7 +3735,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -3743,7 +3776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -3784,7 +3817,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3825,7 +3858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3866,7 +3899,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3907,7 +3940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -3948,7 +3981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5</v>
       </c>
@@ -3989,7 +4022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6</v>
       </c>
@@ -4030,7 +4063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7</v>
       </c>
@@ -4071,7 +4104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
@@ -4112,7 +4145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -4153,7 +4186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -4194,7 +4227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -4235,7 +4268,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -4276,7 +4309,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -4317,7 +4350,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -4358,7 +4391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
@@ -4399,7 +4432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8</v>
       </c>
@@ -4440,7 +4473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4481,7 +4514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -4522,7 +4555,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -4563,7 +4596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -4604,7 +4637,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5</v>
       </c>
@@ -4645,7 +4678,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -4686,7 +4719,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>7</v>
       </c>
@@ -4727,7 +4760,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8</v>
       </c>
@@ -4768,7 +4801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4809,7 +4842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -4850,7 +4883,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -4891,7 +4924,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -4932,7 +4965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5</v>
       </c>
@@ -4973,7 +5006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6</v>
       </c>
@@ -5014,7 +5047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>7</v>
       </c>
@@ -5055,7 +5088,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>8</v>
       </c>
@@ -5096,7 +5129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -5137,7 +5170,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -5178,7 +5211,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -5219,7 +5252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -5260,7 +5293,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -5301,7 +5334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>6</v>
       </c>
@@ -5342,7 +5375,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7</v>
       </c>
@@ -5383,7 +5416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>8</v>
       </c>
@@ -5424,7 +5457,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -5465,7 +5498,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -5506,7 +5539,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -5547,7 +5580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -5588,7 +5621,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -5629,7 +5662,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>6</v>
       </c>
@@ -5670,7 +5703,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>7</v>
       </c>
@@ -5711,7 +5744,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>8</v>
       </c>
@@ -5752,7 +5785,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -5793,7 +5826,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
@@ -5834,7 +5867,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -5875,7 +5908,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -5916,7 +5949,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -5957,7 +5990,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6</v>
       </c>
@@ -5998,7 +6031,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7</v>
       </c>
@@ -6039,7 +6072,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>8</v>
       </c>
@@ -6080,7 +6113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -6121,7 +6154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -6162,7 +6195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -6203,7 +6236,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -6244,7 +6277,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -6285,7 +6318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6</v>
       </c>
@@ -6326,7 +6359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7</v>
       </c>
@@ -6367,7 +6400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>8</v>
       </c>
@@ -6408,7 +6441,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -6449,7 +6482,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2</v>
       </c>
@@ -6490,7 +6523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -6531,7 +6564,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -6572,7 +6605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5</v>
       </c>
@@ -6613,7 +6646,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -6654,7 +6687,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7</v>
       </c>
@@ -6695,7 +6728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>8</v>
       </c>
@@ -6736,7 +6769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -6777,7 +6810,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2</v>
       </c>
@@ -6818,7 +6851,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -6859,7 +6892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4</v>
       </c>
@@ -6900,7 +6933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5</v>
       </c>
@@ -6941,7 +6974,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
@@ -6982,7 +7015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>7</v>
       </c>
@@ -7023,7 +7056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>8</v>
       </c>
@@ -7064,7 +7097,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -7105,7 +7138,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2</v>
       </c>
@@ -7146,7 +7179,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -7187,7 +7220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -7228,7 +7261,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -7269,7 +7302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -7310,7 +7343,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -7351,7 +7384,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -7392,7 +7425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -7433,7 +7466,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2</v>
       </c>
@@ -7474,7 +7507,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3</v>
       </c>
@@ -7515,7 +7548,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>4</v>
       </c>
@@ -7556,7 +7589,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>5</v>
       </c>
@@ -7597,7 +7630,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6</v>
       </c>
@@ -7638,7 +7671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>7</v>
       </c>
@@ -7679,7 +7712,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>8</v>
       </c>
@@ -7720,7 +7753,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -7761,7 +7794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2</v>
       </c>
@@ -7802,7 +7835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3</v>
       </c>
@@ -7843,7 +7876,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>4</v>
       </c>
@@ -7884,7 +7917,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>5</v>
       </c>
@@ -7925,7 +7958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6</v>
       </c>
@@ -7966,7 +7999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7</v>
       </c>
@@ -8007,7 +8040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>8</v>
       </c>
@@ -8048,7 +8081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -8089,7 +8122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2</v>
       </c>
@@ -8130,7 +8163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3</v>
       </c>
@@ -8171,7 +8204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4</v>
       </c>
@@ -8212,7 +8245,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5</v>
       </c>
@@ -8253,7 +8286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6</v>
       </c>
@@ -8294,7 +8327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7</v>
       </c>
@@ -8335,7 +8368,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8</v>
       </c>
@@ -8376,7 +8409,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -8417,7 +8450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2</v>
       </c>
@@ -8458,7 +8491,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
@@ -8499,7 +8532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4</v>
       </c>
@@ -8540,7 +8573,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5</v>
       </c>
@@ -8581,7 +8614,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>6</v>
       </c>
@@ -8622,7 +8655,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>7</v>
       </c>
@@ -8663,7 +8696,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
@@ -8704,7 +8737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -8745,7 +8778,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2</v>
       </c>
@@ -8786,7 +8819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3</v>
       </c>
@@ -8827,7 +8860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>4</v>
       </c>
@@ -8868,7 +8901,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>5</v>
       </c>
@@ -8909,7 +8942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>6</v>
       </c>
@@ -8950,7 +8983,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>7</v>
       </c>
@@ -8991,7 +9024,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8</v>
       </c>
@@ -9032,7 +9065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -9073,7 +9106,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2</v>
       </c>
@@ -9114,7 +9147,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3</v>
       </c>
@@ -9155,7 +9188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>4</v>
       </c>
@@ -9196,7 +9229,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>5</v>
       </c>
@@ -9237,7 +9270,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>6</v>
       </c>
@@ -9278,7 +9311,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>7</v>
       </c>
@@ -9319,7 +9352,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>8</v>
       </c>
@@ -9360,7 +9393,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -9401,7 +9434,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2</v>
       </c>
@@ -9442,7 +9475,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3</v>
       </c>
@@ -9483,7 +9516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4</v>
       </c>
@@ -9524,7 +9557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>5</v>
       </c>
@@ -9565,7 +9598,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>6</v>
       </c>
@@ -9606,7 +9639,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>7</v>
       </c>
@@ -9647,7 +9680,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>8</v>
       </c>
@@ -9688,7 +9721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -9729,7 +9762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2</v>
       </c>
@@ -9770,7 +9803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>3</v>
       </c>
@@ -9811,7 +9844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4</v>
       </c>
@@ -9852,7 +9885,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>5</v>
       </c>
@@ -9893,7 +9926,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>6</v>
       </c>
@@ -9934,7 +9967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>7</v>
       </c>
@@ -9975,7 +10008,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>8</v>
       </c>
@@ -10016,7 +10049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -10057,7 +10090,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2</v>
       </c>
@@ -10098,7 +10131,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>3</v>
       </c>
@@ -10139,7 +10172,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4</v>
       </c>
@@ -10180,7 +10213,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5</v>
       </c>
@@ -10221,7 +10254,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>6</v>
       </c>
@@ -10262,7 +10295,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>7</v>
       </c>
@@ -10303,7 +10336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>8</v>
       </c>
@@ -10344,7 +10377,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -10385,7 +10418,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2</v>
       </c>
@@ -10426,7 +10459,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>3</v>
       </c>
@@ -10467,7 +10500,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>4</v>
       </c>
@@ -10508,7 +10541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>5</v>
       </c>
@@ -10549,7 +10582,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>6</v>
       </c>
@@ -10590,7 +10623,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>7</v>
       </c>
@@ -10631,7 +10664,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>8</v>
       </c>
@@ -10672,7 +10705,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -10713,7 +10746,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2</v>
       </c>
@@ -10754,7 +10787,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>3</v>
       </c>
@@ -10795,7 +10828,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4</v>
       </c>
@@ -10836,7 +10869,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>5</v>
       </c>
@@ -10877,7 +10910,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>6</v>
       </c>
@@ -10918,7 +10951,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>7</v>
       </c>
@@ -10959,7 +10992,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>8</v>
       </c>
@@ -11000,7 +11033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -11041,7 +11074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2</v>
       </c>
@@ -11082,7 +11115,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>3</v>
       </c>
@@ -11123,7 +11156,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>4</v>
       </c>
@@ -11164,7 +11197,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>5</v>
       </c>
@@ -11205,7 +11238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>6</v>
       </c>
@@ -11246,7 +11279,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>7</v>
       </c>
@@ -11287,7 +11320,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>8</v>
       </c>
@@ -11328,7 +11361,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -11369,7 +11402,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2</v>
       </c>
@@ -11410,7 +11443,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>3</v>
       </c>
@@ -11451,7 +11484,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>4</v>
       </c>
@@ -11492,7 +11525,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>5</v>
       </c>
@@ -11533,7 +11566,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>6</v>
       </c>
@@ -11574,7 +11607,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>7</v>
       </c>
@@ -11615,7 +11648,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>8</v>
       </c>
@@ -11656,7 +11689,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1</v>
       </c>
@@ -11697,7 +11730,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
@@ -11738,7 +11771,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>3</v>
       </c>
@@ -11779,7 +11812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>4</v>
       </c>
@@ -11820,7 +11853,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>5</v>
       </c>
@@ -11861,7 +11894,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>6</v>
       </c>
@@ -11902,7 +11935,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>7</v>
       </c>
@@ -11943,7 +11976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>8</v>
       </c>
@@ -11984,7 +12017,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
@@ -12025,7 +12058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2</v>
       </c>
@@ -12066,7 +12099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>3</v>
       </c>
@@ -12107,7 +12140,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>4</v>
       </c>
@@ -12148,7 +12181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>5</v>
       </c>
@@ -12189,7 +12222,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>6</v>
       </c>
@@ -12230,7 +12263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>7</v>
       </c>
@@ -12271,7 +12304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>8</v>
       </c>
@@ -12312,7 +12345,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1</v>
       </c>
@@ -12353,7 +12386,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2</v>
       </c>
@@ -12394,7 +12427,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>3</v>
       </c>
@@ -12435,7 +12468,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>4</v>
       </c>
@@ -12476,7 +12509,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>5</v>
       </c>
@@ -12517,7 +12550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>6</v>
       </c>
@@ -12558,7 +12591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>7</v>
       </c>
@@ -12599,7 +12632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>8</v>
       </c>
@@ -12640,7 +12673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1</v>
       </c>
@@ -12681,7 +12714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
@@ -12722,7 +12755,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3</v>
       </c>
@@ -12763,7 +12796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>4</v>
       </c>
@@ -12804,7 +12837,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>5</v>
       </c>
@@ -12845,7 +12878,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>6</v>
       </c>
@@ -12886,7 +12919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>7</v>
       </c>
@@ -12927,7 +12960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>8</v>
       </c>
@@ -12968,7 +13001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1</v>
       </c>
@@ -13009,7 +13042,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2</v>
       </c>
@@ -13050,7 +13083,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>3</v>
       </c>
@@ -13091,7 +13124,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4</v>
       </c>
@@ -13132,7 +13165,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>5</v>
       </c>
@@ -13173,7 +13206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6</v>
       </c>
@@ -13214,7 +13247,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>7</v>
       </c>
@@ -13255,7 +13288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>8</v>
       </c>
@@ -13296,7 +13329,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1</v>
       </c>
@@ -13337,7 +13370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -13378,7 +13411,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>3</v>
       </c>
@@ -13419,7 +13452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>4</v>
       </c>
@@ -13460,7 +13493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>5</v>
       </c>
@@ -13501,7 +13534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>6</v>
       </c>
@@ -13542,7 +13575,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>7</v>
       </c>
@@ -13583,7 +13616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>8</v>
       </c>
@@ -13624,7 +13657,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1</v>
       </c>
@@ -13665,7 +13698,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -13706,7 +13739,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>3</v>
       </c>
@@ -13747,7 +13780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>4</v>
       </c>
@@ -13788,7 +13821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>5</v>
       </c>
@@ -13829,7 +13862,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>6</v>
       </c>
@@ -13870,7 +13903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>7</v>
       </c>
@@ -13911,7 +13944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>8</v>
       </c>
@@ -13952,7 +13985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1</v>
       </c>
@@ -13993,7 +14026,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2</v>
       </c>
@@ -14034,7 +14067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>3</v>
       </c>
@@ -14075,7 +14108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>4</v>
       </c>
@@ -14116,7 +14149,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>5</v>
       </c>
@@ -14157,7 +14190,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6</v>
       </c>
@@ -14198,7 +14231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>7</v>
       </c>
@@ -14239,7 +14272,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8</v>
       </c>
@@ -14277,6 +14310,3286 @@
         <v>5</v>
       </c>
       <c r="M321" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D322" t="s">
+        <v>12</v>
+      </c>
+      <c r="E322" t="s">
+        <v>46</v>
+      </c>
+      <c r="F322" s="2">
+        <v>102</v>
+      </c>
+      <c r="G322" s="3">
+        <v>134</v>
+      </c>
+      <c r="H322" s="3">
+        <v>28</v>
+      </c>
+      <c r="I322" s="3">
+        <v>5</v>
+      </c>
+      <c r="J322">
+        <v>5</v>
+      </c>
+      <c r="K322" t="s">
+        <v>104</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+      <c r="M322" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D323" t="s">
+        <v>12</v>
+      </c>
+      <c r="E323" t="s">
+        <v>27</v>
+      </c>
+      <c r="F323" s="2">
+        <v>96</v>
+      </c>
+      <c r="G323" s="3">
+        <v>140</v>
+      </c>
+      <c r="H323" s="3">
+        <v>21</v>
+      </c>
+      <c r="I323" s="3">
+        <v>12</v>
+      </c>
+      <c r="J323">
+        <v>5</v>
+      </c>
+      <c r="K323" t="s">
+        <v>104</v>
+      </c>
+      <c r="L323">
+        <v>1</v>
+      </c>
+      <c r="M323" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>3</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D324" t="s">
+        <v>40</v>
+      </c>
+      <c r="E324" t="s">
+        <v>62</v>
+      </c>
+      <c r="F324" s="2">
+        <v>80</v>
+      </c>
+      <c r="G324" s="3">
+        <v>108</v>
+      </c>
+      <c r="H324" s="3">
+        <v>20</v>
+      </c>
+      <c r="I324" s="3">
+        <v>12</v>
+      </c>
+      <c r="J324">
+        <v>5</v>
+      </c>
+      <c r="K324" t="s">
+        <v>104</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+      <c r="M324" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>4</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D325" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325" t="s">
+        <v>21</v>
+      </c>
+      <c r="F325" s="2">
+        <v>143</v>
+      </c>
+      <c r="G325" s="3">
+        <v>136</v>
+      </c>
+      <c r="H325" s="3">
+        <v>21</v>
+      </c>
+      <c r="I325" s="3">
+        <v>10</v>
+      </c>
+      <c r="J325">
+        <v>5</v>
+      </c>
+      <c r="K325" t="s">
+        <v>104</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
+      <c r="M325" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>5</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D326" t="s">
+        <v>9</v>
+      </c>
+      <c r="E326" t="s">
+        <v>34</v>
+      </c>
+      <c r="F326" s="2">
+        <v>90</v>
+      </c>
+      <c r="G326" s="3">
+        <v>89</v>
+      </c>
+      <c r="H326" s="3">
+        <v>14</v>
+      </c>
+      <c r="I326" s="3">
+        <v>14</v>
+      </c>
+      <c r="J326">
+        <v>5</v>
+      </c>
+      <c r="K326" t="s">
+        <v>104</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+      <c r="M326" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>6</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D327" t="s">
+        <v>7</v>
+      </c>
+      <c r="E327" t="s">
+        <v>180</v>
+      </c>
+      <c r="F327" s="2">
+        <v>98</v>
+      </c>
+      <c r="G327" s="3">
+        <v>89</v>
+      </c>
+      <c r="H327" s="3">
+        <v>14</v>
+      </c>
+      <c r="I327" s="3">
+        <v>10</v>
+      </c>
+      <c r="J327">
+        <v>5</v>
+      </c>
+      <c r="K327" t="s">
+        <v>104</v>
+      </c>
+      <c r="L327">
+        <v>1</v>
+      </c>
+      <c r="M327" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>7</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D328" t="s">
+        <v>11</v>
+      </c>
+      <c r="E328" t="s">
+        <v>24</v>
+      </c>
+      <c r="F328" s="2">
+        <v>78</v>
+      </c>
+      <c r="G328" s="3">
+        <v>70</v>
+      </c>
+      <c r="H328" s="3">
+        <v>10</v>
+      </c>
+      <c r="I328" s="3">
+        <v>11</v>
+      </c>
+      <c r="J328">
+        <v>5</v>
+      </c>
+      <c r="K328" t="s">
+        <v>104</v>
+      </c>
+      <c r="L328">
+        <v>1</v>
+      </c>
+      <c r="M328" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>8</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D329" t="s">
+        <v>12</v>
+      </c>
+      <c r="E329" t="s">
+        <v>64</v>
+      </c>
+      <c r="F329" s="2">
+        <v>35</v>
+      </c>
+      <c r="G329" s="3">
+        <v>41</v>
+      </c>
+      <c r="H329" s="3">
+        <v>8</v>
+      </c>
+      <c r="I329" s="3">
+        <v>9</v>
+      </c>
+      <c r="J329">
+        <v>5</v>
+      </c>
+      <c r="K329" t="s">
+        <v>104</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
+      <c r="M329" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D330" t="s">
+        <v>9</v>
+      </c>
+      <c r="E330" t="s">
+        <v>172</v>
+      </c>
+      <c r="F330" s="2">
+        <v>77</v>
+      </c>
+      <c r="G330" s="3">
+        <v>296</v>
+      </c>
+      <c r="H330" s="3">
+        <v>24</v>
+      </c>
+      <c r="I330" s="3">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>5</v>
+      </c>
+      <c r="K330" t="s">
+        <v>104</v>
+      </c>
+      <c r="L330">
+        <v>2</v>
+      </c>
+      <c r="M330" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D331" t="s">
+        <v>11</v>
+      </c>
+      <c r="E331" t="s">
+        <v>27</v>
+      </c>
+      <c r="F331" s="2">
+        <v>82</v>
+      </c>
+      <c r="G331" s="3">
+        <v>87</v>
+      </c>
+      <c r="H331" s="3">
+        <v>14</v>
+      </c>
+      <c r="I331" s="3">
+        <v>10</v>
+      </c>
+      <c r="J331">
+        <v>5</v>
+      </c>
+      <c r="K331" t="s">
+        <v>104</v>
+      </c>
+      <c r="L331">
+        <v>2</v>
+      </c>
+      <c r="M331" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>3</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D332" t="s">
+        <v>12</v>
+      </c>
+      <c r="E332" t="s">
+        <v>27</v>
+      </c>
+      <c r="F332" s="2">
+        <v>54</v>
+      </c>
+      <c r="G332" s="3">
+        <v>74</v>
+      </c>
+      <c r="H332" s="3">
+        <v>14</v>
+      </c>
+      <c r="I332" s="3">
+        <v>8</v>
+      </c>
+      <c r="J332">
+        <v>5</v>
+      </c>
+      <c r="K332" t="s">
+        <v>104</v>
+      </c>
+      <c r="L332">
+        <v>2</v>
+      </c>
+      <c r="M332" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>4</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D333" t="s">
+        <v>41</v>
+      </c>
+      <c r="E333" t="s">
+        <v>62</v>
+      </c>
+      <c r="F333" s="2">
+        <v>44</v>
+      </c>
+      <c r="G333" s="3">
+        <v>49</v>
+      </c>
+      <c r="H333" s="3">
+        <v>12</v>
+      </c>
+      <c r="I333" s="3">
+        <v>10</v>
+      </c>
+      <c r="J333">
+        <v>5</v>
+      </c>
+      <c r="K333" t="s">
+        <v>104</v>
+      </c>
+      <c r="L333">
+        <v>2</v>
+      </c>
+      <c r="M333" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>5</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D334" t="s">
+        <v>12</v>
+      </c>
+      <c r="E334" t="s">
+        <v>179</v>
+      </c>
+      <c r="F334" s="2">
+        <v>42</v>
+      </c>
+      <c r="G334" s="3">
+        <v>62</v>
+      </c>
+      <c r="H334" s="3">
+        <v>13</v>
+      </c>
+      <c r="I334" s="3">
+        <v>8</v>
+      </c>
+      <c r="J334">
+        <v>5</v>
+      </c>
+      <c r="K334" t="s">
+        <v>104</v>
+      </c>
+      <c r="L334">
+        <v>2</v>
+      </c>
+      <c r="M334" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>6</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D335" t="s">
+        <v>41</v>
+      </c>
+      <c r="E335" t="s">
+        <v>149</v>
+      </c>
+      <c r="F335" s="2">
+        <v>77</v>
+      </c>
+      <c r="G335" s="3">
+        <v>64</v>
+      </c>
+      <c r="H335" s="3">
+        <v>12</v>
+      </c>
+      <c r="I335" s="3">
+        <v>9</v>
+      </c>
+      <c r="J335">
+        <v>5</v>
+      </c>
+      <c r="K335" t="s">
+        <v>104</v>
+      </c>
+      <c r="L335">
+        <v>2</v>
+      </c>
+      <c r="M335" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>7</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D336" t="s">
+        <v>7</v>
+      </c>
+      <c r="E336" t="s">
+        <v>46</v>
+      </c>
+      <c r="F336" s="2">
+        <v>41</v>
+      </c>
+      <c r="G336" s="3">
+        <v>54</v>
+      </c>
+      <c r="H336" s="3">
+        <v>10</v>
+      </c>
+      <c r="I336" s="3">
+        <v>9</v>
+      </c>
+      <c r="J336">
+        <v>5</v>
+      </c>
+      <c r="K336" t="s">
+        <v>104</v>
+      </c>
+      <c r="L336">
+        <v>2</v>
+      </c>
+      <c r="M336" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>8</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D337" t="s">
+        <v>11</v>
+      </c>
+      <c r="E337" t="s">
+        <v>21</v>
+      </c>
+      <c r="F337" s="2">
+        <v>56</v>
+      </c>
+      <c r="G337" s="3">
+        <v>21</v>
+      </c>
+      <c r="H337" s="3">
+        <v>6</v>
+      </c>
+      <c r="I337" s="3">
+        <v>12</v>
+      </c>
+      <c r="J337">
+        <v>5</v>
+      </c>
+      <c r="K337" t="s">
+        <v>104</v>
+      </c>
+      <c r="L337">
+        <v>2</v>
+      </c>
+      <c r="M337" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D338" t="s">
+        <v>9</v>
+      </c>
+      <c r="E338" t="s">
+        <v>18</v>
+      </c>
+      <c r="F338" s="2">
+        <v>132</v>
+      </c>
+      <c r="G338" s="3">
+        <v>178</v>
+      </c>
+      <c r="H338" s="3">
+        <v>22</v>
+      </c>
+      <c r="I338" s="3">
+        <v>7</v>
+      </c>
+      <c r="J338">
+        <v>5</v>
+      </c>
+      <c r="K338" t="s">
+        <v>104</v>
+      </c>
+      <c r="L338">
+        <v>3</v>
+      </c>
+      <c r="M338" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D339" t="s">
+        <v>11</v>
+      </c>
+      <c r="E339" t="s">
+        <v>180</v>
+      </c>
+      <c r="F339" s="2">
+        <v>90</v>
+      </c>
+      <c r="G339" s="3">
+        <v>118</v>
+      </c>
+      <c r="H339" s="3">
+        <v>19</v>
+      </c>
+      <c r="I339" s="3">
+        <v>10</v>
+      </c>
+      <c r="J339">
+        <v>5</v>
+      </c>
+      <c r="K339" t="s">
+        <v>104</v>
+      </c>
+      <c r="L339">
+        <v>3</v>
+      </c>
+      <c r="M339" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>3</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D340" t="s">
+        <v>12</v>
+      </c>
+      <c r="E340" t="s">
+        <v>58</v>
+      </c>
+      <c r="F340" s="2">
+        <v>105</v>
+      </c>
+      <c r="G340" s="3">
+        <v>149</v>
+      </c>
+      <c r="H340" s="3">
+        <v>21</v>
+      </c>
+      <c r="I340" s="3">
+        <v>7</v>
+      </c>
+      <c r="J340">
+        <v>5</v>
+      </c>
+      <c r="K340" t="s">
+        <v>104</v>
+      </c>
+      <c r="L340">
+        <v>3</v>
+      </c>
+      <c r="M340" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>4</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D341" t="s">
+        <v>12</v>
+      </c>
+      <c r="E341" t="s">
+        <v>27</v>
+      </c>
+      <c r="F341" s="2">
+        <v>88</v>
+      </c>
+      <c r="G341" s="3">
+        <v>87</v>
+      </c>
+      <c r="H341" s="3">
+        <v>14</v>
+      </c>
+      <c r="I341" s="3">
+        <v>12</v>
+      </c>
+      <c r="J341">
+        <v>5</v>
+      </c>
+      <c r="K341" t="s">
+        <v>104</v>
+      </c>
+      <c r="L341">
+        <v>3</v>
+      </c>
+      <c r="M341" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>5</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D342" t="s">
+        <v>41</v>
+      </c>
+      <c r="E342" t="s">
+        <v>62</v>
+      </c>
+      <c r="F342" s="2">
+        <v>77</v>
+      </c>
+      <c r="G342" s="3">
+        <v>96</v>
+      </c>
+      <c r="H342" s="3">
+        <v>16</v>
+      </c>
+      <c r="I342" s="3">
+        <v>10</v>
+      </c>
+      <c r="J342">
+        <v>5</v>
+      </c>
+      <c r="K342" t="s">
+        <v>104</v>
+      </c>
+      <c r="L342">
+        <v>3</v>
+      </c>
+      <c r="M342" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>6</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D343" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343" t="s">
+        <v>21</v>
+      </c>
+      <c r="F343" s="2">
+        <v>56</v>
+      </c>
+      <c r="G343" s="3">
+        <v>38</v>
+      </c>
+      <c r="H343" s="3">
+        <v>10</v>
+      </c>
+      <c r="I343" s="3">
+        <v>12</v>
+      </c>
+      <c r="J343">
+        <v>5</v>
+      </c>
+      <c r="K343" t="s">
+        <v>104</v>
+      </c>
+      <c r="L343">
+        <v>3</v>
+      </c>
+      <c r="M343" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>7</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D344" t="s">
+        <v>7</v>
+      </c>
+      <c r="E344" t="s">
+        <v>18</v>
+      </c>
+      <c r="F344" s="2">
+        <v>63</v>
+      </c>
+      <c r="G344" s="3">
+        <v>53</v>
+      </c>
+      <c r="H344" s="3">
+        <v>11</v>
+      </c>
+      <c r="I344" s="3">
+        <v>11</v>
+      </c>
+      <c r="J344">
+        <v>5</v>
+      </c>
+      <c r="K344" t="s">
+        <v>104</v>
+      </c>
+      <c r="L344">
+        <v>3</v>
+      </c>
+      <c r="M344" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>8</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D345" t="s">
+        <v>12</v>
+      </c>
+      <c r="E345" t="s">
+        <v>58</v>
+      </c>
+      <c r="F345" s="2">
+        <v>45</v>
+      </c>
+      <c r="G345" s="3">
+        <v>48</v>
+      </c>
+      <c r="H345" s="3">
+        <v>13</v>
+      </c>
+      <c r="I345" s="3">
+        <v>8</v>
+      </c>
+      <c r="J345">
+        <v>5</v>
+      </c>
+      <c r="K345" t="s">
+        <v>104</v>
+      </c>
+      <c r="L345">
+        <v>3</v>
+      </c>
+      <c r="M345" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D346" t="s">
+        <v>183</v>
+      </c>
+      <c r="E346" t="s">
+        <v>182</v>
+      </c>
+      <c r="F346" s="2">
+        <v>87</v>
+      </c>
+      <c r="G346" s="3">
+        <v>106</v>
+      </c>
+      <c r="H346" s="3">
+        <v>18</v>
+      </c>
+      <c r="I346" s="3">
+        <v>10</v>
+      </c>
+      <c r="J346">
+        <v>5</v>
+      </c>
+      <c r="K346" t="s">
+        <v>104</v>
+      </c>
+      <c r="L346">
+        <v>4</v>
+      </c>
+      <c r="M346" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D347" t="s">
+        <v>11</v>
+      </c>
+      <c r="E347" t="s">
+        <v>27</v>
+      </c>
+      <c r="F347" s="2">
+        <v>83</v>
+      </c>
+      <c r="G347" s="3">
+        <v>103</v>
+      </c>
+      <c r="H347" s="3">
+        <v>20</v>
+      </c>
+      <c r="I347" s="3">
+        <v>8</v>
+      </c>
+      <c r="J347">
+        <v>5</v>
+      </c>
+      <c r="K347" t="s">
+        <v>104</v>
+      </c>
+      <c r="L347">
+        <v>4</v>
+      </c>
+      <c r="M347" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>3</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D348" t="s">
+        <v>41</v>
+      </c>
+      <c r="E348" t="s">
+        <v>62</v>
+      </c>
+      <c r="F348" s="2">
+        <v>74</v>
+      </c>
+      <c r="G348" s="3">
+        <v>106</v>
+      </c>
+      <c r="H348" s="3">
+        <v>19</v>
+      </c>
+      <c r="I348" s="3">
+        <v>8</v>
+      </c>
+      <c r="J348">
+        <v>5</v>
+      </c>
+      <c r="K348" t="s">
+        <v>104</v>
+      </c>
+      <c r="L348">
+        <v>4</v>
+      </c>
+      <c r="M348" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>4</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D349" t="s">
+        <v>9</v>
+      </c>
+      <c r="E349" t="s">
+        <v>148</v>
+      </c>
+      <c r="F349" s="2">
+        <v>98</v>
+      </c>
+      <c r="G349" s="3">
+        <v>147</v>
+      </c>
+      <c r="H349" s="3">
+        <v>18</v>
+      </c>
+      <c r="I349" s="3">
+        <v>9</v>
+      </c>
+      <c r="J349">
+        <v>5</v>
+      </c>
+      <c r="K349" t="s">
+        <v>104</v>
+      </c>
+      <c r="L349">
+        <v>4</v>
+      </c>
+      <c r="M349" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>5</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D350" t="s">
+        <v>52</v>
+      </c>
+      <c r="E350" t="s">
+        <v>24</v>
+      </c>
+      <c r="F350" s="2">
+        <v>78</v>
+      </c>
+      <c r="G350" s="3">
+        <v>113</v>
+      </c>
+      <c r="H350" s="3">
+        <v>13</v>
+      </c>
+      <c r="I350" s="3">
+        <v>11</v>
+      </c>
+      <c r="J350">
+        <v>5</v>
+      </c>
+      <c r="K350" t="s">
+        <v>104</v>
+      </c>
+      <c r="L350">
+        <v>4</v>
+      </c>
+      <c r="M350" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>6</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D351" t="s">
+        <v>41</v>
+      </c>
+      <c r="E351" t="s">
+        <v>27</v>
+      </c>
+      <c r="F351" s="2">
+        <v>70</v>
+      </c>
+      <c r="G351" s="3">
+        <v>71</v>
+      </c>
+      <c r="H351" s="3">
+        <v>14</v>
+      </c>
+      <c r="I351" s="3">
+        <v>9</v>
+      </c>
+      <c r="J351">
+        <v>5</v>
+      </c>
+      <c r="K351" t="s">
+        <v>104</v>
+      </c>
+      <c r="L351">
+        <v>4</v>
+      </c>
+      <c r="M351" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>7</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D352" t="s">
+        <v>52</v>
+      </c>
+      <c r="E352" t="s">
+        <v>27</v>
+      </c>
+      <c r="F352" s="2">
+        <v>67</v>
+      </c>
+      <c r="G352" s="3">
+        <v>111</v>
+      </c>
+      <c r="H352" s="3">
+        <v>13</v>
+      </c>
+      <c r="I352" s="3">
+        <v>10</v>
+      </c>
+      <c r="J352">
+        <v>5</v>
+      </c>
+      <c r="K352" t="s">
+        <v>104</v>
+      </c>
+      <c r="L352">
+        <v>4</v>
+      </c>
+      <c r="M352" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>8</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D353" t="s">
+        <v>7</v>
+      </c>
+      <c r="E353" t="s">
+        <v>18</v>
+      </c>
+      <c r="F353" s="2">
+        <v>78</v>
+      </c>
+      <c r="G353" s="3">
+        <v>52</v>
+      </c>
+      <c r="H353" s="3">
+        <v>10</v>
+      </c>
+      <c r="I353" s="3">
+        <v>12</v>
+      </c>
+      <c r="J353">
+        <v>5</v>
+      </c>
+      <c r="K353" t="s">
+        <v>104</v>
+      </c>
+      <c r="L353">
+        <v>4</v>
+      </c>
+      <c r="M353" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D354" t="s">
+        <v>41</v>
+      </c>
+      <c r="E354" t="s">
+        <v>62</v>
+      </c>
+      <c r="F354" s="2">
+        <v>114</v>
+      </c>
+      <c r="G354" s="3">
+        <v>163</v>
+      </c>
+      <c r="H354" s="3">
+        <v>26</v>
+      </c>
+      <c r="I354" s="3">
+        <v>10</v>
+      </c>
+      <c r="J354">
+        <v>5</v>
+      </c>
+      <c r="K354" t="s">
+        <v>104</v>
+      </c>
+      <c r="L354">
+        <v>5</v>
+      </c>
+      <c r="M354" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D355" t="s">
+        <v>59</v>
+      </c>
+      <c r="E355" t="s">
+        <v>27</v>
+      </c>
+      <c r="F355" s="2">
+        <v>132</v>
+      </c>
+      <c r="G355" s="3">
+        <v>223</v>
+      </c>
+      <c r="H355" s="3">
+        <v>26</v>
+      </c>
+      <c r="I355" s="3">
+        <v>10</v>
+      </c>
+      <c r="J355">
+        <v>5</v>
+      </c>
+      <c r="K355" t="s">
+        <v>104</v>
+      </c>
+      <c r="L355">
+        <v>5</v>
+      </c>
+      <c r="M355" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>3</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D356" t="s">
+        <v>59</v>
+      </c>
+      <c r="E356" t="s">
+        <v>27</v>
+      </c>
+      <c r="F356" s="2">
+        <v>87</v>
+      </c>
+      <c r="G356" s="3">
+        <v>162</v>
+      </c>
+      <c r="H356" s="3">
+        <v>18</v>
+      </c>
+      <c r="I356" s="3">
+        <v>10</v>
+      </c>
+      <c r="J356">
+        <v>5</v>
+      </c>
+      <c r="K356" t="s">
+        <v>104</v>
+      </c>
+      <c r="L356">
+        <v>5</v>
+      </c>
+      <c r="M356" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>4</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D357" t="s">
+        <v>7</v>
+      </c>
+      <c r="E357" t="s">
+        <v>148</v>
+      </c>
+      <c r="F357" s="2">
+        <v>89</v>
+      </c>
+      <c r="G357" s="3">
+        <v>80</v>
+      </c>
+      <c r="H357" s="3">
+        <v>16</v>
+      </c>
+      <c r="I357" s="3">
+        <v>8</v>
+      </c>
+      <c r="J357">
+        <v>5</v>
+      </c>
+      <c r="K357" t="s">
+        <v>104</v>
+      </c>
+      <c r="L357">
+        <v>5</v>
+      </c>
+      <c r="M357" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>5</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D358" t="s">
+        <v>11</v>
+      </c>
+      <c r="E358" t="s">
+        <v>21</v>
+      </c>
+      <c r="F358" s="2">
+        <v>74</v>
+      </c>
+      <c r="G358" s="3">
+        <v>47</v>
+      </c>
+      <c r="H358" s="3">
+        <v>11</v>
+      </c>
+      <c r="I358" s="3">
+        <v>12</v>
+      </c>
+      <c r="J358">
+        <v>5</v>
+      </c>
+      <c r="K358" t="s">
+        <v>104</v>
+      </c>
+      <c r="L358">
+        <v>5</v>
+      </c>
+      <c r="M358" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>6</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D359" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359" t="s">
+        <v>18</v>
+      </c>
+      <c r="F359" s="2">
+        <v>86</v>
+      </c>
+      <c r="G359" s="3">
+        <v>40</v>
+      </c>
+      <c r="H359" s="3">
+        <v>9</v>
+      </c>
+      <c r="I359" s="3">
+        <v>12</v>
+      </c>
+      <c r="J359">
+        <v>5</v>
+      </c>
+      <c r="K359" t="s">
+        <v>104</v>
+      </c>
+      <c r="L359">
+        <v>5</v>
+      </c>
+      <c r="M359" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>7</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D360" t="s">
+        <v>41</v>
+      </c>
+      <c r="E360" t="s">
+        <v>167</v>
+      </c>
+      <c r="F360" s="2">
+        <v>86</v>
+      </c>
+      <c r="G360" s="3">
+        <v>41</v>
+      </c>
+      <c r="H360" s="3">
+        <v>10</v>
+      </c>
+      <c r="I360" s="3">
+        <v>11</v>
+      </c>
+      <c r="J360">
+        <v>5</v>
+      </c>
+      <c r="K360" t="s">
+        <v>104</v>
+      </c>
+      <c r="L360">
+        <v>5</v>
+      </c>
+      <c r="M360" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>8</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D361" t="s">
+        <v>9</v>
+      </c>
+      <c r="E361" t="s">
+        <v>21</v>
+      </c>
+      <c r="F361" s="2">
+        <v>41</v>
+      </c>
+      <c r="G361" s="3">
+        <v>45</v>
+      </c>
+      <c r="H361" s="3">
+        <v>11</v>
+      </c>
+      <c r="I361" s="3">
+        <v>8</v>
+      </c>
+      <c r="J361">
+        <v>5</v>
+      </c>
+      <c r="K361" t="s">
+        <v>104</v>
+      </c>
+      <c r="L361">
+        <v>5</v>
+      </c>
+      <c r="M361" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>1</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D362" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362" t="s">
+        <v>185</v>
+      </c>
+      <c r="F362" s="2">
+        <v>110</v>
+      </c>
+      <c r="G362" s="3">
+        <v>155</v>
+      </c>
+      <c r="H362" s="3">
+        <v>25</v>
+      </c>
+      <c r="I362" s="3">
+        <v>9</v>
+      </c>
+      <c r="J362">
+        <v>6</v>
+      </c>
+      <c r="K362" t="s">
+        <v>38</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>2</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D363" t="s">
+        <v>9</v>
+      </c>
+      <c r="E363" t="s">
+        <v>172</v>
+      </c>
+      <c r="F363" s="2">
+        <v>102</v>
+      </c>
+      <c r="G363" s="3">
+        <v>180</v>
+      </c>
+      <c r="H363" s="3">
+        <v>26</v>
+      </c>
+      <c r="I363" s="3">
+        <v>8</v>
+      </c>
+      <c r="J363">
+        <v>6</v>
+      </c>
+      <c r="K363" t="s">
+        <v>39</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
+      </c>
+      <c r="M363" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>3</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D364" t="s">
+        <v>7</v>
+      </c>
+      <c r="E364" t="s">
+        <v>13</v>
+      </c>
+      <c r="F364" s="2">
+        <v>87</v>
+      </c>
+      <c r="G364" s="3">
+        <v>104</v>
+      </c>
+      <c r="H364" s="3">
+        <v>13</v>
+      </c>
+      <c r="I364" s="3">
+        <v>14</v>
+      </c>
+      <c r="J364">
+        <v>6</v>
+      </c>
+      <c r="K364" t="s">
+        <v>39</v>
+      </c>
+      <c r="L364">
+        <v>1</v>
+      </c>
+      <c r="M364" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>4</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D365" t="s">
+        <v>12</v>
+      </c>
+      <c r="E365" t="s">
+        <v>58</v>
+      </c>
+      <c r="F365" s="2">
+        <v>63</v>
+      </c>
+      <c r="G365" s="3">
+        <v>113</v>
+      </c>
+      <c r="H365" s="3">
+        <v>14</v>
+      </c>
+      <c r="I365" s="3">
+        <v>10</v>
+      </c>
+      <c r="J365">
+        <v>6</v>
+      </c>
+      <c r="K365" t="s">
+        <v>39</v>
+      </c>
+      <c r="L365">
+        <v>1</v>
+      </c>
+      <c r="M365" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>5</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D366" t="s">
+        <v>41</v>
+      </c>
+      <c r="E366" t="s">
+        <v>62</v>
+      </c>
+      <c r="F366" s="2">
+        <v>55</v>
+      </c>
+      <c r="G366" s="3">
+        <v>83</v>
+      </c>
+      <c r="H366" s="3">
+        <v>14</v>
+      </c>
+      <c r="I366" s="3">
+        <v>10</v>
+      </c>
+      <c r="J366">
+        <v>6</v>
+      </c>
+      <c r="K366" t="s">
+        <v>39</v>
+      </c>
+      <c r="L366">
+        <v>1</v>
+      </c>
+      <c r="M366" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>6</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D367" t="s">
+        <v>12</v>
+      </c>
+      <c r="E367" t="s">
+        <v>27</v>
+      </c>
+      <c r="F367" s="2">
+        <v>68</v>
+      </c>
+      <c r="G367" s="3">
+        <v>59</v>
+      </c>
+      <c r="H367" s="3">
+        <v>11</v>
+      </c>
+      <c r="I367" s="3">
+        <v>11</v>
+      </c>
+      <c r="J367">
+        <v>6</v>
+      </c>
+      <c r="K367" t="s">
+        <v>39</v>
+      </c>
+      <c r="L367">
+        <v>1</v>
+      </c>
+      <c r="M367" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>7</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D368" t="s">
+        <v>7</v>
+      </c>
+      <c r="E368" t="s">
+        <v>21</v>
+      </c>
+      <c r="F368" s="2">
+        <v>45</v>
+      </c>
+      <c r="G368" s="3">
+        <v>59</v>
+      </c>
+      <c r="H368" s="3">
+        <v>12</v>
+      </c>
+      <c r="I368" s="3">
+        <v>7</v>
+      </c>
+      <c r="J368">
+        <v>6</v>
+      </c>
+      <c r="K368" t="s">
+        <v>39</v>
+      </c>
+      <c r="L368">
+        <v>1</v>
+      </c>
+      <c r="M368" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>8</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D369" t="s">
+        <v>11</v>
+      </c>
+      <c r="E369" t="s">
+        <v>24</v>
+      </c>
+      <c r="F369" s="2">
+        <v>62</v>
+      </c>
+      <c r="G369" s="3">
+        <v>73</v>
+      </c>
+      <c r="H369" s="3">
+        <v>10</v>
+      </c>
+      <c r="I369" s="3">
+        <v>9</v>
+      </c>
+      <c r="J369">
+        <v>6</v>
+      </c>
+      <c r="K369" t="s">
+        <v>39</v>
+      </c>
+      <c r="L369">
+        <v>1</v>
+      </c>
+      <c r="M369" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>1</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D370" t="s">
+        <v>11</v>
+      </c>
+      <c r="E370" t="s">
+        <v>24</v>
+      </c>
+      <c r="F370" s="2">
+        <v>123</v>
+      </c>
+      <c r="G370" s="3">
+        <v>143</v>
+      </c>
+      <c r="H370" s="3">
+        <v>17</v>
+      </c>
+      <c r="I370" s="3">
+        <v>10</v>
+      </c>
+      <c r="J370">
+        <v>6</v>
+      </c>
+      <c r="K370" t="s">
+        <v>39</v>
+      </c>
+      <c r="L370">
+        <v>2</v>
+      </c>
+      <c r="M370" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D371" t="s">
+        <v>7</v>
+      </c>
+      <c r="E371" t="s">
+        <v>18</v>
+      </c>
+      <c r="F371" s="2">
+        <v>112</v>
+      </c>
+      <c r="G371" s="3">
+        <v>146</v>
+      </c>
+      <c r="H371" s="3">
+        <v>15</v>
+      </c>
+      <c r="I371" s="3">
+        <v>12</v>
+      </c>
+      <c r="J371">
+        <v>6</v>
+      </c>
+      <c r="K371" t="s">
+        <v>39</v>
+      </c>
+      <c r="L371">
+        <v>2</v>
+      </c>
+      <c r="M371" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>3</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D372" t="s">
+        <v>12</v>
+      </c>
+      <c r="E372" t="s">
+        <v>58</v>
+      </c>
+      <c r="F372" s="2">
+        <v>68</v>
+      </c>
+      <c r="G372" s="3">
+        <v>130</v>
+      </c>
+      <c r="H372" s="3">
+        <v>18</v>
+      </c>
+      <c r="I372" s="3">
+        <v>8</v>
+      </c>
+      <c r="J372">
+        <v>6</v>
+      </c>
+      <c r="K372" t="s">
+        <v>39</v>
+      </c>
+      <c r="L372">
+        <v>2</v>
+      </c>
+      <c r="M372" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>4</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D373" t="s">
+        <v>9</v>
+      </c>
+      <c r="E373" t="s">
+        <v>58</v>
+      </c>
+      <c r="F373" s="2">
+        <v>62</v>
+      </c>
+      <c r="G373" s="3">
+        <v>123</v>
+      </c>
+      <c r="H373" s="3">
+        <v>17</v>
+      </c>
+      <c r="I373" s="3">
+        <v>7</v>
+      </c>
+      <c r="J373">
+        <v>6</v>
+      </c>
+      <c r="K373" t="s">
+        <v>39</v>
+      </c>
+      <c r="L373">
+        <v>2</v>
+      </c>
+      <c r="M373" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>5</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D374" t="s">
+        <v>41</v>
+      </c>
+      <c r="E374" t="s">
+        <v>62</v>
+      </c>
+      <c r="F374" s="2">
+        <v>63</v>
+      </c>
+      <c r="G374" s="3">
+        <v>53</v>
+      </c>
+      <c r="H374" s="3">
+        <v>14</v>
+      </c>
+      <c r="I374" s="3">
+        <v>9</v>
+      </c>
+      <c r="J374">
+        <v>6</v>
+      </c>
+      <c r="K374" t="s">
+        <v>39</v>
+      </c>
+      <c r="L374">
+        <v>2</v>
+      </c>
+      <c r="M374" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>6</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D375" t="s">
+        <v>41</v>
+      </c>
+      <c r="E375" t="s">
+        <v>27</v>
+      </c>
+      <c r="F375" s="2">
+        <v>72</v>
+      </c>
+      <c r="G375" s="3">
+        <v>85</v>
+      </c>
+      <c r="H375" s="3">
+        <v>15</v>
+      </c>
+      <c r="I375" s="3">
+        <v>7</v>
+      </c>
+      <c r="J375">
+        <v>6</v>
+      </c>
+      <c r="K375" t="s">
+        <v>39</v>
+      </c>
+      <c r="L375">
+        <v>2</v>
+      </c>
+      <c r="M375" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>7</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D376" t="s">
+        <v>9</v>
+      </c>
+      <c r="E376" t="s">
+        <v>172</v>
+      </c>
+      <c r="F376" s="2">
+        <v>54</v>
+      </c>
+      <c r="G376" s="3">
+        <v>65</v>
+      </c>
+      <c r="H376" s="3">
+        <v>14</v>
+      </c>
+      <c r="I376" s="3">
+        <v>8</v>
+      </c>
+      <c r="J376">
+        <v>6</v>
+      </c>
+      <c r="K376" t="s">
+        <v>39</v>
+      </c>
+      <c r="L376">
+        <v>2</v>
+      </c>
+      <c r="M376" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>8</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D377" t="s">
+        <v>52</v>
+      </c>
+      <c r="E377" t="s">
+        <v>24</v>
+      </c>
+      <c r="F377" s="2">
+        <v>62</v>
+      </c>
+      <c r="G377" s="3">
+        <v>52</v>
+      </c>
+      <c r="H377" s="3">
+        <v>9</v>
+      </c>
+      <c r="I377" s="3">
+        <v>10</v>
+      </c>
+      <c r="J377">
+        <v>6</v>
+      </c>
+      <c r="K377" t="s">
+        <v>39</v>
+      </c>
+      <c r="L377">
+        <v>2</v>
+      </c>
+      <c r="M377" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>1</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D378" t="s">
+        <v>11</v>
+      </c>
+      <c r="E378" t="s">
+        <v>148</v>
+      </c>
+      <c r="F378" s="2">
+        <v>95</v>
+      </c>
+      <c r="G378" s="3">
+        <v>146</v>
+      </c>
+      <c r="H378" s="3">
+        <v>23</v>
+      </c>
+      <c r="I378" s="3">
+        <v>4</v>
+      </c>
+      <c r="J378">
+        <v>6</v>
+      </c>
+      <c r="K378" t="s">
+        <v>39</v>
+      </c>
+      <c r="L378">
+        <v>3</v>
+      </c>
+      <c r="M378" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>2</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D379" t="s">
+        <v>41</v>
+      </c>
+      <c r="E379" t="s">
+        <v>182</v>
+      </c>
+      <c r="F379" s="2">
+        <v>99</v>
+      </c>
+      <c r="G379" s="3">
+        <v>139</v>
+      </c>
+      <c r="H379" s="3">
+        <v>15</v>
+      </c>
+      <c r="I379" s="3">
+        <v>12</v>
+      </c>
+      <c r="J379">
+        <v>6</v>
+      </c>
+      <c r="K379" t="s">
+        <v>39</v>
+      </c>
+      <c r="L379">
+        <v>3</v>
+      </c>
+      <c r="M379" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>3</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D380" t="s">
+        <v>9</v>
+      </c>
+      <c r="E380" t="s">
+        <v>21</v>
+      </c>
+      <c r="F380" s="2">
+        <v>79</v>
+      </c>
+      <c r="G380" s="3">
+        <v>118</v>
+      </c>
+      <c r="H380" s="3">
+        <v>18</v>
+      </c>
+      <c r="I380" s="3">
+        <v>8</v>
+      </c>
+      <c r="J380">
+        <v>6</v>
+      </c>
+      <c r="K380" t="s">
+        <v>39</v>
+      </c>
+      <c r="L380">
+        <v>3</v>
+      </c>
+      <c r="M380" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>4</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D381" t="s">
+        <v>41</v>
+      </c>
+      <c r="E381" t="s">
+        <v>34</v>
+      </c>
+      <c r="F381" s="2">
+        <v>81</v>
+      </c>
+      <c r="G381" s="3">
+        <v>119</v>
+      </c>
+      <c r="H381" s="3">
+        <v>14</v>
+      </c>
+      <c r="I381" s="3">
+        <v>10</v>
+      </c>
+      <c r="J381">
+        <v>6</v>
+      </c>
+      <c r="K381" t="s">
+        <v>39</v>
+      </c>
+      <c r="L381">
+        <v>3</v>
+      </c>
+      <c r="M381" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>5</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D382" t="s">
+        <v>11</v>
+      </c>
+      <c r="E382" t="s">
+        <v>176</v>
+      </c>
+      <c r="F382" s="2">
+        <v>58</v>
+      </c>
+      <c r="G382" s="3">
+        <v>88</v>
+      </c>
+      <c r="H382" s="3">
+        <v>13</v>
+      </c>
+      <c r="I382" s="3">
+        <v>11</v>
+      </c>
+      <c r="J382">
+        <v>6</v>
+      </c>
+      <c r="K382" t="s">
+        <v>39</v>
+      </c>
+      <c r="L382">
+        <v>3</v>
+      </c>
+      <c r="M382" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>6</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D383" t="s">
+        <v>11</v>
+      </c>
+      <c r="E383" t="s">
+        <v>24</v>
+      </c>
+      <c r="F383" s="2">
+        <v>66</v>
+      </c>
+      <c r="G383" s="3">
+        <v>68</v>
+      </c>
+      <c r="H383" s="3">
+        <v>13</v>
+      </c>
+      <c r="I383" s="3">
+        <v>10</v>
+      </c>
+      <c r="J383">
+        <v>6</v>
+      </c>
+      <c r="K383" t="s">
+        <v>39</v>
+      </c>
+      <c r="L383">
+        <v>3</v>
+      </c>
+      <c r="M383" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>7</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D384" t="s">
+        <v>52</v>
+      </c>
+      <c r="E384" t="s">
+        <v>58</v>
+      </c>
+      <c r="F384" s="2">
+        <v>59</v>
+      </c>
+      <c r="G384" s="3">
+        <v>52</v>
+      </c>
+      <c r="H384" s="3">
+        <v>12</v>
+      </c>
+      <c r="I384" s="3">
+        <v>7</v>
+      </c>
+      <c r="J384">
+        <v>6</v>
+      </c>
+      <c r="K384" t="s">
+        <v>39</v>
+      </c>
+      <c r="L384">
+        <v>3</v>
+      </c>
+      <c r="M384" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>8</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D385" t="s">
+        <v>9</v>
+      </c>
+      <c r="E385" t="s">
+        <v>172</v>
+      </c>
+      <c r="F385" s="2">
+        <v>53</v>
+      </c>
+      <c r="G385" s="3">
+        <v>19</v>
+      </c>
+      <c r="H385" s="3">
+        <v>8</v>
+      </c>
+      <c r="I385" s="3">
+        <v>10</v>
+      </c>
+      <c r="J385">
+        <v>6</v>
+      </c>
+      <c r="K385" t="s">
+        <v>39</v>
+      </c>
+      <c r="L385">
+        <v>3</v>
+      </c>
+      <c r="M385" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>1</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D386" t="s">
+        <v>11</v>
+      </c>
+      <c r="E386" t="s">
+        <v>24</v>
+      </c>
+      <c r="F386" s="2">
+        <v>163</v>
+      </c>
+      <c r="G386" s="3">
+        <v>172</v>
+      </c>
+      <c r="H386" s="3">
+        <v>25</v>
+      </c>
+      <c r="I386" s="3">
+        <v>9</v>
+      </c>
+      <c r="J386">
+        <v>6</v>
+      </c>
+      <c r="K386" t="s">
+        <v>39</v>
+      </c>
+      <c r="L386">
+        <v>4</v>
+      </c>
+      <c r="M386" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>2</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D387" t="s">
+        <v>7</v>
+      </c>
+      <c r="E387" t="s">
+        <v>46</v>
+      </c>
+      <c r="F387" s="2">
+        <v>86</v>
+      </c>
+      <c r="G387" s="3">
+        <v>161</v>
+      </c>
+      <c r="H387" s="3">
+        <v>24</v>
+      </c>
+      <c r="I387" s="3">
+        <v>10</v>
+      </c>
+      <c r="J387">
+        <v>6</v>
+      </c>
+      <c r="K387" t="s">
+        <v>39</v>
+      </c>
+      <c r="L387">
+        <v>4</v>
+      </c>
+      <c r="M387" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>3</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D388" t="s">
+        <v>11</v>
+      </c>
+      <c r="E388" t="s">
+        <v>24</v>
+      </c>
+      <c r="F388" s="2">
+        <v>107</v>
+      </c>
+      <c r="G388" s="3">
+        <v>165</v>
+      </c>
+      <c r="H388" s="3">
+        <v>23</v>
+      </c>
+      <c r="I388" s="3">
+        <v>8</v>
+      </c>
+      <c r="J388">
+        <v>6</v>
+      </c>
+      <c r="K388" t="s">
+        <v>39</v>
+      </c>
+      <c r="L388">
+        <v>4</v>
+      </c>
+      <c r="M388" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>4</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D389" t="s">
+        <v>7</v>
+      </c>
+      <c r="E389" t="s">
+        <v>21</v>
+      </c>
+      <c r="F389" s="2">
+        <v>87</v>
+      </c>
+      <c r="G389" s="3">
+        <v>75</v>
+      </c>
+      <c r="H389" s="3">
+        <v>17</v>
+      </c>
+      <c r="I389" s="3">
+        <v>11</v>
+      </c>
+      <c r="J389">
+        <v>6</v>
+      </c>
+      <c r="K389" t="s">
+        <v>39</v>
+      </c>
+      <c r="L389">
+        <v>4</v>
+      </c>
+      <c r="M389" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>5</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D390" t="s">
+        <v>41</v>
+      </c>
+      <c r="E390" t="s">
+        <v>62</v>
+      </c>
+      <c r="F390" s="2">
+        <v>73</v>
+      </c>
+      <c r="G390" s="3">
+        <v>86</v>
+      </c>
+      <c r="H390" s="3">
+        <v>15</v>
+      </c>
+      <c r="I390" s="3">
+        <v>12</v>
+      </c>
+      <c r="J390">
+        <v>6</v>
+      </c>
+      <c r="K390" t="s">
+        <v>39</v>
+      </c>
+      <c r="L390">
+        <v>4</v>
+      </c>
+      <c r="M390" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>6</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D391" t="s">
+        <v>9</v>
+      </c>
+      <c r="E391" t="s">
+        <v>18</v>
+      </c>
+      <c r="F391" s="2">
+        <v>86</v>
+      </c>
+      <c r="G391" s="3">
+        <v>66</v>
+      </c>
+      <c r="H391" s="3">
+        <v>14</v>
+      </c>
+      <c r="I391" s="3">
+        <v>12</v>
+      </c>
+      <c r="J391">
+        <v>6</v>
+      </c>
+      <c r="K391" t="s">
+        <v>39</v>
+      </c>
+      <c r="L391">
+        <v>4</v>
+      </c>
+      <c r="M391" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>7</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D392" t="s">
+        <v>41</v>
+      </c>
+      <c r="E392" t="s">
+        <v>148</v>
+      </c>
+      <c r="F392" s="2">
+        <v>67</v>
+      </c>
+      <c r="G392" s="3">
+        <v>43</v>
+      </c>
+      <c r="H392" s="3">
+        <v>11</v>
+      </c>
+      <c r="I392" s="3">
+        <v>12</v>
+      </c>
+      <c r="J392">
+        <v>6</v>
+      </c>
+      <c r="K392" t="s">
+        <v>39</v>
+      </c>
+      <c r="L392">
+        <v>4</v>
+      </c>
+      <c r="M392" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>8</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C393" s="1">
+        <v>52</v>
+      </c>
+      <c r="D393" t="s">
+        <v>52</v>
+      </c>
+      <c r="E393" t="s">
+        <v>180</v>
+      </c>
+      <c r="F393" s="2">
+        <v>66</v>
+      </c>
+      <c r="G393" s="3">
+        <v>58</v>
+      </c>
+      <c r="H393" s="3">
+        <v>10</v>
+      </c>
+      <c r="I393" s="3">
+        <v>12</v>
+      </c>
+      <c r="J393">
+        <v>6</v>
+      </c>
+      <c r="K393" t="s">
+        <v>39</v>
+      </c>
+      <c r="L393">
+        <v>4</v>
+      </c>
+      <c r="M393" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>1</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C394" s="1">
+        <v>52</v>
+      </c>
+      <c r="D394" t="s">
+        <v>9</v>
+      </c>
+      <c r="E394" t="s">
+        <v>18</v>
+      </c>
+      <c r="F394" s="2">
+        <v>147</v>
+      </c>
+      <c r="G394" s="3">
+        <v>189</v>
+      </c>
+      <c r="H394" s="3">
+        <v>25</v>
+      </c>
+      <c r="I394" s="3">
+        <v>8</v>
+      </c>
+      <c r="J394">
+        <v>6</v>
+      </c>
+      <c r="K394" t="s">
+        <v>39</v>
+      </c>
+      <c r="L394">
+        <v>5</v>
+      </c>
+      <c r="M394" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>2</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D395" t="s">
+        <v>12</v>
+      </c>
+      <c r="E395" t="s">
+        <v>27</v>
+      </c>
+      <c r="F395" s="2">
+        <v>91</v>
+      </c>
+      <c r="G395" s="3">
+        <v>151</v>
+      </c>
+      <c r="H395" s="3">
+        <v>21</v>
+      </c>
+      <c r="I395" s="3">
+        <v>12</v>
+      </c>
+      <c r="J395">
+        <v>6</v>
+      </c>
+      <c r="K395" t="s">
+        <v>39</v>
+      </c>
+      <c r="L395">
+        <v>5</v>
+      </c>
+      <c r="M395" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>3</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D396" t="s">
+        <v>9</v>
+      </c>
+      <c r="E396" t="s">
+        <v>172</v>
+      </c>
+      <c r="F396" s="2">
+        <v>90</v>
+      </c>
+      <c r="G396" s="3">
+        <v>115</v>
+      </c>
+      <c r="H396" s="3">
+        <v>23</v>
+      </c>
+      <c r="I396" s="3">
+        <v>9</v>
+      </c>
+      <c r="J396">
+        <v>6</v>
+      </c>
+      <c r="K396" t="s">
+        <v>39</v>
+      </c>
+      <c r="L396">
+        <v>5</v>
+      </c>
+      <c r="M396" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>4</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D397" t="s">
+        <v>52</v>
+      </c>
+      <c r="E397" t="s">
+        <v>148</v>
+      </c>
+      <c r="F397" s="2">
+        <v>102</v>
+      </c>
+      <c r="G397" s="3">
+        <v>125</v>
+      </c>
+      <c r="H397" s="3">
+        <v>19</v>
+      </c>
+      <c r="I397" s="3">
+        <v>10</v>
+      </c>
+      <c r="J397">
+        <v>6</v>
+      </c>
+      <c r="K397" t="s">
+        <v>39</v>
+      </c>
+      <c r="L397">
+        <v>5</v>
+      </c>
+      <c r="M397" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>5</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D398" t="s">
+        <v>12</v>
+      </c>
+      <c r="E398" t="s">
+        <v>27</v>
+      </c>
+      <c r="F398" s="2">
+        <v>96</v>
+      </c>
+      <c r="G398" s="3">
+        <v>108</v>
+      </c>
+      <c r="H398" s="3">
+        <v>15</v>
+      </c>
+      <c r="I398" s="3">
+        <v>12</v>
+      </c>
+      <c r="J398">
+        <v>6</v>
+      </c>
+      <c r="K398" t="s">
+        <v>39</v>
+      </c>
+      <c r="L398">
+        <v>5</v>
+      </c>
+      <c r="M398" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>6</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D399" t="s">
+        <v>41</v>
+      </c>
+      <c r="E399" t="s">
+        <v>62</v>
+      </c>
+      <c r="F399" s="2">
+        <v>60</v>
+      </c>
+      <c r="G399" s="3">
+        <v>59</v>
+      </c>
+      <c r="H399" s="3">
+        <v>13</v>
+      </c>
+      <c r="I399" s="3">
+        <v>10</v>
+      </c>
+      <c r="J399">
+        <v>6</v>
+      </c>
+      <c r="K399" t="s">
+        <v>39</v>
+      </c>
+      <c r="L399">
+        <v>5</v>
+      </c>
+      <c r="M399" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>7</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D400" t="s">
+        <v>7</v>
+      </c>
+      <c r="E400" t="s">
+        <v>21</v>
+      </c>
+      <c r="F400" s="2">
+        <v>49</v>
+      </c>
+      <c r="G400" s="3">
+        <v>39</v>
+      </c>
+      <c r="H400" s="3">
+        <v>10</v>
+      </c>
+      <c r="I400" s="3">
+        <v>11</v>
+      </c>
+      <c r="J400">
+        <v>6</v>
+      </c>
+      <c r="K400" t="s">
+        <v>39</v>
+      </c>
+      <c r="L400">
+        <v>5</v>
+      </c>
+      <c r="M400" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>8</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D401" t="s">
+        <v>11</v>
+      </c>
+      <c r="E401" t="s">
+        <v>13</v>
+      </c>
+      <c r="F401" s="2">
+        <v>48</v>
+      </c>
+      <c r="G401" s="3">
+        <v>21</v>
+      </c>
+      <c r="H401" s="3">
+        <v>7</v>
+      </c>
+      <c r="I401" s="3">
+        <v>11</v>
+      </c>
+      <c r="J401">
+        <v>6</v>
+      </c>
+      <c r="K401" t="s">
+        <v>39</v>
+      </c>
+      <c r="L401">
+        <v>5</v>
+      </c>
+      <c r="M401" t="s">
         <v>63</v>
       </c>
     </row>
@@ -14303,7 +17616,7 @@
       <formula1>"魔坦刺,扶桑法刺,扶桑群雄刺,七射,稷下战,法奶,轻战守约,魔种(有天赋),攻辅射,蜀国,弟弟射,魔种(无天赋),九战,攻辅蛋"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{E38A29DF-2802-4753-B902-8CC4AF0BB8DA}">
-      <formula1>"魔坦刺,长城战,扶桑刺,扶桑法刺,扶桑群雄刺,弟弟蜀,七射,稷下战,法奶,轻战守约,魔种(有天赋),攻辅射,蜀国,弟弟射,魔种(无天赋),九战,攻辅蛋,扶桑法,魏战,扶桑群雄法刺,吴国攻辅射,稷下攻辅射,封神攻辅射,坦法,弟妹法,尧天攻辅射,长城攻辅射"</formula1>
+      <formula1>"坦刺,坦射,魔坦刺,长城战,扶桑刺,扶桑法刺,扶桑群雄刺,弟弟蜀,七射,稷下战,法奶,轻战守约,魔种(有天赋),攻辅射,蜀国,弟弟射,魔种(无天赋),九战,攻辅蛋,扶桑法,魏战,扶桑群雄法刺,吴国攻辅射,稷下攻辅射,封神攻辅射,坦法,弟妹法,尧天攻辅射,长城攻辅射"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\python\wzmnz_game_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\wzmnz_game_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570A6F69-7CCD-45ED-8CCD-3A9008874000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4CA8D5-04ED-428D-B390-CD41B6ADCD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB48B202-EBC4-4DF3-96AB-433FACB95B1A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{FB48B202-EBC4-4DF3-96AB-433FACB95B1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="196">
   <si>
     <t>阵容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -762,6 +762,35 @@
     <t>青争</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>中分组</t>
+  </si>
+  <si>
+    <t>吴国攻辅射</t>
+  </si>
+  <si>
+    <t>长城攻辅射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高分组</t>
+  </si>
+  <si>
+    <t>摸鱼呆呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天泣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1137,22 +1166,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2E6C9-7049-424A-A14B-939D1CD70783}">
-  <dimension ref="A1:M401"/>
+  <dimension ref="A1:M485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="F392" sqref="F392"/>
+    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="C477" sqref="C477"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="9" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2"/>
+    <col min="7" max="9" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1234,7 +1263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1275,7 +1304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1316,7 +1345,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1357,7 +1386,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1398,7 +1427,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1439,7 +1468,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1480,7 +1509,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1521,7 +1550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1562,7 +1591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1603,7 +1632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1644,7 +1673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1685,7 +1714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1726,7 +1755,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1767,7 +1796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1808,7 +1837,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1849,7 +1878,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1890,7 +1919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1931,7 +1960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1972,7 +2001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2013,7 +2042,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2054,7 +2083,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -2095,7 +2124,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
@@ -2136,7 +2165,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8</v>
       </c>
@@ -2177,7 +2206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2218,7 +2247,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2259,7 +2288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2300,7 +2329,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2341,7 +2370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2382,7 +2411,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2423,7 +2452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2464,7 +2493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -2505,7 +2534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2546,7 +2575,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2587,7 +2616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2628,7 +2657,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2669,7 +2698,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2710,7 +2739,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6</v>
       </c>
@@ -2751,7 +2780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7</v>
       </c>
@@ -2792,7 +2821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2833,7 +2862,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2874,7 +2903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2915,7 +2944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2956,7 +2985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2997,7 +3026,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3038,7 +3067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6</v>
       </c>
@@ -3079,7 +3108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -3120,7 +3149,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8</v>
       </c>
@@ -3161,7 +3190,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3202,7 +3231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -3243,7 +3272,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3284,7 +3313,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -3325,7 +3354,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5</v>
       </c>
@@ -3366,7 +3395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6</v>
       </c>
@@ -3407,7 +3436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7</v>
       </c>
@@ -3448,7 +3477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>8</v>
       </c>
@@ -3489,7 +3518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3530,7 +3559,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3571,7 +3600,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3612,7 +3641,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -3653,7 +3682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5</v>
       </c>
@@ -3694,7 +3723,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6</v>
       </c>
@@ -3735,7 +3764,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>7</v>
       </c>
@@ -3776,7 +3805,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8</v>
       </c>
@@ -3817,7 +3846,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3858,7 +3887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3899,7 +3928,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3940,7 +3969,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4</v>
       </c>
@@ -3981,7 +4010,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5</v>
       </c>
@@ -4022,7 +4051,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6</v>
       </c>
@@ -4063,7 +4092,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
@@ -4104,7 +4133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>8</v>
       </c>
@@ -4145,7 +4174,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -4186,7 +4215,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2</v>
       </c>
@@ -4227,7 +4256,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -4268,7 +4297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4</v>
       </c>
@@ -4309,7 +4338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5</v>
       </c>
@@ -4350,7 +4379,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>6</v>
       </c>
@@ -4391,7 +4420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7</v>
       </c>
@@ -4432,7 +4461,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>8</v>
       </c>
@@ -4473,7 +4502,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4514,7 +4543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2</v>
       </c>
@@ -4555,7 +4584,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -4596,7 +4625,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4</v>
       </c>
@@ -4637,7 +4666,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5</v>
       </c>
@@ -4678,7 +4707,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6</v>
       </c>
@@ -4719,7 +4748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>7</v>
       </c>
@@ -4760,7 +4789,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8</v>
       </c>
@@ -4801,7 +4830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4842,7 +4871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
@@ -4883,7 +4912,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3</v>
       </c>
@@ -4924,7 +4953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4</v>
       </c>
@@ -4965,7 +4994,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5</v>
       </c>
@@ -5006,7 +5035,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>6</v>
       </c>
@@ -5047,7 +5076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>7</v>
       </c>
@@ -5088,7 +5117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -5129,7 +5158,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -5170,7 +5199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2</v>
       </c>
@@ -5211,7 +5240,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3</v>
       </c>
@@ -5252,7 +5281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4</v>
       </c>
@@ -5293,7 +5322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>5</v>
       </c>
@@ -5334,7 +5363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>6</v>
       </c>
@@ -5375,7 +5404,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7</v>
       </c>
@@ -5416,7 +5445,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>8</v>
       </c>
@@ -5457,7 +5486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
@@ -5498,7 +5527,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2</v>
       </c>
@@ -5539,7 +5568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3</v>
       </c>
@@ -5580,7 +5609,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4</v>
       </c>
@@ -5621,7 +5650,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5</v>
       </c>
@@ -5662,7 +5691,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>6</v>
       </c>
@@ -5703,7 +5732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>7</v>
       </c>
@@ -5744,7 +5773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>8</v>
       </c>
@@ -5785,7 +5814,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -5826,7 +5855,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2</v>
       </c>
@@ -5867,7 +5896,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3</v>
       </c>
@@ -5908,7 +5937,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4</v>
       </c>
@@ -5949,7 +5978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>5</v>
       </c>
@@ -5990,7 +6019,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>6</v>
       </c>
@@ -6031,7 +6060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>7</v>
       </c>
@@ -6072,7 +6101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>8</v>
       </c>
@@ -6113,7 +6142,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -6154,7 +6183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
@@ -6195,7 +6224,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3</v>
       </c>
@@ -6236,7 +6265,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4</v>
       </c>
@@ -6277,7 +6306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5</v>
       </c>
@@ -6318,7 +6347,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
@@ -6359,7 +6388,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
@@ -6400,7 +6429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>8</v>
       </c>
@@ -6441,7 +6470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1</v>
       </c>
@@ -6482,7 +6511,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2</v>
       </c>
@@ -6523,7 +6552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3</v>
       </c>
@@ -6564,7 +6593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4</v>
       </c>
@@ -6605,7 +6634,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>5</v>
       </c>
@@ -6646,7 +6675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>6</v>
       </c>
@@ -6687,7 +6716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>7</v>
       </c>
@@ -6728,7 +6757,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>8</v>
       </c>
@@ -6769,7 +6798,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1</v>
       </c>
@@ -6810,7 +6839,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2</v>
       </c>
@@ -6851,7 +6880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3</v>
       </c>
@@ -6892,7 +6921,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>4</v>
       </c>
@@ -6933,7 +6962,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>5</v>
       </c>
@@ -6974,7 +7003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>6</v>
       </c>
@@ -7015,7 +7044,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>7</v>
       </c>
@@ -7056,7 +7085,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>8</v>
       </c>
@@ -7097,7 +7126,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1</v>
       </c>
@@ -7138,7 +7167,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2</v>
       </c>
@@ -7179,7 +7208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3</v>
       </c>
@@ -7220,7 +7249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4</v>
       </c>
@@ -7261,7 +7290,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>5</v>
       </c>
@@ -7302,7 +7331,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>6</v>
       </c>
@@ -7343,7 +7372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>7</v>
       </c>
@@ -7384,7 +7413,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>8</v>
       </c>
@@ -7425,7 +7454,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1</v>
       </c>
@@ -7466,7 +7495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2</v>
       </c>
@@ -7507,7 +7536,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>3</v>
       </c>
@@ -7548,7 +7577,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4</v>
       </c>
@@ -7589,7 +7618,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>5</v>
       </c>
@@ -7630,7 +7659,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>6</v>
       </c>
@@ -7671,7 +7700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>7</v>
       </c>
@@ -7712,7 +7741,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>8</v>
       </c>
@@ -7753,7 +7782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -7794,7 +7823,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2</v>
       </c>
@@ -7835,7 +7864,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>3</v>
       </c>
@@ -7876,7 +7905,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4</v>
       </c>
@@ -7917,7 +7946,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>5</v>
       </c>
@@ -7958,7 +7987,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>6</v>
       </c>
@@ -7999,7 +8028,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>7</v>
       </c>
@@ -8040,7 +8069,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>8</v>
       </c>
@@ -8081,7 +8110,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
@@ -8122,7 +8151,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2</v>
       </c>
@@ -8163,7 +8192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>3</v>
       </c>
@@ -8204,7 +8233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>4</v>
       </c>
@@ -8245,7 +8274,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>5</v>
       </c>
@@ -8286,7 +8315,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>6</v>
       </c>
@@ -8327,7 +8356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>7</v>
       </c>
@@ -8368,7 +8397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>8</v>
       </c>
@@ -8409,7 +8438,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -8450,7 +8479,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2</v>
       </c>
@@ -8491,7 +8520,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3</v>
       </c>
@@ -8532,7 +8561,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4</v>
       </c>
@@ -8573,7 +8602,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>5</v>
       </c>
@@ -8614,7 +8643,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>6</v>
       </c>
@@ -8655,7 +8684,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>7</v>
       </c>
@@ -8696,7 +8725,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>8</v>
       </c>
@@ -8737,7 +8766,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -8778,7 +8807,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2</v>
       </c>
@@ -8819,7 +8848,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>3</v>
       </c>
@@ -8860,7 +8889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4</v>
       </c>
@@ -8901,7 +8930,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>5</v>
       </c>
@@ -8942,7 +8971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>6</v>
       </c>
@@ -8983,7 +9012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>7</v>
       </c>
@@ -9024,7 +9053,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>8</v>
       </c>
@@ -9065,7 +9094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1</v>
       </c>
@@ -9106,7 +9135,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2</v>
       </c>
@@ -9147,7 +9176,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>3</v>
       </c>
@@ -9188,7 +9217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>4</v>
       </c>
@@ -9229,7 +9258,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>5</v>
       </c>
@@ -9270,7 +9299,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>6</v>
       </c>
@@ -9311,7 +9340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>7</v>
       </c>
@@ -9352,7 +9381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>8</v>
       </c>
@@ -9393,7 +9422,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
@@ -9434,7 +9463,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2</v>
       </c>
@@ -9475,7 +9504,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>3</v>
       </c>
@@ -9516,7 +9545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>4</v>
       </c>
@@ -9557,7 +9586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>5</v>
       </c>
@@ -9598,7 +9627,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>6</v>
       </c>
@@ -9639,7 +9668,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>7</v>
       </c>
@@ -9680,7 +9709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>8</v>
       </c>
@@ -9721,7 +9750,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1</v>
       </c>
@@ -9762,7 +9791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2</v>
       </c>
@@ -9803,7 +9832,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>3</v>
       </c>
@@ -9844,7 +9873,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>4</v>
       </c>
@@ -9885,7 +9914,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>5</v>
       </c>
@@ -9926,7 +9955,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>6</v>
       </c>
@@ -9967,7 +9996,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>7</v>
       </c>
@@ -10008,7 +10037,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>8</v>
       </c>
@@ -10049,7 +10078,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1</v>
       </c>
@@ -10090,7 +10119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2</v>
       </c>
@@ -10131,7 +10160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>3</v>
       </c>
@@ -10172,7 +10201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>4</v>
       </c>
@@ -10213,7 +10242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>5</v>
       </c>
@@ -10254,7 +10283,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>6</v>
       </c>
@@ -10295,7 +10324,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>7</v>
       </c>
@@ -10336,7 +10365,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>8</v>
       </c>
@@ -10377,7 +10406,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1</v>
       </c>
@@ -10418,7 +10447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2</v>
       </c>
@@ -10459,7 +10488,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>3</v>
       </c>
@@ -10500,7 +10529,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4</v>
       </c>
@@ -10541,7 +10570,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>5</v>
       </c>
@@ -10582,7 +10611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>6</v>
       </c>
@@ -10623,7 +10652,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>7</v>
       </c>
@@ -10664,7 +10693,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>8</v>
       </c>
@@ -10705,7 +10734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1</v>
       </c>
@@ -10746,7 +10775,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2</v>
       </c>
@@ -10787,7 +10816,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>3</v>
       </c>
@@ -10828,7 +10857,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>4</v>
       </c>
@@ -10869,7 +10898,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>5</v>
       </c>
@@ -10910,7 +10939,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>6</v>
       </c>
@@ -10951,7 +10980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>7</v>
       </c>
@@ -10992,7 +11021,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>8</v>
       </c>
@@ -11033,7 +11062,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1</v>
       </c>
@@ -11074,7 +11103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2</v>
       </c>
@@ -11115,7 +11144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>3</v>
       </c>
@@ -11156,7 +11185,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>4</v>
       </c>
@@ -11197,7 +11226,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>5</v>
       </c>
@@ -11238,7 +11267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>6</v>
       </c>
@@ -11279,7 +11308,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>7</v>
       </c>
@@ -11320,7 +11349,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>8</v>
       </c>
@@ -11361,7 +11390,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1</v>
       </c>
@@ -11402,7 +11431,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2</v>
       </c>
@@ -11443,7 +11472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>3</v>
       </c>
@@ -11484,7 +11513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>4</v>
       </c>
@@ -11525,7 +11554,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>5</v>
       </c>
@@ -11566,7 +11595,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>6</v>
       </c>
@@ -11607,7 +11636,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>7</v>
       </c>
@@ -11648,7 +11677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>8</v>
       </c>
@@ -11689,7 +11718,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1</v>
       </c>
@@ -11730,7 +11759,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2</v>
       </c>
@@ -11771,7 +11800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>3</v>
       </c>
@@ -11812,7 +11841,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>4</v>
       </c>
@@ -11853,7 +11882,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>5</v>
       </c>
@@ -11894,7 +11923,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>6</v>
       </c>
@@ -11935,7 +11964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>7</v>
       </c>
@@ -11976,7 +12005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>8</v>
       </c>
@@ -12017,7 +12046,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1</v>
       </c>
@@ -12058,7 +12087,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2</v>
       </c>
@@ -12099,7 +12128,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>3</v>
       </c>
@@ -12140,7 +12169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4</v>
       </c>
@@ -12181,7 +12210,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>5</v>
       </c>
@@ -12222,7 +12251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>6</v>
       </c>
@@ -12263,7 +12292,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>7</v>
       </c>
@@ -12304,7 +12333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>8</v>
       </c>
@@ -12345,7 +12374,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1</v>
       </c>
@@ -12386,7 +12415,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2</v>
       </c>
@@ -12427,7 +12456,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>3</v>
       </c>
@@ -12468,7 +12497,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>4</v>
       </c>
@@ -12509,7 +12538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>5</v>
       </c>
@@ -12550,7 +12579,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>6</v>
       </c>
@@ -12591,7 +12620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>7</v>
       </c>
@@ -12632,7 +12661,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>8</v>
       </c>
@@ -12673,7 +12702,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1</v>
       </c>
@@ -12714,7 +12743,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2</v>
       </c>
@@ -12755,7 +12784,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>3</v>
       </c>
@@ -12796,7 +12825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>4</v>
       </c>
@@ -12837,7 +12866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>5</v>
       </c>
@@ -12878,7 +12907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>6</v>
       </c>
@@ -12919,7 +12948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>7</v>
       </c>
@@ -12960,7 +12989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>8</v>
       </c>
@@ -13001,7 +13030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1</v>
       </c>
@@ -13042,7 +13071,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2</v>
       </c>
@@ -13083,7 +13112,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>3</v>
       </c>
@@ -13124,7 +13153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>4</v>
       </c>
@@ -13165,7 +13194,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>5</v>
       </c>
@@ -13206,7 +13235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>6</v>
       </c>
@@ -13247,7 +13276,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>7</v>
       </c>
@@ -13288,7 +13317,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>8</v>
       </c>
@@ -13329,7 +13358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1</v>
       </c>
@@ -13370,7 +13399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2</v>
       </c>
@@ -13411,7 +13440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>3</v>
       </c>
@@ -13452,7 +13481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>4</v>
       </c>
@@ -13493,7 +13522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>5</v>
       </c>
@@ -13534,7 +13563,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>6</v>
       </c>
@@ -13575,7 +13604,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>7</v>
       </c>
@@ -13616,7 +13645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>8</v>
       </c>
@@ -13657,7 +13686,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1</v>
       </c>
@@ -13698,7 +13727,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2</v>
       </c>
@@ -13739,7 +13768,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>3</v>
       </c>
@@ -13780,7 +13809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4</v>
       </c>
@@ -13821,7 +13850,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>5</v>
       </c>
@@ -13862,7 +13891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>6</v>
       </c>
@@ -13903,7 +13932,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>7</v>
       </c>
@@ -13944,7 +13973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>8</v>
       </c>
@@ -13985,7 +14014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1</v>
       </c>
@@ -14026,7 +14055,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2</v>
       </c>
@@ -14067,7 +14096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>3</v>
       </c>
@@ -14108,7 +14137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>4</v>
       </c>
@@ -14149,7 +14178,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>5</v>
       </c>
@@ -14190,7 +14219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>6</v>
       </c>
@@ -14231,7 +14260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>7</v>
       </c>
@@ -14272,7 +14301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>8</v>
       </c>
@@ -14313,7 +14342,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1</v>
       </c>
@@ -14354,7 +14383,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2</v>
       </c>
@@ -14395,7 +14424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>3</v>
       </c>
@@ -14436,7 +14465,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>4</v>
       </c>
@@ -14477,7 +14506,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>5</v>
       </c>
@@ -14518,7 +14547,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>6</v>
       </c>
@@ -14559,7 +14588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>7</v>
       </c>
@@ -14600,7 +14629,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>8</v>
       </c>
@@ -14641,7 +14670,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1</v>
       </c>
@@ -14682,7 +14711,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2</v>
       </c>
@@ -14723,7 +14752,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>3</v>
       </c>
@@ -14764,7 +14793,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>4</v>
       </c>
@@ -14805,7 +14834,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>5</v>
       </c>
@@ -14846,7 +14875,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>6</v>
       </c>
@@ -14887,7 +14916,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>7</v>
       </c>
@@ -14928,7 +14957,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>8</v>
       </c>
@@ -14969,7 +14998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1</v>
       </c>
@@ -15010,7 +15039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2</v>
       </c>
@@ -15051,7 +15080,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>3</v>
       </c>
@@ -15092,7 +15121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>4</v>
       </c>
@@ -15133,7 +15162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>5</v>
       </c>
@@ -15174,7 +15203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>6</v>
       </c>
@@ -15215,7 +15244,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>7</v>
       </c>
@@ -15256,7 +15285,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>8</v>
       </c>
@@ -15297,7 +15326,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1</v>
       </c>
@@ -15338,7 +15367,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2</v>
       </c>
@@ -15379,7 +15408,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>3</v>
       </c>
@@ -15420,7 +15449,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>4</v>
       </c>
@@ -15461,7 +15490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>5</v>
       </c>
@@ -15502,7 +15531,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>6</v>
       </c>
@@ -15543,7 +15572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>7</v>
       </c>
@@ -15584,7 +15613,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>8</v>
       </c>
@@ -15625,7 +15654,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1</v>
       </c>
@@ -15666,7 +15695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2</v>
       </c>
@@ -15707,7 +15736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>3</v>
       </c>
@@ -15748,7 +15777,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>4</v>
       </c>
@@ -15789,7 +15818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>5</v>
       </c>
@@ -15830,7 +15859,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>6</v>
       </c>
@@ -15871,7 +15900,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>7</v>
       </c>
@@ -15912,7 +15941,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>8</v>
       </c>
@@ -15953,7 +15982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1</v>
       </c>
@@ -15994,7 +16023,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2</v>
       </c>
@@ -16035,7 +16064,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>3</v>
       </c>
@@ -16076,7 +16105,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>4</v>
       </c>
@@ -16117,7 +16146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>5</v>
       </c>
@@ -16158,7 +16187,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>6</v>
       </c>
@@ -16199,7 +16228,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>7</v>
       </c>
@@ -16240,7 +16269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>8</v>
       </c>
@@ -16281,7 +16310,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1</v>
       </c>
@@ -16322,7 +16351,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2</v>
       </c>
@@ -16363,7 +16392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>3</v>
       </c>
@@ -16404,7 +16433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>4</v>
       </c>
@@ -16445,7 +16474,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>5</v>
       </c>
@@ -16486,7 +16515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>6</v>
       </c>
@@ -16527,7 +16556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>7</v>
       </c>
@@ -16568,7 +16597,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>8</v>
       </c>
@@ -16609,7 +16638,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>1</v>
       </c>
@@ -16650,7 +16679,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2</v>
       </c>
@@ -16691,7 +16720,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>3</v>
       </c>
@@ -16732,7 +16761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>4</v>
       </c>
@@ -16773,7 +16802,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>5</v>
       </c>
@@ -16814,7 +16843,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>6</v>
       </c>
@@ -16855,7 +16884,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>7</v>
       </c>
@@ -16896,7 +16925,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>8</v>
       </c>
@@ -16937,7 +16966,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>1</v>
       </c>
@@ -16978,7 +17007,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2</v>
       </c>
@@ -17019,7 +17048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>3</v>
       </c>
@@ -17060,7 +17089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>4</v>
       </c>
@@ -17101,7 +17130,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>5</v>
       </c>
@@ -17142,7 +17171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>6</v>
       </c>
@@ -17183,7 +17212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>7</v>
       </c>
@@ -17224,7 +17253,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>8</v>
       </c>
@@ -17265,7 +17294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>1</v>
       </c>
@@ -17306,7 +17335,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2</v>
       </c>
@@ -17347,7 +17376,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>3</v>
       </c>
@@ -17388,7 +17417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>4</v>
       </c>
@@ -17429,7 +17458,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>5</v>
       </c>
@@ -17470,7 +17499,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>6</v>
       </c>
@@ -17511,7 +17540,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>7</v>
       </c>
@@ -17552,7 +17581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>8</v>
       </c>
@@ -17592,6 +17621,3298 @@
       <c r="M401" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>1</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D402" t="s">
+        <v>11</v>
+      </c>
+      <c r="E402" t="s">
+        <v>24</v>
+      </c>
+      <c r="F402" s="2">
+        <v>93</v>
+      </c>
+      <c r="G402" s="3">
+        <v>209</v>
+      </c>
+      <c r="H402" s="3">
+        <v>21</v>
+      </c>
+      <c r="I402" s="3">
+        <v>10</v>
+      </c>
+      <c r="J402" s="3">
+        <v>6</v>
+      </c>
+      <c r="K402" t="s">
+        <v>188</v>
+      </c>
+      <c r="L402">
+        <v>1</v>
+      </c>
+      <c r="M402" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>2</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D403" t="s">
+        <v>9</v>
+      </c>
+      <c r="E403" t="s">
+        <v>172</v>
+      </c>
+      <c r="F403" s="2">
+        <v>90</v>
+      </c>
+      <c r="G403" s="3">
+        <v>214</v>
+      </c>
+      <c r="H403" s="3">
+        <v>25</v>
+      </c>
+      <c r="I403" s="3">
+        <v>6</v>
+      </c>
+      <c r="J403" s="3">
+        <v>6</v>
+      </c>
+      <c r="K403" t="s">
+        <v>188</v>
+      </c>
+      <c r="L403">
+        <v>1</v>
+      </c>
+      <c r="M403" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>3</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D404" t="s">
+        <v>52</v>
+      </c>
+      <c r="E404" t="s">
+        <v>24</v>
+      </c>
+      <c r="F404" s="2">
+        <v>83</v>
+      </c>
+      <c r="G404" s="3">
+        <v>131</v>
+      </c>
+      <c r="H404" s="3">
+        <v>17</v>
+      </c>
+      <c r="I404" s="3">
+        <v>9</v>
+      </c>
+      <c r="J404" s="3">
+        <v>6</v>
+      </c>
+      <c r="K404" t="s">
+        <v>188</v>
+      </c>
+      <c r="L404">
+        <v>1</v>
+      </c>
+      <c r="M404" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>4</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D405" t="s">
+        <v>41</v>
+      </c>
+      <c r="E405" t="s">
+        <v>62</v>
+      </c>
+      <c r="F405" s="2">
+        <v>53</v>
+      </c>
+      <c r="G405" s="3">
+        <v>45</v>
+      </c>
+      <c r="H405" s="3">
+        <v>12</v>
+      </c>
+      <c r="I405" s="3">
+        <v>11</v>
+      </c>
+      <c r="J405" s="3">
+        <v>6</v>
+      </c>
+      <c r="K405" t="s">
+        <v>188</v>
+      </c>
+      <c r="L405">
+        <v>1</v>
+      </c>
+      <c r="M405" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>5</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D406" t="s">
+        <v>9</v>
+      </c>
+      <c r="E406" t="s">
+        <v>176</v>
+      </c>
+      <c r="F406" s="2">
+        <v>71</v>
+      </c>
+      <c r="G406" s="3">
+        <v>72</v>
+      </c>
+      <c r="H406" s="3">
+        <v>14</v>
+      </c>
+      <c r="I406" s="3">
+        <v>9</v>
+      </c>
+      <c r="J406" s="3">
+        <v>6</v>
+      </c>
+      <c r="K406" t="s">
+        <v>188</v>
+      </c>
+      <c r="L406">
+        <v>1</v>
+      </c>
+      <c r="M406" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>6</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D407" t="s">
+        <v>9</v>
+      </c>
+      <c r="E407" t="s">
+        <v>34</v>
+      </c>
+      <c r="F407" s="2">
+        <v>68</v>
+      </c>
+      <c r="G407" s="3">
+        <v>51</v>
+      </c>
+      <c r="H407" s="3">
+        <v>11</v>
+      </c>
+      <c r="I407" s="3">
+        <v>11</v>
+      </c>
+      <c r="J407" s="3">
+        <v>6</v>
+      </c>
+      <c r="K407" t="s">
+        <v>188</v>
+      </c>
+      <c r="L407">
+        <v>1</v>
+      </c>
+      <c r="M407" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>7</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D408" t="s">
+        <v>11</v>
+      </c>
+      <c r="E408" t="s">
+        <v>18</v>
+      </c>
+      <c r="F408" s="2">
+        <v>64</v>
+      </c>
+      <c r="G408" s="3">
+        <v>23</v>
+      </c>
+      <c r="H408" s="3">
+        <v>7</v>
+      </c>
+      <c r="I408" s="3">
+        <v>12</v>
+      </c>
+      <c r="J408" s="3">
+        <v>6</v>
+      </c>
+      <c r="K408" t="s">
+        <v>188</v>
+      </c>
+      <c r="L408">
+        <v>1</v>
+      </c>
+      <c r="M408" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>8</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D409" t="s">
+        <v>12</v>
+      </c>
+      <c r="E409" t="s">
+        <v>27</v>
+      </c>
+      <c r="F409" s="2">
+        <v>56</v>
+      </c>
+      <c r="G409" s="3">
+        <v>44</v>
+      </c>
+      <c r="H409" s="3">
+        <v>11</v>
+      </c>
+      <c r="I409" s="3">
+        <v>7</v>
+      </c>
+      <c r="J409" s="3">
+        <v>6</v>
+      </c>
+      <c r="K409" t="s">
+        <v>188</v>
+      </c>
+      <c r="L409">
+        <v>1</v>
+      </c>
+      <c r="M409" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>1</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D410" t="s">
+        <v>7</v>
+      </c>
+      <c r="E410" t="s">
+        <v>21</v>
+      </c>
+      <c r="F410" s="2">
+        <v>123</v>
+      </c>
+      <c r="G410" s="3">
+        <v>147</v>
+      </c>
+      <c r="H410" s="3">
+        <v>23</v>
+      </c>
+      <c r="I410" s="3">
+        <v>6</v>
+      </c>
+      <c r="J410" s="3">
+        <v>6</v>
+      </c>
+      <c r="K410" t="s">
+        <v>188</v>
+      </c>
+      <c r="L410">
+        <v>2</v>
+      </c>
+      <c r="M410" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>2</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D411" t="s">
+        <v>52</v>
+      </c>
+      <c r="E411" t="s">
+        <v>24</v>
+      </c>
+      <c r="F411" s="2">
+        <v>85</v>
+      </c>
+      <c r="G411" s="3">
+        <v>118</v>
+      </c>
+      <c r="H411" s="3">
+        <v>18</v>
+      </c>
+      <c r="I411" s="3">
+        <v>11</v>
+      </c>
+      <c r="J411" s="3">
+        <v>6</v>
+      </c>
+      <c r="K411" t="s">
+        <v>188</v>
+      </c>
+      <c r="L411">
+        <v>2</v>
+      </c>
+      <c r="M411" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>3</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D412" t="s">
+        <v>8</v>
+      </c>
+      <c r="E412" t="s">
+        <v>172</v>
+      </c>
+      <c r="F412" s="2">
+        <v>75</v>
+      </c>
+      <c r="G412" s="3">
+        <v>141</v>
+      </c>
+      <c r="H412" s="3">
+        <v>20</v>
+      </c>
+      <c r="I412" s="3">
+        <v>8</v>
+      </c>
+      <c r="J412" s="3">
+        <v>6</v>
+      </c>
+      <c r="K412" t="s">
+        <v>188</v>
+      </c>
+      <c r="L412">
+        <v>2</v>
+      </c>
+      <c r="M412" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>4</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D413" t="s">
+        <v>41</v>
+      </c>
+      <c r="E413" t="s">
+        <v>27</v>
+      </c>
+      <c r="F413" s="2">
+        <v>86</v>
+      </c>
+      <c r="G413" s="3">
+        <v>122</v>
+      </c>
+      <c r="H413" s="3">
+        <v>19</v>
+      </c>
+      <c r="I413" s="3">
+        <v>8</v>
+      </c>
+      <c r="J413" s="3">
+        <v>6</v>
+      </c>
+      <c r="K413" t="s">
+        <v>188</v>
+      </c>
+      <c r="L413">
+        <v>2</v>
+      </c>
+      <c r="M413" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>5</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D414" t="s">
+        <v>11</v>
+      </c>
+      <c r="E414" t="s">
+        <v>24</v>
+      </c>
+      <c r="F414" s="2">
+        <v>90</v>
+      </c>
+      <c r="G414" s="3">
+        <v>133</v>
+      </c>
+      <c r="H414" s="3">
+        <v>13</v>
+      </c>
+      <c r="I414" s="3">
+        <v>14</v>
+      </c>
+      <c r="J414" s="3">
+        <v>6</v>
+      </c>
+      <c r="K414" t="s">
+        <v>188</v>
+      </c>
+      <c r="L414">
+        <v>2</v>
+      </c>
+      <c r="M414" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>6</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D415" t="s">
+        <v>9</v>
+      </c>
+      <c r="E415" t="s">
+        <v>189</v>
+      </c>
+      <c r="F415" s="2">
+        <v>69</v>
+      </c>
+      <c r="G415" s="3">
+        <v>51</v>
+      </c>
+      <c r="H415" s="3">
+        <v>12</v>
+      </c>
+      <c r="I415" s="3">
+        <v>12</v>
+      </c>
+      <c r="J415" s="3">
+        <v>6</v>
+      </c>
+      <c r="K415" t="s">
+        <v>188</v>
+      </c>
+      <c r="L415">
+        <v>2</v>
+      </c>
+      <c r="M415" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>7</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D416" t="s">
+        <v>41</v>
+      </c>
+      <c r="E416" t="s">
+        <v>149</v>
+      </c>
+      <c r="F416" s="2">
+        <v>66</v>
+      </c>
+      <c r="G416" s="3">
+        <v>37</v>
+      </c>
+      <c r="H416" s="3">
+        <v>12</v>
+      </c>
+      <c r="I416" s="3">
+        <v>11</v>
+      </c>
+      <c r="J416" s="3">
+        <v>6</v>
+      </c>
+      <c r="K416" t="s">
+        <v>188</v>
+      </c>
+      <c r="L416">
+        <v>2</v>
+      </c>
+      <c r="M416" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>8</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D417" t="s">
+        <v>144</v>
+      </c>
+      <c r="E417" t="s">
+        <v>27</v>
+      </c>
+      <c r="F417" s="2">
+        <v>59</v>
+      </c>
+      <c r="G417" s="3">
+        <v>51</v>
+      </c>
+      <c r="H417" s="3">
+        <v>12</v>
+      </c>
+      <c r="I417" s="3">
+        <v>10</v>
+      </c>
+      <c r="J417" s="3">
+        <v>6</v>
+      </c>
+      <c r="K417" t="s">
+        <v>188</v>
+      </c>
+      <c r="L417">
+        <v>2</v>
+      </c>
+      <c r="M417" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>1</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D418" t="s">
+        <v>52</v>
+      </c>
+      <c r="E418" t="s">
+        <v>24</v>
+      </c>
+      <c r="F418" s="2">
+        <v>147</v>
+      </c>
+      <c r="G418" s="3">
+        <v>193</v>
+      </c>
+      <c r="H418" s="3">
+        <v>24</v>
+      </c>
+      <c r="I418" s="3">
+        <v>7</v>
+      </c>
+      <c r="J418" s="3">
+        <v>6</v>
+      </c>
+      <c r="K418" t="s">
+        <v>188</v>
+      </c>
+      <c r="L418">
+        <v>3</v>
+      </c>
+      <c r="M418" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>2</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D419" t="s">
+        <v>9</v>
+      </c>
+      <c r="E419" t="s">
+        <v>18</v>
+      </c>
+      <c r="F419" s="2">
+        <v>134</v>
+      </c>
+      <c r="G419" s="3">
+        <v>111</v>
+      </c>
+      <c r="H419" s="3">
+        <v>21</v>
+      </c>
+      <c r="I419" s="3">
+        <v>10</v>
+      </c>
+      <c r="J419" s="3">
+        <v>6</v>
+      </c>
+      <c r="K419" t="s">
+        <v>188</v>
+      </c>
+      <c r="L419">
+        <v>3</v>
+      </c>
+      <c r="M419" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>3</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D420" t="s">
+        <v>7</v>
+      </c>
+      <c r="E420" t="s">
+        <v>13</v>
+      </c>
+      <c r="F420" s="2">
+        <v>110</v>
+      </c>
+      <c r="G420" s="3">
+        <v>121</v>
+      </c>
+      <c r="H420" s="3">
+        <v>22</v>
+      </c>
+      <c r="I420" s="3">
+        <v>7</v>
+      </c>
+      <c r="J420" s="3">
+        <v>6</v>
+      </c>
+      <c r="K420" t="s">
+        <v>188</v>
+      </c>
+      <c r="L420">
+        <v>3</v>
+      </c>
+      <c r="M420" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>4</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D421" t="s">
+        <v>41</v>
+      </c>
+      <c r="E421" t="s">
+        <v>62</v>
+      </c>
+      <c r="F421" s="2">
+        <v>75</v>
+      </c>
+      <c r="G421" s="3">
+        <v>94</v>
+      </c>
+      <c r="H421" s="3">
+        <v>19</v>
+      </c>
+      <c r="I421" s="3">
+        <v>9</v>
+      </c>
+      <c r="J421" s="3">
+        <v>6</v>
+      </c>
+      <c r="K421" t="s">
+        <v>188</v>
+      </c>
+      <c r="L421">
+        <v>3</v>
+      </c>
+      <c r="M421" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>5</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D422" t="s">
+        <v>7</v>
+      </c>
+      <c r="E422" t="s">
+        <v>21</v>
+      </c>
+      <c r="F422" s="2">
+        <v>77</v>
+      </c>
+      <c r="G422" s="3">
+        <v>86</v>
+      </c>
+      <c r="H422" s="3">
+        <v>15</v>
+      </c>
+      <c r="I422" s="3">
+        <v>11</v>
+      </c>
+      <c r="J422" s="3">
+        <v>6</v>
+      </c>
+      <c r="K422" t="s">
+        <v>188</v>
+      </c>
+      <c r="L422">
+        <v>3</v>
+      </c>
+      <c r="M422" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>6</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D423" t="s">
+        <v>12</v>
+      </c>
+      <c r="E423" t="s">
+        <v>27</v>
+      </c>
+      <c r="F423" s="2">
+        <v>69</v>
+      </c>
+      <c r="G423" s="3">
+        <v>62</v>
+      </c>
+      <c r="H423" s="3">
+        <v>9</v>
+      </c>
+      <c r="I423" s="3">
+        <v>13</v>
+      </c>
+      <c r="J423" s="3">
+        <v>6</v>
+      </c>
+      <c r="K423" t="s">
+        <v>188</v>
+      </c>
+      <c r="L423">
+        <v>3</v>
+      </c>
+      <c r="M423" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>7</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D424" t="s">
+        <v>7</v>
+      </c>
+      <c r="E424" t="s">
+        <v>180</v>
+      </c>
+      <c r="F424" s="2">
+        <v>63</v>
+      </c>
+      <c r="G424" s="3">
+        <v>76</v>
+      </c>
+      <c r="H424" s="3">
+        <v>10</v>
+      </c>
+      <c r="I424" s="3">
+        <v>12</v>
+      </c>
+      <c r="J424" s="3">
+        <v>6</v>
+      </c>
+      <c r="K424" t="s">
+        <v>188</v>
+      </c>
+      <c r="L424">
+        <v>3</v>
+      </c>
+      <c r="M424" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>8</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D425" t="s">
+        <v>7</v>
+      </c>
+      <c r="E425" t="s">
+        <v>46</v>
+      </c>
+      <c r="F425" s="2">
+        <v>29</v>
+      </c>
+      <c r="G425" s="3">
+        <v>25</v>
+      </c>
+      <c r="H425" s="3">
+        <v>10</v>
+      </c>
+      <c r="I425" s="3">
+        <v>9</v>
+      </c>
+      <c r="J425" s="3">
+        <v>6</v>
+      </c>
+      <c r="K425" t="s">
+        <v>188</v>
+      </c>
+      <c r="L425">
+        <v>3</v>
+      </c>
+      <c r="M425" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>1</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D426" t="s">
+        <v>11</v>
+      </c>
+      <c r="E426" t="s">
+        <v>24</v>
+      </c>
+      <c r="F426" s="2">
+        <v>141</v>
+      </c>
+      <c r="G426" s="3">
+        <v>208</v>
+      </c>
+      <c r="H426" s="3">
+        <v>21</v>
+      </c>
+      <c r="I426" s="3">
+        <v>10</v>
+      </c>
+      <c r="J426" s="3">
+        <v>6</v>
+      </c>
+      <c r="K426" t="s">
+        <v>188</v>
+      </c>
+      <c r="L426">
+        <v>4</v>
+      </c>
+      <c r="M426" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>2</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D427" t="s">
+        <v>12</v>
+      </c>
+      <c r="E427" t="s">
+        <v>27</v>
+      </c>
+      <c r="F427" s="2">
+        <v>83</v>
+      </c>
+      <c r="G427" s="3">
+        <v>143</v>
+      </c>
+      <c r="H427" s="3">
+        <v>20</v>
+      </c>
+      <c r="I427" s="3">
+        <v>11</v>
+      </c>
+      <c r="J427" s="3">
+        <v>6</v>
+      </c>
+      <c r="K427" t="s">
+        <v>188</v>
+      </c>
+      <c r="L427">
+        <v>4</v>
+      </c>
+      <c r="M427" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>3</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D428" t="s">
+        <v>12</v>
+      </c>
+      <c r="E428" t="s">
+        <v>27</v>
+      </c>
+      <c r="F428" s="2">
+        <v>96</v>
+      </c>
+      <c r="G428" s="3">
+        <v>136</v>
+      </c>
+      <c r="H428" s="3">
+        <v>23</v>
+      </c>
+      <c r="I428" s="3">
+        <v>8</v>
+      </c>
+      <c r="J428" s="3">
+        <v>6</v>
+      </c>
+      <c r="K428" t="s">
+        <v>188</v>
+      </c>
+      <c r="L428">
+        <v>4</v>
+      </c>
+      <c r="M428" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>4</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D429" t="s">
+        <v>41</v>
+      </c>
+      <c r="E429" t="s">
+        <v>190</v>
+      </c>
+      <c r="F429" s="2">
+        <v>79</v>
+      </c>
+      <c r="G429" s="3">
+        <v>95</v>
+      </c>
+      <c r="H429" s="3">
+        <v>15</v>
+      </c>
+      <c r="I429" s="3">
+        <v>12</v>
+      </c>
+      <c r="J429" s="3">
+        <v>6</v>
+      </c>
+      <c r="K429" t="s">
+        <v>188</v>
+      </c>
+      <c r="L429">
+        <v>4</v>
+      </c>
+      <c r="M429" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>5</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D430" t="s">
+        <v>9</v>
+      </c>
+      <c r="E430" t="s">
+        <v>172</v>
+      </c>
+      <c r="F430" s="2">
+        <v>60</v>
+      </c>
+      <c r="G430" s="3">
+        <v>102</v>
+      </c>
+      <c r="H430" s="3">
+        <v>16</v>
+      </c>
+      <c r="I430" s="3">
+        <v>8</v>
+      </c>
+      <c r="J430" s="3">
+        <v>6</v>
+      </c>
+      <c r="K430" t="s">
+        <v>188</v>
+      </c>
+      <c r="L430">
+        <v>4</v>
+      </c>
+      <c r="M430" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>6</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D431" t="s">
+        <v>41</v>
+      </c>
+      <c r="E431" t="s">
+        <v>42</v>
+      </c>
+      <c r="F431" s="2">
+        <v>53</v>
+      </c>
+      <c r="G431" s="3">
+        <v>54</v>
+      </c>
+      <c r="H431" s="3">
+        <v>12</v>
+      </c>
+      <c r="I431" s="3">
+        <v>11</v>
+      </c>
+      <c r="J431" s="3">
+        <v>6</v>
+      </c>
+      <c r="K431" t="s">
+        <v>188</v>
+      </c>
+      <c r="L431">
+        <v>4</v>
+      </c>
+      <c r="M431" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>7</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D432" t="s">
+        <v>169</v>
+      </c>
+      <c r="E432" t="s">
+        <v>46</v>
+      </c>
+      <c r="F432" s="2">
+        <v>37</v>
+      </c>
+      <c r="G432" s="3">
+        <v>48</v>
+      </c>
+      <c r="H432" s="3">
+        <v>13</v>
+      </c>
+      <c r="I432" s="3">
+        <v>9</v>
+      </c>
+      <c r="J432" s="3">
+        <v>6</v>
+      </c>
+      <c r="K432" t="s">
+        <v>188</v>
+      </c>
+      <c r="L432">
+        <v>4</v>
+      </c>
+      <c r="M432" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>8</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D433" t="s">
+        <v>7</v>
+      </c>
+      <c r="E433" t="s">
+        <v>18</v>
+      </c>
+      <c r="F433" s="2">
+        <v>50</v>
+      </c>
+      <c r="G433" s="3">
+        <v>24</v>
+      </c>
+      <c r="H433" s="3">
+        <v>8</v>
+      </c>
+      <c r="I433" s="3">
+        <v>10</v>
+      </c>
+      <c r="J433" s="3">
+        <v>6</v>
+      </c>
+      <c r="K433" t="s">
+        <v>188</v>
+      </c>
+      <c r="L433">
+        <v>4</v>
+      </c>
+      <c r="M433" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>1</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D434" t="s">
+        <v>11</v>
+      </c>
+      <c r="E434" t="s">
+        <v>24</v>
+      </c>
+      <c r="F434" s="2">
+        <v>132</v>
+      </c>
+      <c r="G434" s="3">
+        <v>102</v>
+      </c>
+      <c r="H434" s="3">
+        <v>20</v>
+      </c>
+      <c r="I434" s="3">
+        <v>12</v>
+      </c>
+      <c r="J434" s="3">
+        <v>6</v>
+      </c>
+      <c r="K434" t="s">
+        <v>188</v>
+      </c>
+      <c r="L434">
+        <v>5</v>
+      </c>
+      <c r="M434" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>2</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D435" t="s">
+        <v>9</v>
+      </c>
+      <c r="E435" t="s">
+        <v>172</v>
+      </c>
+      <c r="F435" s="2">
+        <v>87</v>
+      </c>
+      <c r="G435" s="3">
+        <v>154</v>
+      </c>
+      <c r="H435" s="3">
+        <v>25</v>
+      </c>
+      <c r="I435" s="3">
+        <v>7</v>
+      </c>
+      <c r="J435" s="3">
+        <v>6</v>
+      </c>
+      <c r="K435" t="s">
+        <v>188</v>
+      </c>
+      <c r="L435">
+        <v>5</v>
+      </c>
+      <c r="M435" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>3</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D436" t="s">
+        <v>41</v>
+      </c>
+      <c r="E436" t="s">
+        <v>62</v>
+      </c>
+      <c r="F436" s="2">
+        <v>79</v>
+      </c>
+      <c r="G436" s="3">
+        <v>106</v>
+      </c>
+      <c r="H436" s="3">
+        <v>21</v>
+      </c>
+      <c r="I436" s="3">
+        <v>10</v>
+      </c>
+      <c r="J436" s="3">
+        <v>6</v>
+      </c>
+      <c r="K436" t="s">
+        <v>188</v>
+      </c>
+      <c r="L436">
+        <v>5</v>
+      </c>
+      <c r="M436" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>4</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D437" t="s">
+        <v>12</v>
+      </c>
+      <c r="E437" t="s">
+        <v>24</v>
+      </c>
+      <c r="F437" s="2">
+        <v>93</v>
+      </c>
+      <c r="G437" s="3">
+        <v>153</v>
+      </c>
+      <c r="H437" s="3">
+        <v>18</v>
+      </c>
+      <c r="I437" s="3">
+        <v>13</v>
+      </c>
+      <c r="J437" s="3">
+        <v>6</v>
+      </c>
+      <c r="K437" t="s">
+        <v>188</v>
+      </c>
+      <c r="L437">
+        <v>5</v>
+      </c>
+      <c r="M437" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>5</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D438" t="s">
+        <v>7</v>
+      </c>
+      <c r="E438" t="s">
+        <v>18</v>
+      </c>
+      <c r="F438" s="2">
+        <v>88</v>
+      </c>
+      <c r="G438" s="3">
+        <v>125</v>
+      </c>
+      <c r="H438" s="3">
+        <v>18</v>
+      </c>
+      <c r="I438" s="3">
+        <v>10</v>
+      </c>
+      <c r="J438" s="3">
+        <v>6</v>
+      </c>
+      <c r="K438" t="s">
+        <v>188</v>
+      </c>
+      <c r="L438">
+        <v>5</v>
+      </c>
+      <c r="M438" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>6</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D439" t="s">
+        <v>41</v>
+      </c>
+      <c r="E439" t="s">
+        <v>148</v>
+      </c>
+      <c r="F439" s="2">
+        <v>78</v>
+      </c>
+      <c r="G439" s="3">
+        <v>85</v>
+      </c>
+      <c r="H439" s="3">
+        <v>15</v>
+      </c>
+      <c r="I439" s="3">
+        <v>11</v>
+      </c>
+      <c r="J439" s="3">
+        <v>6</v>
+      </c>
+      <c r="K439" t="s">
+        <v>188</v>
+      </c>
+      <c r="L439">
+        <v>5</v>
+      </c>
+      <c r="M439" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>7</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D440" t="s">
+        <v>121</v>
+      </c>
+      <c r="E440" t="s">
+        <v>148</v>
+      </c>
+      <c r="F440" s="2">
+        <v>71</v>
+      </c>
+      <c r="G440" s="3">
+        <v>64</v>
+      </c>
+      <c r="H440" s="3">
+        <v>12</v>
+      </c>
+      <c r="I440" s="3">
+        <v>12</v>
+      </c>
+      <c r="J440" s="3">
+        <v>6</v>
+      </c>
+      <c r="K440" t="s">
+        <v>188</v>
+      </c>
+      <c r="L440">
+        <v>5</v>
+      </c>
+      <c r="M440" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>8</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D441" t="s">
+        <v>59</v>
+      </c>
+      <c r="E441" t="s">
+        <v>178</v>
+      </c>
+      <c r="F441" s="2">
+        <v>53</v>
+      </c>
+      <c r="G441" s="3">
+        <v>39</v>
+      </c>
+      <c r="H441" s="3">
+        <v>9</v>
+      </c>
+      <c r="I441" s="3">
+        <v>10</v>
+      </c>
+      <c r="J441" s="3">
+        <v>6</v>
+      </c>
+      <c r="K441" t="s">
+        <v>188</v>
+      </c>
+      <c r="L441">
+        <v>5</v>
+      </c>
+      <c r="M441" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>1</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D442" t="s">
+        <v>9</v>
+      </c>
+      <c r="E442" t="s">
+        <v>172</v>
+      </c>
+      <c r="F442" s="2">
+        <v>101</v>
+      </c>
+      <c r="G442" s="3">
+        <v>265</v>
+      </c>
+      <c r="H442" s="3">
+        <v>26</v>
+      </c>
+      <c r="I442" s="3">
+        <v>3</v>
+      </c>
+      <c r="J442" s="3">
+        <v>6</v>
+      </c>
+      <c r="K442" t="s">
+        <v>191</v>
+      </c>
+      <c r="L442">
+        <v>1</v>
+      </c>
+      <c r="M442" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>2</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D443" t="s">
+        <v>7</v>
+      </c>
+      <c r="E443" t="s">
+        <v>18</v>
+      </c>
+      <c r="F443" s="2">
+        <v>116</v>
+      </c>
+      <c r="G443" s="3">
+        <v>148</v>
+      </c>
+      <c r="H443" s="3">
+        <v>18</v>
+      </c>
+      <c r="I443" s="3">
+        <v>11</v>
+      </c>
+      <c r="J443" s="3">
+        <v>6</v>
+      </c>
+      <c r="K443" t="s">
+        <v>191</v>
+      </c>
+      <c r="L443">
+        <v>1</v>
+      </c>
+      <c r="M443" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>3</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D444" t="s">
+        <v>41</v>
+      </c>
+      <c r="E444" t="s">
+        <v>156</v>
+      </c>
+      <c r="F444" s="2">
+        <v>59</v>
+      </c>
+      <c r="G444" s="3">
+        <v>61</v>
+      </c>
+      <c r="H444" s="3">
+        <v>13</v>
+      </c>
+      <c r="I444" s="3">
+        <v>11</v>
+      </c>
+      <c r="J444" s="3">
+        <v>6</v>
+      </c>
+      <c r="K444" t="s">
+        <v>191</v>
+      </c>
+      <c r="L444">
+        <v>1</v>
+      </c>
+      <c r="M444" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>4</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D445" t="s">
+        <v>12</v>
+      </c>
+      <c r="E445" t="s">
+        <v>27</v>
+      </c>
+      <c r="F445" s="2">
+        <v>67</v>
+      </c>
+      <c r="G445" s="3">
+        <v>39</v>
+      </c>
+      <c r="H445" s="3">
+        <v>9</v>
+      </c>
+      <c r="I445" s="3">
+        <v>14</v>
+      </c>
+      <c r="J445" s="3">
+        <v>6</v>
+      </c>
+      <c r="K445" t="s">
+        <v>191</v>
+      </c>
+      <c r="L445">
+        <v>1</v>
+      </c>
+      <c r="M445" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>5</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D446" t="s">
+        <v>41</v>
+      </c>
+      <c r="E446" t="s">
+        <v>62</v>
+      </c>
+      <c r="F446" s="2">
+        <v>51</v>
+      </c>
+      <c r="G446" s="3">
+        <v>50</v>
+      </c>
+      <c r="H446" s="3">
+        <v>13</v>
+      </c>
+      <c r="I446" s="3">
+        <v>9</v>
+      </c>
+      <c r="J446" s="3">
+        <v>6</v>
+      </c>
+      <c r="K446" t="s">
+        <v>191</v>
+      </c>
+      <c r="L446">
+        <v>1</v>
+      </c>
+      <c r="M446" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>6</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D447" t="s">
+        <v>52</v>
+      </c>
+      <c r="E447" t="s">
+        <v>21</v>
+      </c>
+      <c r="F447" s="2">
+        <v>76</v>
+      </c>
+      <c r="G447" s="3">
+        <v>72</v>
+      </c>
+      <c r="H447" s="3">
+        <v>12</v>
+      </c>
+      <c r="I447" s="3">
+        <v>9</v>
+      </c>
+      <c r="J447" s="3">
+        <v>6</v>
+      </c>
+      <c r="K447" t="s">
+        <v>191</v>
+      </c>
+      <c r="L447">
+        <v>1</v>
+      </c>
+      <c r="M447" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>7</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D448" t="s">
+        <v>52</v>
+      </c>
+      <c r="E448" t="s">
+        <v>24</v>
+      </c>
+      <c r="F448" s="2">
+        <v>49</v>
+      </c>
+      <c r="G448" s="3">
+        <v>78</v>
+      </c>
+      <c r="H448" s="3">
+        <v>13</v>
+      </c>
+      <c r="I448" s="3">
+        <v>8</v>
+      </c>
+      <c r="J448" s="3">
+        <v>6</v>
+      </c>
+      <c r="K448" t="s">
+        <v>191</v>
+      </c>
+      <c r="L448">
+        <v>1</v>
+      </c>
+      <c r="M448" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>8</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D449" t="s">
+        <v>7</v>
+      </c>
+      <c r="E449" t="s">
+        <v>180</v>
+      </c>
+      <c r="F449" s="2">
+        <v>39</v>
+      </c>
+      <c r="G449" s="3">
+        <v>55</v>
+      </c>
+      <c r="H449" s="3">
+        <v>11</v>
+      </c>
+      <c r="I449" s="3">
+        <v>8</v>
+      </c>
+      <c r="J449" s="3">
+        <v>6</v>
+      </c>
+      <c r="K449" t="s">
+        <v>191</v>
+      </c>
+      <c r="L449">
+        <v>1</v>
+      </c>
+      <c r="M449" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>1</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D450" t="s">
+        <v>7</v>
+      </c>
+      <c r="E450" t="s">
+        <v>13</v>
+      </c>
+      <c r="F450" s="2">
+        <v>90</v>
+      </c>
+      <c r="G450" s="3">
+        <v>162</v>
+      </c>
+      <c r="H450" s="3">
+        <v>19</v>
+      </c>
+      <c r="I450" s="3">
+        <v>10</v>
+      </c>
+      <c r="J450" s="3">
+        <v>6</v>
+      </c>
+      <c r="K450" t="s">
+        <v>191</v>
+      </c>
+      <c r="L450">
+        <v>2</v>
+      </c>
+      <c r="M450" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>2</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D451" t="s">
+        <v>7</v>
+      </c>
+      <c r="E451" t="s">
+        <v>18</v>
+      </c>
+      <c r="F451" s="2">
+        <v>99</v>
+      </c>
+      <c r="G451" s="3">
+        <v>171</v>
+      </c>
+      <c r="H451" s="3">
+        <v>21</v>
+      </c>
+      <c r="I451" s="3">
+        <v>8</v>
+      </c>
+      <c r="J451" s="3">
+        <v>6</v>
+      </c>
+      <c r="K451" t="s">
+        <v>191</v>
+      </c>
+      <c r="L451">
+        <v>2</v>
+      </c>
+      <c r="M451" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>3</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D452" t="s">
+        <v>41</v>
+      </c>
+      <c r="E452" t="s">
+        <v>62</v>
+      </c>
+      <c r="F452" s="2">
+        <v>75</v>
+      </c>
+      <c r="G452" s="3">
+        <v>85</v>
+      </c>
+      <c r="H452" s="3">
+        <v>18</v>
+      </c>
+      <c r="I452" s="3">
+        <v>10</v>
+      </c>
+      <c r="J452" s="3">
+        <v>6</v>
+      </c>
+      <c r="K452" t="s">
+        <v>191</v>
+      </c>
+      <c r="L452">
+        <v>2</v>
+      </c>
+      <c r="M452" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>4</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D453" t="s">
+        <v>9</v>
+      </c>
+      <c r="E453" t="s">
+        <v>149</v>
+      </c>
+      <c r="F453" s="2">
+        <v>92</v>
+      </c>
+      <c r="G453" s="3">
+        <v>105</v>
+      </c>
+      <c r="H453" s="3">
+        <v>16</v>
+      </c>
+      <c r="I453" s="3">
+        <v>12</v>
+      </c>
+      <c r="J453" s="3">
+        <v>6</v>
+      </c>
+      <c r="K453" t="s">
+        <v>191</v>
+      </c>
+      <c r="L453">
+        <v>2</v>
+      </c>
+      <c r="M453" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>5</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D454" t="s">
+        <v>12</v>
+      </c>
+      <c r="E454" t="s">
+        <v>27</v>
+      </c>
+      <c r="F454" s="2">
+        <v>71</v>
+      </c>
+      <c r="G454" s="3">
+        <v>69</v>
+      </c>
+      <c r="H454" s="3">
+        <v>14</v>
+      </c>
+      <c r="I454" s="3">
+        <v>10</v>
+      </c>
+      <c r="J454" s="3">
+        <v>6</v>
+      </c>
+      <c r="K454" t="s">
+        <v>191</v>
+      </c>
+      <c r="L454">
+        <v>2</v>
+      </c>
+      <c r="M454" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>6</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D455" t="s">
+        <v>59</v>
+      </c>
+      <c r="E455" t="s">
+        <v>27</v>
+      </c>
+      <c r="F455" s="2">
+        <v>76</v>
+      </c>
+      <c r="G455" s="3">
+        <v>64</v>
+      </c>
+      <c r="H455" s="3">
+        <v>11</v>
+      </c>
+      <c r="I455" s="3">
+        <v>12</v>
+      </c>
+      <c r="J455" s="3">
+        <v>6</v>
+      </c>
+      <c r="K455" t="s">
+        <v>191</v>
+      </c>
+      <c r="L455">
+        <v>2</v>
+      </c>
+      <c r="M455" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>7</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D456" t="s">
+        <v>11</v>
+      </c>
+      <c r="E456" t="s">
+        <v>149</v>
+      </c>
+      <c r="F456" s="2">
+        <v>71</v>
+      </c>
+      <c r="G456" s="3">
+        <v>55</v>
+      </c>
+      <c r="H456" s="3">
+        <v>11</v>
+      </c>
+      <c r="I456" s="3">
+        <v>12</v>
+      </c>
+      <c r="J456" s="3">
+        <v>6</v>
+      </c>
+      <c r="K456" t="s">
+        <v>191</v>
+      </c>
+      <c r="L456">
+        <v>2</v>
+      </c>
+      <c r="M456" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>8</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D457" t="s">
+        <v>9</v>
+      </c>
+      <c r="E457" t="s">
+        <v>172</v>
+      </c>
+      <c r="F457" s="2">
+        <v>78</v>
+      </c>
+      <c r="G457" s="3">
+        <v>107</v>
+      </c>
+      <c r="H457" s="3">
+        <v>17</v>
+      </c>
+      <c r="I457" s="3">
+        <v>6</v>
+      </c>
+      <c r="J457" s="3">
+        <v>6</v>
+      </c>
+      <c r="K457" t="s">
+        <v>191</v>
+      </c>
+      <c r="L457">
+        <v>2</v>
+      </c>
+      <c r="M457" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>1</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D458" t="s">
+        <v>11</v>
+      </c>
+      <c r="E458" t="s">
+        <v>151</v>
+      </c>
+      <c r="F458" s="2">
+        <v>94</v>
+      </c>
+      <c r="G458" s="3">
+        <v>137</v>
+      </c>
+      <c r="H458" s="3">
+        <v>17</v>
+      </c>
+      <c r="I458" s="3">
+        <v>11</v>
+      </c>
+      <c r="J458" s="3">
+        <v>6</v>
+      </c>
+      <c r="K458" t="s">
+        <v>191</v>
+      </c>
+      <c r="L458">
+        <v>3</v>
+      </c>
+      <c r="M458" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>2</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D459" t="s">
+        <v>9</v>
+      </c>
+      <c r="E459" t="s">
+        <v>172</v>
+      </c>
+      <c r="F459" s="2">
+        <v>73</v>
+      </c>
+      <c r="G459" s="3">
+        <v>125</v>
+      </c>
+      <c r="H459" s="3">
+        <v>20</v>
+      </c>
+      <c r="I459" s="3">
+        <v>8</v>
+      </c>
+      <c r="J459" s="3">
+        <v>6</v>
+      </c>
+      <c r="K459" t="s">
+        <v>191</v>
+      </c>
+      <c r="L459">
+        <v>3</v>
+      </c>
+      <c r="M459" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>3</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D460" t="s">
+        <v>12</v>
+      </c>
+      <c r="E460" t="s">
+        <v>58</v>
+      </c>
+      <c r="F460" s="2">
+        <v>76</v>
+      </c>
+      <c r="G460" s="3">
+        <v>155</v>
+      </c>
+      <c r="H460" s="3">
+        <v>19</v>
+      </c>
+      <c r="I460" s="3">
+        <v>8</v>
+      </c>
+      <c r="J460" s="3">
+        <v>6</v>
+      </c>
+      <c r="K460" t="s">
+        <v>191</v>
+      </c>
+      <c r="L460">
+        <v>3</v>
+      </c>
+      <c r="M460" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>4</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D461" t="s">
+        <v>11</v>
+      </c>
+      <c r="E461" t="s">
+        <v>21</v>
+      </c>
+      <c r="F461" s="2">
+        <v>77</v>
+      </c>
+      <c r="G461" s="3">
+        <v>101</v>
+      </c>
+      <c r="H461" s="3">
+        <v>16</v>
+      </c>
+      <c r="I461" s="3">
+        <v>11</v>
+      </c>
+      <c r="J461" s="3">
+        <v>6</v>
+      </c>
+      <c r="K461" t="s">
+        <v>191</v>
+      </c>
+      <c r="L461">
+        <v>3</v>
+      </c>
+      <c r="M461" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>5</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D462" t="s">
+        <v>12</v>
+      </c>
+      <c r="E462" t="s">
+        <v>27</v>
+      </c>
+      <c r="F462" s="2">
+        <v>80</v>
+      </c>
+      <c r="G462" s="3">
+        <v>97</v>
+      </c>
+      <c r="H462" s="3">
+        <v>17</v>
+      </c>
+      <c r="I462" s="3">
+        <v>7</v>
+      </c>
+      <c r="J462" s="3">
+        <v>6</v>
+      </c>
+      <c r="K462" t="s">
+        <v>191</v>
+      </c>
+      <c r="L462">
+        <v>3</v>
+      </c>
+      <c r="M462" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>6</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D463" t="s">
+        <v>9</v>
+      </c>
+      <c r="E463" t="s">
+        <v>18</v>
+      </c>
+      <c r="F463" s="2">
+        <v>85</v>
+      </c>
+      <c r="G463" s="3">
+        <v>129</v>
+      </c>
+      <c r="H463" s="3">
+        <v>16</v>
+      </c>
+      <c r="I463" s="3">
+        <v>6</v>
+      </c>
+      <c r="J463" s="3">
+        <v>6</v>
+      </c>
+      <c r="K463" t="s">
+        <v>191</v>
+      </c>
+      <c r="L463">
+        <v>3</v>
+      </c>
+      <c r="M463" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>7</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D464" t="s">
+        <v>9</v>
+      </c>
+      <c r="E464" t="s">
+        <v>148</v>
+      </c>
+      <c r="F464" s="2">
+        <v>67</v>
+      </c>
+      <c r="G464" s="3">
+        <v>53</v>
+      </c>
+      <c r="H464" s="3">
+        <v>9</v>
+      </c>
+      <c r="I464" s="3">
+        <v>10</v>
+      </c>
+      <c r="J464" s="3">
+        <v>6</v>
+      </c>
+      <c r="K464" t="s">
+        <v>191</v>
+      </c>
+      <c r="L464">
+        <v>3</v>
+      </c>
+      <c r="M464" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>8</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D465" t="s">
+        <v>41</v>
+      </c>
+      <c r="E465" t="s">
+        <v>18</v>
+      </c>
+      <c r="F465" s="2">
+        <v>38</v>
+      </c>
+      <c r="G465" s="3">
+        <v>7</v>
+      </c>
+      <c r="H465" s="3">
+        <v>6</v>
+      </c>
+      <c r="I465" s="3">
+        <v>11</v>
+      </c>
+      <c r="J465" s="3">
+        <v>6</v>
+      </c>
+      <c r="K465" t="s">
+        <v>191</v>
+      </c>
+      <c r="L465">
+        <v>3</v>
+      </c>
+      <c r="M465" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>1</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D466" t="s">
+        <v>41</v>
+      </c>
+      <c r="E466" t="s">
+        <v>27</v>
+      </c>
+      <c r="F466" s="2">
+        <v>115</v>
+      </c>
+      <c r="G466" s="3">
+        <v>159</v>
+      </c>
+      <c r="H466" s="3">
+        <v>21</v>
+      </c>
+      <c r="I466" s="3">
+        <v>8</v>
+      </c>
+      <c r="J466" s="3">
+        <v>6</v>
+      </c>
+      <c r="K466" t="s">
+        <v>191</v>
+      </c>
+      <c r="L466">
+        <v>4</v>
+      </c>
+      <c r="M466" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>2</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D467" t="s">
+        <v>11</v>
+      </c>
+      <c r="E467" t="s">
+        <v>21</v>
+      </c>
+      <c r="F467" s="2">
+        <v>73</v>
+      </c>
+      <c r="G467" s="3">
+        <v>172</v>
+      </c>
+      <c r="H467" s="3">
+        <v>19</v>
+      </c>
+      <c r="I467" s="3">
+        <v>10</v>
+      </c>
+      <c r="J467" s="3">
+        <v>6</v>
+      </c>
+      <c r="K467" t="s">
+        <v>191</v>
+      </c>
+      <c r="L467">
+        <v>4</v>
+      </c>
+      <c r="M467" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>3</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D468" t="s">
+        <v>59</v>
+      </c>
+      <c r="E468" t="s">
+        <v>18</v>
+      </c>
+      <c r="F468" s="2">
+        <v>105</v>
+      </c>
+      <c r="G468" s="3">
+        <v>101</v>
+      </c>
+      <c r="H468" s="3">
+        <v>18</v>
+      </c>
+      <c r="I468" s="3">
+        <v>10</v>
+      </c>
+      <c r="J468" s="3">
+        <v>6</v>
+      </c>
+      <c r="K468" t="s">
+        <v>191</v>
+      </c>
+      <c r="L468">
+        <v>4</v>
+      </c>
+      <c r="M468" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>4</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D469" t="s">
+        <v>12</v>
+      </c>
+      <c r="E469" t="s">
+        <v>27</v>
+      </c>
+      <c r="F469" s="2">
+        <v>68</v>
+      </c>
+      <c r="G469" s="3">
+        <v>91</v>
+      </c>
+      <c r="H469" s="3">
+        <v>18</v>
+      </c>
+      <c r="I469" s="3">
+        <v>8</v>
+      </c>
+      <c r="J469" s="3">
+        <v>6</v>
+      </c>
+      <c r="K469" t="s">
+        <v>191</v>
+      </c>
+      <c r="L469">
+        <v>4</v>
+      </c>
+      <c r="M469" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>5</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D470" t="s">
+        <v>9</v>
+      </c>
+      <c r="E470" t="s">
+        <v>13</v>
+      </c>
+      <c r="F470" s="2">
+        <v>65</v>
+      </c>
+      <c r="G470" s="3">
+        <v>158</v>
+      </c>
+      <c r="H470" s="3">
+        <v>14</v>
+      </c>
+      <c r="I470" s="3">
+        <v>10</v>
+      </c>
+      <c r="J470" s="3">
+        <v>6</v>
+      </c>
+      <c r="K470" t="s">
+        <v>191</v>
+      </c>
+      <c r="L470">
+        <v>4</v>
+      </c>
+      <c r="M470" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>6</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D471" t="s">
+        <v>11</v>
+      </c>
+      <c r="E471" t="s">
+        <v>27</v>
+      </c>
+      <c r="F471" s="2">
+        <v>41</v>
+      </c>
+      <c r="G471" s="3">
+        <v>49</v>
+      </c>
+      <c r="H471" s="3">
+        <v>14</v>
+      </c>
+      <c r="I471" s="3">
+        <v>7</v>
+      </c>
+      <c r="J471" s="3">
+        <v>6</v>
+      </c>
+      <c r="K471" t="s">
+        <v>191</v>
+      </c>
+      <c r="L471">
+        <v>4</v>
+      </c>
+      <c r="M471" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>7</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D472" t="s">
+        <v>7</v>
+      </c>
+      <c r="E472" t="s">
+        <v>148</v>
+      </c>
+      <c r="F472" s="2">
+        <v>48</v>
+      </c>
+      <c r="G472" s="3">
+        <v>39</v>
+      </c>
+      <c r="H472" s="3">
+        <v>8</v>
+      </c>
+      <c r="I472" s="3">
+        <v>10</v>
+      </c>
+      <c r="J472" s="3">
+        <v>6</v>
+      </c>
+      <c r="K472" t="s">
+        <v>191</v>
+      </c>
+      <c r="L472">
+        <v>4</v>
+      </c>
+      <c r="M472" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>8</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D473" t="s">
+        <v>12</v>
+      </c>
+      <c r="E473" t="s">
+        <v>64</v>
+      </c>
+      <c r="F473" s="2">
+        <v>49</v>
+      </c>
+      <c r="G473" s="3">
+        <v>25</v>
+      </c>
+      <c r="H473" s="3">
+        <v>8</v>
+      </c>
+      <c r="I473" s="3">
+        <v>10</v>
+      </c>
+      <c r="J473" s="3">
+        <v>6</v>
+      </c>
+      <c r="K473" t="s">
+        <v>191</v>
+      </c>
+      <c r="L473">
+        <v>4</v>
+      </c>
+      <c r="M473" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>1</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D474" t="s">
+        <v>9</v>
+      </c>
+      <c r="E474" t="s">
+        <v>21</v>
+      </c>
+      <c r="F474" s="2">
+        <v>108</v>
+      </c>
+      <c r="G474" s="3">
+        <v>199</v>
+      </c>
+      <c r="H474" s="3">
+        <v>27</v>
+      </c>
+      <c r="I474" s="3">
+        <v>6</v>
+      </c>
+      <c r="J474" s="3">
+        <v>6</v>
+      </c>
+      <c r="K474" t="s">
+        <v>191</v>
+      </c>
+      <c r="L474">
+        <v>5</v>
+      </c>
+      <c r="M474" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>2</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D475" t="s">
+        <v>7</v>
+      </c>
+      <c r="E475" t="s">
+        <v>18</v>
+      </c>
+      <c r="F475" s="2">
+        <v>168</v>
+      </c>
+      <c r="G475" s="3">
+        <v>132</v>
+      </c>
+      <c r="H475" s="3">
+        <v>24</v>
+      </c>
+      <c r="I475" s="3">
+        <v>9</v>
+      </c>
+      <c r="J475" s="3">
+        <v>6</v>
+      </c>
+      <c r="K475" t="s">
+        <v>191</v>
+      </c>
+      <c r="L475">
+        <v>5</v>
+      </c>
+      <c r="M475" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>3</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D476" t="s">
+        <v>59</v>
+      </c>
+      <c r="E476" t="s">
+        <v>27</v>
+      </c>
+      <c r="F476" s="2">
+        <v>72</v>
+      </c>
+      <c r="G476" s="3">
+        <v>121</v>
+      </c>
+      <c r="H476" s="3">
+        <v>16</v>
+      </c>
+      <c r="I476" s="3">
+        <v>13</v>
+      </c>
+      <c r="J476" s="3">
+        <v>6</v>
+      </c>
+      <c r="K476" t="s">
+        <v>191</v>
+      </c>
+      <c r="L476">
+        <v>5</v>
+      </c>
+      <c r="M476" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>4</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D477" t="s">
+        <v>11</v>
+      </c>
+      <c r="E477" t="s">
+        <v>27</v>
+      </c>
+      <c r="F477" s="2">
+        <v>75</v>
+      </c>
+      <c r="G477" s="3">
+        <v>81</v>
+      </c>
+      <c r="H477" s="3">
+        <v>15</v>
+      </c>
+      <c r="I477" s="3">
+        <v>13</v>
+      </c>
+      <c r="J477" s="3">
+        <v>6</v>
+      </c>
+      <c r="K477" t="s">
+        <v>191</v>
+      </c>
+      <c r="L477">
+        <v>5</v>
+      </c>
+      <c r="M477" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>5</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D478" t="s">
+        <v>41</v>
+      </c>
+      <c r="E478" t="s">
+        <v>172</v>
+      </c>
+      <c r="F478" s="2">
+        <v>71</v>
+      </c>
+      <c r="G478" s="3">
+        <v>87</v>
+      </c>
+      <c r="H478" s="3">
+        <v>17</v>
+      </c>
+      <c r="I478" s="3">
+        <v>9</v>
+      </c>
+      <c r="J478" s="3">
+        <v>6</v>
+      </c>
+      <c r="K478" t="s">
+        <v>191</v>
+      </c>
+      <c r="L478">
+        <v>5</v>
+      </c>
+      <c r="M478" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>6</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D479" t="s">
+        <v>7</v>
+      </c>
+      <c r="E479" t="s">
+        <v>58</v>
+      </c>
+      <c r="F479" s="2">
+        <v>54</v>
+      </c>
+      <c r="G479" s="3">
+        <v>112</v>
+      </c>
+      <c r="H479" s="3">
+        <v>12</v>
+      </c>
+      <c r="I479" s="3">
+        <v>11</v>
+      </c>
+      <c r="J479" s="3">
+        <v>6</v>
+      </c>
+      <c r="K479" t="s">
+        <v>191</v>
+      </c>
+      <c r="L479">
+        <v>5</v>
+      </c>
+      <c r="M479" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>7</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D480" t="s">
+        <v>183</v>
+      </c>
+      <c r="E480" t="s">
+        <v>24</v>
+      </c>
+      <c r="F480" s="2">
+        <v>63</v>
+      </c>
+      <c r="G480" s="3">
+        <v>62</v>
+      </c>
+      <c r="H480" s="3">
+        <v>12</v>
+      </c>
+      <c r="I480" s="3">
+        <v>11</v>
+      </c>
+      <c r="J480" s="3">
+        <v>6</v>
+      </c>
+      <c r="K480" t="s">
+        <v>191</v>
+      </c>
+      <c r="L480">
+        <v>5</v>
+      </c>
+      <c r="M480" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>8</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D481" t="s">
+        <v>41</v>
+      </c>
+      <c r="E481" t="s">
+        <v>62</v>
+      </c>
+      <c r="F481" s="2">
+        <v>31</v>
+      </c>
+      <c r="G481" s="3">
+        <v>13</v>
+      </c>
+      <c r="H481" s="3">
+        <v>8</v>
+      </c>
+      <c r="I481" s="3">
+        <v>9</v>
+      </c>
+      <c r="J481" s="3">
+        <v>6</v>
+      </c>
+      <c r="K481" t="s">
+        <v>191</v>
+      </c>
+      <c r="L481">
+        <v>5</v>
+      </c>
+      <c r="M481" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J482" s="3"/>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J483" s="3"/>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J484" s="3"/>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J485" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\wzmnz_game_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4CA8D5-04ED-428D-B390-CD41B6ADCD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99838372-9D83-46FF-AB74-7E53EFD5D6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{FB48B202-EBC4-4DF3-96AB-433FACB95B1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB48B202-EBC4-4DF3-96AB-433FACB95B1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="196">
   <si>
     <t>阵容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1166,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2E6C9-7049-424A-A14B-939D1CD70783}">
-  <dimension ref="A1:M485"/>
+  <dimension ref="A1:M521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="C477" sqref="C477"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20903,16 +20903,1644 @@
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J482" s="3"/>
+      <c r="A482">
+        <v>1</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D482" t="s">
+        <v>9</v>
+      </c>
+      <c r="E482" t="s">
+        <v>172</v>
+      </c>
+      <c r="F482" s="2">
+        <v>99</v>
+      </c>
+      <c r="G482" s="3">
+        <v>274</v>
+      </c>
+      <c r="H482" s="3">
+        <v>26</v>
+      </c>
+      <c r="I482" s="3">
+        <v>5</v>
+      </c>
+      <c r="J482">
+        <v>7</v>
+      </c>
+      <c r="K482" t="s">
+        <v>38</v>
+      </c>
+      <c r="L482">
+        <v>1</v>
+      </c>
+      <c r="M482" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J483" s="3"/>
+      <c r="A483">
+        <v>2</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D483" t="s">
+        <v>41</v>
+      </c>
+      <c r="E483" t="s">
+        <v>27</v>
+      </c>
+      <c r="F483" s="2">
+        <v>91</v>
+      </c>
+      <c r="G483" s="3">
+        <v>131</v>
+      </c>
+      <c r="H483" s="3">
+        <v>19</v>
+      </c>
+      <c r="I483" s="3">
+        <v>12</v>
+      </c>
+      <c r="J483">
+        <v>7</v>
+      </c>
+      <c r="K483" t="s">
+        <v>39</v>
+      </c>
+      <c r="L483">
+        <v>1</v>
+      </c>
+      <c r="M483" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J484" s="3"/>
+      <c r="A484">
+        <v>3</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D484" t="s">
+        <v>41</v>
+      </c>
+      <c r="E484" t="s">
+        <v>62</v>
+      </c>
+      <c r="F484" s="2">
+        <v>55</v>
+      </c>
+      <c r="G484" s="3">
+        <v>70</v>
+      </c>
+      <c r="H484" s="3">
+        <v>14</v>
+      </c>
+      <c r="I484" s="3">
+        <v>10</v>
+      </c>
+      <c r="J484">
+        <v>7</v>
+      </c>
+      <c r="K484" t="s">
+        <v>39</v>
+      </c>
+      <c r="L484">
+        <v>1</v>
+      </c>
+      <c r="M484" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J485" s="3"/>
+      <c r="A485">
+        <v>4</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D485" t="s">
+        <v>52</v>
+      </c>
+      <c r="E485" t="s">
+        <v>24</v>
+      </c>
+      <c r="F485" s="2">
+        <v>65</v>
+      </c>
+      <c r="G485" s="3">
+        <v>104</v>
+      </c>
+      <c r="H485" s="3">
+        <v>15</v>
+      </c>
+      <c r="I485" s="3">
+        <v>9</v>
+      </c>
+      <c r="J485">
+        <v>7</v>
+      </c>
+      <c r="K485" t="s">
+        <v>39</v>
+      </c>
+      <c r="L485">
+        <v>1</v>
+      </c>
+      <c r="M485" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>5</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D486" t="s">
+        <v>9</v>
+      </c>
+      <c r="E486" t="s">
+        <v>150</v>
+      </c>
+      <c r="F486" s="2">
+        <v>62</v>
+      </c>
+      <c r="G486" s="3">
+        <v>83</v>
+      </c>
+      <c r="H486" s="3">
+        <v>13</v>
+      </c>
+      <c r="I486" s="3">
+        <v>10</v>
+      </c>
+      <c r="J486">
+        <v>7</v>
+      </c>
+      <c r="K486" t="s">
+        <v>39</v>
+      </c>
+      <c r="L486">
+        <v>1</v>
+      </c>
+      <c r="M486" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>6</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D487" t="s">
+        <v>41</v>
+      </c>
+      <c r="E487" t="s">
+        <v>150</v>
+      </c>
+      <c r="F487" s="2">
+        <v>59</v>
+      </c>
+      <c r="G487" s="3">
+        <v>26</v>
+      </c>
+      <c r="H487" s="3">
+        <v>11</v>
+      </c>
+      <c r="I487" s="3">
+        <v>11</v>
+      </c>
+      <c r="J487">
+        <v>7</v>
+      </c>
+      <c r="K487" t="s">
+        <v>39</v>
+      </c>
+      <c r="L487">
+        <v>1</v>
+      </c>
+      <c r="M487" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>7</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D488" t="s">
+        <v>7</v>
+      </c>
+      <c r="E488" t="s">
+        <v>180</v>
+      </c>
+      <c r="F488" s="2">
+        <v>48</v>
+      </c>
+      <c r="G488" s="3">
+        <v>68</v>
+      </c>
+      <c r="H488" s="3">
+        <v>11</v>
+      </c>
+      <c r="I488" s="3">
+        <v>8</v>
+      </c>
+      <c r="J488">
+        <v>7</v>
+      </c>
+      <c r="K488" t="s">
+        <v>39</v>
+      </c>
+      <c r="L488">
+        <v>1</v>
+      </c>
+      <c r="M488" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>8</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D489" t="s">
+        <v>41</v>
+      </c>
+      <c r="E489" t="s">
+        <v>27</v>
+      </c>
+      <c r="F489" s="2">
+        <v>40</v>
+      </c>
+      <c r="G489" s="3">
+        <v>61</v>
+      </c>
+      <c r="H489" s="3">
+        <v>10</v>
+      </c>
+      <c r="I489" s="3">
+        <v>8</v>
+      </c>
+      <c r="J489">
+        <v>7</v>
+      </c>
+      <c r="K489" t="s">
+        <v>39</v>
+      </c>
+      <c r="L489">
+        <v>1</v>
+      </c>
+      <c r="M489" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>1</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D490" t="s">
+        <v>12</v>
+      </c>
+      <c r="E490" t="s">
+        <v>58</v>
+      </c>
+      <c r="F490" s="2">
+        <v>141</v>
+      </c>
+      <c r="G490" s="3">
+        <v>194</v>
+      </c>
+      <c r="H490" s="3">
+        <v>25</v>
+      </c>
+      <c r="I490" s="3">
+        <v>7</v>
+      </c>
+      <c r="J490">
+        <v>7</v>
+      </c>
+      <c r="K490" t="s">
+        <v>39</v>
+      </c>
+      <c r="L490">
+        <v>2</v>
+      </c>
+      <c r="M490" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>2</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D491" t="s">
+        <v>7</v>
+      </c>
+      <c r="E491" t="s">
+        <v>46</v>
+      </c>
+      <c r="F491" s="2">
+        <v>81</v>
+      </c>
+      <c r="G491" s="3">
+        <v>134</v>
+      </c>
+      <c r="H491" s="3">
+        <v>24</v>
+      </c>
+      <c r="I491" s="3">
+        <v>8</v>
+      </c>
+      <c r="J491">
+        <v>7</v>
+      </c>
+      <c r="K491" t="s">
+        <v>39</v>
+      </c>
+      <c r="L491">
+        <v>2</v>
+      </c>
+      <c r="M491" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>3</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D492" t="s">
+        <v>7</v>
+      </c>
+      <c r="E492" t="s">
+        <v>21</v>
+      </c>
+      <c r="F492" s="2">
+        <v>108</v>
+      </c>
+      <c r="G492" s="3">
+        <v>163</v>
+      </c>
+      <c r="H492" s="3">
+        <v>18</v>
+      </c>
+      <c r="I492" s="3">
+        <v>11</v>
+      </c>
+      <c r="J492">
+        <v>7</v>
+      </c>
+      <c r="K492" t="s">
+        <v>39</v>
+      </c>
+      <c r="L492">
+        <v>2</v>
+      </c>
+      <c r="M492" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>4</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D493" t="s">
+        <v>52</v>
+      </c>
+      <c r="E493" t="s">
+        <v>24</v>
+      </c>
+      <c r="F493" s="2">
+        <v>70</v>
+      </c>
+      <c r="G493" s="3">
+        <v>91</v>
+      </c>
+      <c r="H493" s="3">
+        <v>14</v>
+      </c>
+      <c r="I493" s="3">
+        <v>13</v>
+      </c>
+      <c r="J493">
+        <v>7</v>
+      </c>
+      <c r="K493" t="s">
+        <v>39</v>
+      </c>
+      <c r="L493">
+        <v>2</v>
+      </c>
+      <c r="M493" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>5</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D494" t="s">
+        <v>12</v>
+      </c>
+      <c r="E494" t="s">
+        <v>27</v>
+      </c>
+      <c r="F494" s="2">
+        <v>85</v>
+      </c>
+      <c r="G494" s="3">
+        <v>115</v>
+      </c>
+      <c r="H494" s="3">
+        <v>16</v>
+      </c>
+      <c r="I494" s="3">
+        <v>10</v>
+      </c>
+      <c r="J494">
+        <v>7</v>
+      </c>
+      <c r="K494" t="s">
+        <v>39</v>
+      </c>
+      <c r="L494">
+        <v>2</v>
+      </c>
+      <c r="M494" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>6</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D495" t="s">
+        <v>9</v>
+      </c>
+      <c r="E495" t="s">
+        <v>172</v>
+      </c>
+      <c r="F495" s="2">
+        <v>75</v>
+      </c>
+      <c r="G495" s="3">
+        <v>70</v>
+      </c>
+      <c r="H495" s="3">
+        <v>13</v>
+      </c>
+      <c r="I495" s="3">
+        <v>9</v>
+      </c>
+      <c r="J495">
+        <v>7</v>
+      </c>
+      <c r="K495" t="s">
+        <v>39</v>
+      </c>
+      <c r="L495">
+        <v>2</v>
+      </c>
+      <c r="M495" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>7</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D496" t="s">
+        <v>41</v>
+      </c>
+      <c r="E496" t="s">
+        <v>172</v>
+      </c>
+      <c r="F496" s="2">
+        <v>55</v>
+      </c>
+      <c r="G496" s="3">
+        <v>27</v>
+      </c>
+      <c r="H496" s="3">
+        <v>10</v>
+      </c>
+      <c r="I496" s="3">
+        <v>11</v>
+      </c>
+      <c r="J496">
+        <v>7</v>
+      </c>
+      <c r="K496" t="s">
+        <v>39</v>
+      </c>
+      <c r="L496">
+        <v>2</v>
+      </c>
+      <c r="M496" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>8</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D497" t="s">
+        <v>11</v>
+      </c>
+      <c r="E497" t="s">
+        <v>21</v>
+      </c>
+      <c r="F497" s="2">
+        <v>54</v>
+      </c>
+      <c r="G497" s="3">
+        <v>13</v>
+      </c>
+      <c r="H497" s="3">
+        <v>7</v>
+      </c>
+      <c r="I497" s="3">
+        <v>11</v>
+      </c>
+      <c r="J497">
+        <v>7</v>
+      </c>
+      <c r="K497" t="s">
+        <v>39</v>
+      </c>
+      <c r="L497">
+        <v>2</v>
+      </c>
+      <c r="M497" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>1</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D498" t="s">
+        <v>12</v>
+      </c>
+      <c r="E498" t="s">
+        <v>46</v>
+      </c>
+      <c r="F498" s="2">
+        <v>108</v>
+      </c>
+      <c r="G498" s="3">
+        <v>184</v>
+      </c>
+      <c r="H498" s="3">
+        <v>23</v>
+      </c>
+      <c r="I498" s="3">
+        <v>9</v>
+      </c>
+      <c r="J498">
+        <v>7</v>
+      </c>
+      <c r="K498" t="s">
+        <v>39</v>
+      </c>
+      <c r="L498">
+        <v>3</v>
+      </c>
+      <c r="M498" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>2</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D499" t="s">
+        <v>11</v>
+      </c>
+      <c r="E499" t="s">
+        <v>150</v>
+      </c>
+      <c r="F499" s="2">
+        <v>120</v>
+      </c>
+      <c r="G499" s="3">
+        <v>152</v>
+      </c>
+      <c r="H499" s="3">
+        <v>22</v>
+      </c>
+      <c r="I499" s="3">
+        <v>10</v>
+      </c>
+      <c r="J499">
+        <v>7</v>
+      </c>
+      <c r="K499" t="s">
+        <v>39</v>
+      </c>
+      <c r="L499">
+        <v>3</v>
+      </c>
+      <c r="M499" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>3</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D500" t="s">
+        <v>9</v>
+      </c>
+      <c r="E500" t="s">
+        <v>172</v>
+      </c>
+      <c r="F500" s="2">
+        <v>90</v>
+      </c>
+      <c r="G500" s="3">
+        <v>145</v>
+      </c>
+      <c r="H500" s="3">
+        <v>20</v>
+      </c>
+      <c r="I500" s="3">
+        <v>9</v>
+      </c>
+      <c r="J500">
+        <v>7</v>
+      </c>
+      <c r="K500" t="s">
+        <v>39</v>
+      </c>
+      <c r="L500">
+        <v>3</v>
+      </c>
+      <c r="M500" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>4</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D501" t="s">
+        <v>11</v>
+      </c>
+      <c r="E501" t="s">
+        <v>24</v>
+      </c>
+      <c r="F501" s="2">
+        <v>81</v>
+      </c>
+      <c r="G501" s="3">
+        <v>110</v>
+      </c>
+      <c r="H501" s="3">
+        <v>13</v>
+      </c>
+      <c r="I501" s="3">
+        <v>14</v>
+      </c>
+      <c r="J501">
+        <v>7</v>
+      </c>
+      <c r="K501" t="s">
+        <v>39</v>
+      </c>
+      <c r="L501">
+        <v>3</v>
+      </c>
+      <c r="M501" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>5</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D502" t="s">
+        <v>9</v>
+      </c>
+      <c r="E502" t="s">
+        <v>172</v>
+      </c>
+      <c r="F502" s="2">
+        <v>62</v>
+      </c>
+      <c r="G502" s="3">
+        <v>100</v>
+      </c>
+      <c r="H502" s="3">
+        <v>18</v>
+      </c>
+      <c r="I502" s="3">
+        <v>8</v>
+      </c>
+      <c r="J502">
+        <v>7</v>
+      </c>
+      <c r="K502" t="s">
+        <v>39</v>
+      </c>
+      <c r="L502">
+        <v>3</v>
+      </c>
+      <c r="M502" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>6</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D503" t="s">
+        <v>11</v>
+      </c>
+      <c r="E503" t="s">
+        <v>180</v>
+      </c>
+      <c r="F503" s="2">
+        <v>71</v>
+      </c>
+      <c r="G503" s="3">
+        <v>45</v>
+      </c>
+      <c r="H503" s="3">
+        <v>12</v>
+      </c>
+      <c r="I503" s="3">
+        <v>12</v>
+      </c>
+      <c r="J503">
+        <v>7</v>
+      </c>
+      <c r="K503" t="s">
+        <v>39</v>
+      </c>
+      <c r="L503">
+        <v>3</v>
+      </c>
+      <c r="M503" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>7</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D504" t="s">
+        <v>7</v>
+      </c>
+      <c r="E504" t="s">
+        <v>148</v>
+      </c>
+      <c r="F504" s="2">
+        <v>78</v>
+      </c>
+      <c r="G504" s="3">
+        <v>48</v>
+      </c>
+      <c r="H504" s="3">
+        <v>13</v>
+      </c>
+      <c r="I504" s="3">
+        <v>10</v>
+      </c>
+      <c r="J504">
+        <v>7</v>
+      </c>
+      <c r="K504" t="s">
+        <v>39</v>
+      </c>
+      <c r="L504">
+        <v>3</v>
+      </c>
+      <c r="M504" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>8</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D505" t="s">
+        <v>7</v>
+      </c>
+      <c r="E505" t="s">
+        <v>18</v>
+      </c>
+      <c r="F505" s="2">
+        <v>66</v>
+      </c>
+      <c r="G505" s="3">
+        <v>32</v>
+      </c>
+      <c r="H505" s="3">
+        <v>9</v>
+      </c>
+      <c r="I505" s="3">
+        <v>10</v>
+      </c>
+      <c r="J505">
+        <v>7</v>
+      </c>
+      <c r="K505" t="s">
+        <v>39</v>
+      </c>
+      <c r="L505">
+        <v>3</v>
+      </c>
+      <c r="M505" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>1</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D506" t="s">
+        <v>41</v>
+      </c>
+      <c r="E506" t="s">
+        <v>62</v>
+      </c>
+      <c r="F506" s="2">
+        <v>96</v>
+      </c>
+      <c r="G506" s="3">
+        <v>191</v>
+      </c>
+      <c r="H506" s="3">
+        <v>24</v>
+      </c>
+      <c r="I506" s="3">
+        <v>10</v>
+      </c>
+      <c r="J506">
+        <v>7</v>
+      </c>
+      <c r="K506" t="s">
+        <v>39</v>
+      </c>
+      <c r="L506">
+        <v>4</v>
+      </c>
+      <c r="M506" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>2</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D507" t="s">
+        <v>11</v>
+      </c>
+      <c r="E507" t="s">
+        <v>18</v>
+      </c>
+      <c r="F507" s="2">
+        <v>141</v>
+      </c>
+      <c r="G507" s="3">
+        <v>195</v>
+      </c>
+      <c r="H507" s="3">
+        <v>23</v>
+      </c>
+      <c r="I507" s="3">
+        <v>11</v>
+      </c>
+      <c r="J507">
+        <v>7</v>
+      </c>
+      <c r="K507" t="s">
+        <v>39</v>
+      </c>
+      <c r="L507">
+        <v>4</v>
+      </c>
+      <c r="M507" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>3</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D508" t="s">
+        <v>12</v>
+      </c>
+      <c r="E508" t="s">
+        <v>27</v>
+      </c>
+      <c r="F508" s="2">
+        <v>85</v>
+      </c>
+      <c r="G508" s="3">
+        <v>125</v>
+      </c>
+      <c r="H508" s="3">
+        <v>20</v>
+      </c>
+      <c r="I508" s="3">
+        <v>7</v>
+      </c>
+      <c r="J508">
+        <v>7</v>
+      </c>
+      <c r="K508" t="s">
+        <v>39</v>
+      </c>
+      <c r="L508">
+        <v>4</v>
+      </c>
+      <c r="M508" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>4</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D509" t="s">
+        <v>52</v>
+      </c>
+      <c r="E509" t="s">
+        <v>13</v>
+      </c>
+      <c r="F509" s="2">
+        <v>71</v>
+      </c>
+      <c r="G509" s="3">
+        <v>94</v>
+      </c>
+      <c r="H509" s="3">
+        <v>15</v>
+      </c>
+      <c r="I509" s="3">
+        <v>9</v>
+      </c>
+      <c r="J509">
+        <v>7</v>
+      </c>
+      <c r="K509" t="s">
+        <v>39</v>
+      </c>
+      <c r="L509">
+        <v>4</v>
+      </c>
+      <c r="M509" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>5</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D510" t="s">
+        <v>12</v>
+      </c>
+      <c r="E510" t="s">
+        <v>27</v>
+      </c>
+      <c r="F510" s="2">
+        <v>75</v>
+      </c>
+      <c r="G510" s="3">
+        <v>66</v>
+      </c>
+      <c r="H510" s="3">
+        <v>11</v>
+      </c>
+      <c r="I510" s="3">
+        <v>13</v>
+      </c>
+      <c r="J510">
+        <v>7</v>
+      </c>
+      <c r="K510" t="s">
+        <v>39</v>
+      </c>
+      <c r="L510">
+        <v>4</v>
+      </c>
+      <c r="M510" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>6</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D511" t="s">
+        <v>7</v>
+      </c>
+      <c r="E511" t="s">
+        <v>18</v>
+      </c>
+      <c r="F511" s="2">
+        <v>77</v>
+      </c>
+      <c r="G511" s="3">
+        <v>57</v>
+      </c>
+      <c r="H511" s="3">
+        <v>10</v>
+      </c>
+      <c r="I511" s="3">
+        <v>13</v>
+      </c>
+      <c r="J511">
+        <v>7</v>
+      </c>
+      <c r="K511" t="s">
+        <v>39</v>
+      </c>
+      <c r="L511">
+        <v>4</v>
+      </c>
+      <c r="M511" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>7</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D512" t="s">
+        <v>12</v>
+      </c>
+      <c r="E512" t="s">
+        <v>58</v>
+      </c>
+      <c r="F512" s="2">
+        <v>53</v>
+      </c>
+      <c r="G512" s="3">
+        <v>68</v>
+      </c>
+      <c r="H512" s="3">
+        <v>12</v>
+      </c>
+      <c r="I512" s="3">
+        <v>9</v>
+      </c>
+      <c r="J512">
+        <v>7</v>
+      </c>
+      <c r="K512" t="s">
+        <v>39</v>
+      </c>
+      <c r="L512">
+        <v>4</v>
+      </c>
+      <c r="M512" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>8</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D513" t="s">
+        <v>59</v>
+      </c>
+      <c r="E513" t="s">
+        <v>27</v>
+      </c>
+      <c r="F513" s="2">
+        <v>44</v>
+      </c>
+      <c r="G513" s="3">
+        <v>26</v>
+      </c>
+      <c r="H513" s="3">
+        <v>9</v>
+      </c>
+      <c r="I513" s="3">
+        <v>10</v>
+      </c>
+      <c r="J513">
+        <v>7</v>
+      </c>
+      <c r="K513" t="s">
+        <v>39</v>
+      </c>
+      <c r="L513">
+        <v>4</v>
+      </c>
+      <c r="M513" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>1</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D514" t="s">
+        <v>41</v>
+      </c>
+      <c r="E514" t="s">
+        <v>27</v>
+      </c>
+      <c r="F514" s="2">
+        <v>105</v>
+      </c>
+      <c r="G514" s="3">
+        <v>179</v>
+      </c>
+      <c r="H514" s="3">
+        <v>20</v>
+      </c>
+      <c r="I514" s="3">
+        <v>12</v>
+      </c>
+      <c r="J514">
+        <v>7</v>
+      </c>
+      <c r="K514" t="s">
+        <v>39</v>
+      </c>
+      <c r="L514">
+        <v>5</v>
+      </c>
+      <c r="M514" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>2</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D515" t="s">
+        <v>41</v>
+      </c>
+      <c r="E515" t="s">
+        <v>62</v>
+      </c>
+      <c r="F515" s="2">
+        <v>90</v>
+      </c>
+      <c r="G515" s="3">
+        <v>104</v>
+      </c>
+      <c r="H515" s="3">
+        <v>21</v>
+      </c>
+      <c r="I515" s="3">
+        <v>11</v>
+      </c>
+      <c r="J515">
+        <v>7</v>
+      </c>
+      <c r="K515" t="s">
+        <v>39</v>
+      </c>
+      <c r="L515">
+        <v>5</v>
+      </c>
+      <c r="M515" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>3</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D516" t="s">
+        <v>12</v>
+      </c>
+      <c r="E516" t="s">
+        <v>27</v>
+      </c>
+      <c r="F516" s="2">
+        <v>94</v>
+      </c>
+      <c r="G516" s="3">
+        <v>103</v>
+      </c>
+      <c r="H516" s="3">
+        <v>18</v>
+      </c>
+      <c r="I516" s="3">
+        <v>11</v>
+      </c>
+      <c r="J516">
+        <v>7</v>
+      </c>
+      <c r="K516" t="s">
+        <v>39</v>
+      </c>
+      <c r="L516">
+        <v>5</v>
+      </c>
+      <c r="M516" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>4</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D517" t="s">
+        <v>9</v>
+      </c>
+      <c r="E517" t="s">
+        <v>172</v>
+      </c>
+      <c r="F517" s="2">
+        <v>93</v>
+      </c>
+      <c r="G517" s="3">
+        <v>107</v>
+      </c>
+      <c r="H517" s="3">
+        <v>19</v>
+      </c>
+      <c r="I517" s="3">
+        <v>9</v>
+      </c>
+      <c r="J517">
+        <v>7</v>
+      </c>
+      <c r="K517" t="s">
+        <v>39</v>
+      </c>
+      <c r="L517">
+        <v>5</v>
+      </c>
+      <c r="M517" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>5</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D518" t="s">
+        <v>52</v>
+      </c>
+      <c r="E518" t="s">
+        <v>24</v>
+      </c>
+      <c r="F518" s="2">
+        <v>80</v>
+      </c>
+      <c r="G518" s="3">
+        <v>133</v>
+      </c>
+      <c r="H518" s="3">
+        <v>20</v>
+      </c>
+      <c r="I518" s="3">
+        <v>7</v>
+      </c>
+      <c r="J518">
+        <v>7</v>
+      </c>
+      <c r="K518" t="s">
+        <v>39</v>
+      </c>
+      <c r="L518">
+        <v>5</v>
+      </c>
+      <c r="M518" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>6</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D519" t="s">
+        <v>9</v>
+      </c>
+      <c r="E519" t="s">
+        <v>18</v>
+      </c>
+      <c r="F519" s="2">
+        <v>101</v>
+      </c>
+      <c r="G519" s="3">
+        <v>115</v>
+      </c>
+      <c r="H519" s="3">
+        <v>16</v>
+      </c>
+      <c r="I519" s="3">
+        <v>11</v>
+      </c>
+      <c r="J519">
+        <v>7</v>
+      </c>
+      <c r="K519" t="s">
+        <v>39</v>
+      </c>
+      <c r="L519">
+        <v>5</v>
+      </c>
+      <c r="M519" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>7</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D520" t="s">
+        <v>52</v>
+      </c>
+      <c r="E520" t="s">
+        <v>24</v>
+      </c>
+      <c r="F520" s="2">
+        <v>50</v>
+      </c>
+      <c r="G520" s="3">
+        <v>34</v>
+      </c>
+      <c r="H520" s="3">
+        <v>7</v>
+      </c>
+      <c r="I520" s="3">
+        <v>11</v>
+      </c>
+      <c r="J520">
+        <v>7</v>
+      </c>
+      <c r="K520" t="s">
+        <v>39</v>
+      </c>
+      <c r="L520">
+        <v>5</v>
+      </c>
+      <c r="M520" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>8</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D521" t="s">
+        <v>9</v>
+      </c>
+      <c r="E521" t="s">
+        <v>21</v>
+      </c>
+      <c r="F521" s="2">
+        <v>48</v>
+      </c>
+      <c r="G521" s="3">
+        <v>17</v>
+      </c>
+      <c r="H521" s="3">
+        <v>7</v>
+      </c>
+      <c r="I521" s="3">
+        <v>10</v>
+      </c>
+      <c r="J521">
+        <v>7</v>
+      </c>
+      <c r="K521" t="s">
+        <v>39</v>
+      </c>
+      <c r="L521">
+        <v>5</v>
+      </c>
+      <c r="M521" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
